--- a/articlelinks.xlsx
+++ b/articlelinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Dropbox/markdown_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E900DFC3-BF00-2341-A222-EB6C987771F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D37685-4C1D-D24D-851A-14A1CC1E24F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1129">
   <si>
     <t>文科生如何理解卷积神经网络？</t>
   </si>
@@ -3420,6 +3420,48 @@
   </si>
   <si>
     <t>https://mp.weixin.qq.com/s/8F08UD3HbProozBCClIBHA</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/359806257</t>
+  </si>
+  <si>
+    <t>如何高效协作绘图？</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/pRTHQuf-M1wPvO9Yb0N4wg</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/360189318</t>
+  </si>
+  <si>
+    <t>如何把学术 Markdown 在线免费转换成 Word ？</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/360929607</t>
+  </si>
+  <si>
+    <t>Roam Research 用户经验分享会议</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/362087088</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/65864</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/65760</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/65684</t>
+  </si>
+  <si>
+    <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;id=1279281</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Aot6mdSCVIqE0lLpaActcA</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/7eb3HoeDKXMCOnGzYx3Nmw</t>
   </si>
 </sst>
 </file>
@@ -3912,10 +3954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N227"/>
+  <dimension ref="A1:N230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3967,14 +4009,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>1127</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1122</v>
+      </c>
       <c r="F2" s="6" t="s">
-        <v>1112</v>
+        <v>1123</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3987,16 +4031,21 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>1109</v>
-      </c>
+        <v>1128</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -4007,13 +4056,17 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1099</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>1117</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1125</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="4"/>
@@ -4025,13 +4078,17 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>1114</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1112</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="4"/>
@@ -4043,21 +4100,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1095</v>
+        <v>1111</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>1110</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>1109</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -4068,17 +4120,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1090</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
@@ -4090,10 +4138,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1082</v>
+        <v>1097</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1081</v>
+        <v>1098</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -4108,19 +4156,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1084</v>
+        <v>1096</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -4133,13 +4181,17 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+        <v>1088</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1090</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
@@ -4151,17 +4203,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1041</v>
+        <v>1082</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1042</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
@@ -4173,19 +4221,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1037</v>
+        <v>1083</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1045</v>
+        <v>1084</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1040</v>
+        <v>1085</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1039</v>
+        <v>1086</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1038</v>
+        <v>1087</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4198,17 +4246,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1034</v>
+        <v>1080</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1035</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
@@ -4220,19 +4264,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1024</v>
+        <v>1041</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>1027</v>
+        <v>1043</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1042</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -4245,16 +4286,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1048</v>
+        <v>1045</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>1029</v>
+        <v>1039</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1038</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -4267,13 +4311,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1031</v>
+        <v>1034</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1046</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>1030</v>
+        <v>1036</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -4286,16 +4333,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>1022</v>
+        <v>1047</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1025</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -4308,16 +4358,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>1020</v>
+        <v>1028</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1029</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -4330,19 +4380,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>1015</v>
+        <v>1032</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>1030</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4355,19 +4399,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>1010</v>
+        <v>1049</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4380,13 +4421,17 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+        <v>1017</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>1020</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="4"/>
@@ -4398,19 +4443,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>1007</v>
+        <v>1012</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>1013</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4423,23 +4468,21 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>1108</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -4450,23 +4493,14 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>992</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>1107</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -4477,23 +4511,21 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>996</v>
+        <v>1052</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1007</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>1106</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -4504,22 +4536,22 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>989</v>
+        <v>1053</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>994</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="4"/>
@@ -4531,14 +4563,23 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>991</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>1107</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -4549,16 +4590,23 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>1058</v>
+        <v>990</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>996</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+        <v>998</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>1106</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -4569,21 +4617,23 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>983</v>
+        <v>986</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1056</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>981</v>
-      </c>
-      <c r="G29" s="6"/>
+        <v>989</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>1105</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -4594,20 +4644,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>897</v>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="4"/>
@@ -4619,23 +4662,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>884</v>
+        <v>985</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>1058</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>892</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -4646,23 +4682,21 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>890</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>893</v>
-      </c>
+        <v>979</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -4673,16 +4707,21 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="G33" s="21"/>
+        <v>1059</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -4693,21 +4732,23 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1062</v>
+        <v>881</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>1060</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F34" t="s">
-        <v>898</v>
-      </c>
-      <c r="G34" s="20"/>
+        <v>884</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>889</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>892</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -4718,16 +4759,23 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>885</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35" s="21"/>
+        <v>888</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>893</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -4738,22 +4786,14 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>871</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="F36" t="s">
-        <v>899</v>
+        <v>1061</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="21" t="s">
+        <v>891</v>
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="6"/>
@@ -4766,16 +4806,21 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B37" s="20"/>
+        <v>877</v>
+      </c>
       <c r="C37" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="6"/>
-      <c r="F37"/>
-      <c r="G37" s="21"/>
+        <v>1062</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="F37" t="s">
+        <v>898</v>
+      </c>
+      <c r="G37" s="20"/>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -4786,23 +4831,15 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>872</v>
+        <v>1063</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F38" t="s">
-        <v>900</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" s="21"/>
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
@@ -4814,24 +4851,24 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>865</v>
+        <v>867</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>873</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>860</v>
+        <v>871</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>870</v>
       </c>
       <c r="F39" t="s">
-        <v>901</v>
-      </c>
-      <c r="G39" s="20"/>
+        <v>899</v>
+      </c>
+      <c r="G39" s="21"/>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4842,23 +4879,15 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>866</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B40" s="20"/>
       <c r="C40" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="F40" t="s">
-        <v>902</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="6"/>
+      <c r="F40"/>
       <c r="G40" s="21"/>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
@@ -4870,22 +4899,22 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>857</v>
+        <v>868</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>874</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>855</v>
+        <v>1067</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>872</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="F41" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="6"/>
@@ -4898,29 +4927,27 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="F42" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -4928,21 +4955,24 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>845</v>
+        <v>861</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>866</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>847</v>
+        <v>1069</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>862</v>
       </c>
       <c r="F43" t="s">
-        <v>905</v>
-      </c>
-      <c r="G43" s="20"/>
+        <v>902</v>
+      </c>
+      <c r="G43" s="21"/>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -4953,19 +4983,22 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1073</v>
+        <v>1070</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>855</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="F44" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="6"/>
@@ -4978,27 +5011,29 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="F45" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -5006,21 +5041,20 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>854</v>
+        <v>843</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>845</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>842</v>
+        <v>1072</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F46"/>
+        <v>847</v>
+      </c>
+      <c r="F46" t="s">
+        <v>905</v>
+      </c>
       <c r="G46" s="20"/>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
@@ -5032,19 +5066,21 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>834</v>
+        <v>844</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>846</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="F47"/>
-      <c r="G47" s="20"/>
+        <v>1073</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="F47" t="s">
+        <v>906</v>
+      </c>
+      <c r="G47" s="21"/>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -5055,22 +5091,22 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>826</v>
+        <v>838</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="F48" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="6"/>
@@ -5083,23 +5119,21 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>832</v>
+        <v>837</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="F49" t="s">
-        <v>909</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="F49"/>
       <c r="G49" s="20"/>
       <c r="H49" s="6"/>
       <c r="I49" s="4"/>
@@ -5111,24 +5145,19 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="F50" t="s">
-        <v>910</v>
-      </c>
-      <c r="G50" s="21"/>
+        <v>1076</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50" s="20"/>
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5139,22 +5168,22 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>814</v>
+        <v>827</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>826</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>813</v>
+        <v>1077</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="F51" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="6"/>
@@ -5167,22 +5196,22 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>812</v>
+        <v>1078</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="F52" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="6"/>
@@ -5195,15 +5224,24 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B53" s="20"/>
+        <v>821</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>820</v>
+      </c>
       <c r="C53" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53"/>
-      <c r="G53" s="20"/>
+        <v>824</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="F53" t="s">
+        <v>910</v>
+      </c>
+      <c r="G53" s="21"/>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5214,14 +5252,24 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54"/>
-      <c r="G54" s="21"/>
+        <v>816</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="F54" t="s">
+        <v>911</v>
+      </c>
+      <c r="G54" s="20"/>
       <c r="H54" s="6"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -5232,22 +5280,22 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>802</v>
+        <v>819</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>812</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="F55" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="6"/>
@@ -5260,23 +5308,14 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>795</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="F56" t="s">
-        <v>914</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56"/>
       <c r="G56" s="20"/>
       <c r="H56" s="6"/>
       <c r="I56" s="4"/>
@@ -5288,24 +5327,14 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>789</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>792</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F57" t="s">
-        <v>915</v>
-      </c>
-      <c r="G57" s="20"/>
+        <v>806</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="6"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -5316,22 +5345,22 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>785</v>
+        <v>800</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="F58" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="6"/>
@@ -5344,22 +5373,22 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="F59" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="6"/>
@@ -5372,21 +5401,23 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F60"/>
+        <v>790</v>
+      </c>
+      <c r="F60" t="s">
+        <v>915</v>
+      </c>
       <c r="G60" s="20"/>
       <c r="H60" s="6"/>
       <c r="I60" s="4"/>
@@ -5398,21 +5429,23 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>769</v>
+        <v>787</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F61"/>
+        <v>784</v>
+      </c>
+      <c r="F61" t="s">
+        <v>916</v>
+      </c>
       <c r="G61" s="20"/>
       <c r="H61" s="6"/>
       <c r="I61" s="4"/>
@@ -5424,22 +5457,22 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>764</v>
+        <v>778</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>779</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="F62" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="6"/>
@@ -5452,23 +5485,21 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="F63" t="s">
-        <v>919</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="F63"/>
       <c r="G63" s="20"/>
       <c r="H63" s="6"/>
       <c r="I63" s="4"/>
@@ -5480,26 +5511,22 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="F64" t="s">
-        <v>920</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="6"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -5510,24 +5537,24 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>750</v>
+        <v>767</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>765</v>
       </c>
       <c r="F65" t="s">
-        <v>921</v>
-      </c>
-      <c r="G65" s="21"/>
+        <v>918</v>
+      </c>
+      <c r="G65" s="20"/>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -5538,24 +5565,24 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>744</v>
+        <v>758</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>760</v>
       </c>
       <c r="F66" t="s">
-        <v>922</v>
-      </c>
-      <c r="G66" s="21"/>
+        <v>919</v>
+      </c>
+      <c r="G66" s="20"/>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -5566,24 +5593,26 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>739</v>
+        <v>751</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>737</v>
+        <v>754</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F67" t="s">
-        <v>923</v>
-      </c>
-      <c r="G67" s="21"/>
+        <v>920</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>961</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -5594,22 +5623,22 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>736</v>
+        <v>755</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="F68" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="6"/>
@@ -5622,22 +5651,22 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>728</v>
+        <v>745</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="F69" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G69" s="21"/>
       <c r="H69" s="6"/>
@@ -5650,21 +5679,23 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F70"/>
+        <v>737</v>
+      </c>
+      <c r="F70" t="s">
+        <v>923</v>
+      </c>
       <c r="G70" s="21"/>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
@@ -5676,22 +5707,22 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="F71" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G71" s="21"/>
       <c r="H71" s="6"/>
@@ -5704,22 +5735,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>709</v>
+        <v>724</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>725</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="F72" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="6"/>
@@ -5732,23 +5763,21 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F73" t="s">
-        <v>928</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="F73"/>
       <c r="G73" s="21"/>
       <c r="H73" s="6"/>
       <c r="I73" s="4"/>
@@ -5760,21 +5789,23 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F74"/>
+        <v>713</v>
+      </c>
+      <c r="F74" t="s">
+        <v>926</v>
+      </c>
       <c r="G74" s="21"/>
       <c r="H74" s="6"/>
       <c r="I74" s="4"/>
@@ -5786,22 +5817,24 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="F75"/>
-      <c r="G75" s="22"/>
+        <v>723</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F75" t="s">
+        <v>927</v>
+      </c>
+      <c r="G75" s="21"/>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -5812,22 +5845,22 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>686</v>
+        <v>704</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>705</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F76" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="6"/>
@@ -5840,28 +5873,24 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>684</v>
+        <v>698</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="F77" t="s">
-        <v>930</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="F77"/>
       <c r="G77" s="21"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -5870,25 +5899,23 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="F78" t="s">
-        <v>931</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="F78"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="13"/>
+      <c r="H78" s="6"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -5898,22 +5925,22 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="F79" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="6"/>
@@ -5926,26 +5953,28 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>663</v>
+        <v>680</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="F80" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="4"/>
+      <c r="I80" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -5954,51 +5983,51 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>654</v>
+        <v>672</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>679</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>655</v>
+        <v>674</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="F81" t="s">
-        <v>934</v>
-      </c>
-      <c r="G81" s="21"/>
-      <c r="H81" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G81" s="22"/>
+      <c r="H81" s="13"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F82"/>
+        <v>669</v>
+      </c>
+      <c r="F82" t="s">
+        <v>932</v>
+      </c>
       <c r="G82" s="21"/>
       <c r="H82" s="6"/>
       <c r="I82" s="4"/>
@@ -6010,25 +6039,25 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>604</v>
+        <v>660</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>603</v>
+        <v>659</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>605</v>
+        <v>662</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>661</v>
       </c>
       <c r="F83" t="s">
-        <v>935</v>
-      </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="13"/>
+        <v>933</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -6038,27 +6067,29 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>600</v>
+        <v>653</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="F84"/>
+        <v>655</v>
+      </c>
+      <c r="F84" t="s">
+        <v>934</v>
+      </c>
       <c r="G84" s="21"/>
       <c r="H84" s="6"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -6066,51 +6097,51 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>596</v>
+        <v>647</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>598</v>
+        <v>650</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>597</v>
+        <v>649</v>
       </c>
       <c r="F85"/>
       <c r="G85" s="21"/>
       <c r="H85" s="6"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4" t="s">
-        <v>640</v>
-      </c>
+      <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="F86"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="6"/>
+        <v>651</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="F86" t="s">
+        <v>935</v>
+      </c>
+      <c r="G86" s="22"/>
+      <c r="H86" s="13"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -6120,59 +6151,55 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>569</v>
+        <v>667</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>568</v>
+        <v>652</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="21"/>
       <c r="H87" s="6"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="K87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>658</v>
+      </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F88" t="s">
-        <v>936</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="F88"/>
       <c r="G88" s="21"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="4" t="s">
-        <v>561</v>
-      </c>
+      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
@@ -6180,89 +6207,85 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="21"/>
       <c r="H89" s="6"/>
-      <c r="I89" s="4" t="s">
-        <v>562</v>
-      </c>
+      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4" t="s">
-        <v>643</v>
-      </c>
+      <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="21"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4" t="s">
-        <v>641</v>
-      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>678</v>
+        <v>556</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>557</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="F91"/>
+        <v>558</v>
+      </c>
+      <c r="F91" t="s">
+        <v>936</v>
+      </c>
       <c r="G91" s="21"/>
       <c r="H91" s="6"/>
       <c r="I91" s="4" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -6270,19 +6293,29 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="E92" s="6"/>
+        <v>551</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="F92"/>
       <c r="G92" s="21"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="4"/>
+      <c r="I92" s="4" t="s">
+        <v>562</v>
+      </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -6290,33 +6323,29 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F93" t="s">
-        <v>937</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>962</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93" s="21"/>
       <c r="H93" s="6"/>
       <c r="I93" s="4" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -6324,55 +6353,49 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>494</v>
+        <v>502</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>678</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="21"/>
       <c r="H94" s="6"/>
-      <c r="I94" s="4"/>
+      <c r="I94" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
+      <c r="K94" s="4" t="s">
+        <v>639</v>
+      </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>483</v>
+        <v>626</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>484</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="E95" s="6"/>
       <c r="F95"/>
       <c r="G95" s="21"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="4" t="s">
-        <v>510</v>
-      </c>
+      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -6380,29 +6403,33 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F96"/>
-      <c r="G96" s="21"/>
+        <v>500</v>
+      </c>
+      <c r="F96" t="s">
+        <v>937</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>962</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -6410,79 +6437,85 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="21"/>
       <c r="H97" s="6"/>
-      <c r="I97" s="4" t="s">
-        <v>512</v>
-      </c>
+      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4" t="s">
-        <v>634</v>
-      </c>
+      <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>555</v>
+        <v>483</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E98" s="6"/>
+        <v>489</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="F98"/>
       <c r="G98" s="21"/>
       <c r="H98" s="6"/>
       <c r="I98" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
+      <c r="K98" s="4" t="s">
+        <v>638</v>
+      </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>793</v>
+        <v>485</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="21"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="2" t="s">
-        <v>515</v>
+      <c r="I99" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -6490,31 +6523,29 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F100" t="s">
-        <v>938</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="F100"/>
       <c r="G100" s="21"/>
       <c r="H100" s="6"/>
       <c r="I100" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -6522,1040 +6553,1058 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>465</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="E101" s="6"/>
       <c r="F101"/>
       <c r="G101" s="21"/>
       <c r="H101" s="6"/>
       <c r="I101" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J101" s="4"/>
-      <c r="K101" s="4" t="s">
-        <v>637</v>
-      </c>
+      <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>4</v>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="F102"/>
-      <c r="G102" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103"/>
-      <c r="G103" s="20" t="s">
-        <v>964</v>
-      </c>
-      <c r="H103" s="15"/>
-    </row>
-    <row r="104" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>14</v>
+      <c r="G102" s="21"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F103" t="s">
+        <v>938</v>
+      </c>
+      <c r="G103" s="21"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="F104"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="15"/>
-      <c r="K104" s="1" t="s">
-        <v>587</v>
-      </c>
+      <c r="G104" s="21"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
     </row>
     <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="E105" s="8" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F105"/>
-      <c r="G105" s="23"/>
+      <c r="G105" s="20" t="s">
+        <v>963</v>
+      </c>
       <c r="H105" s="15"/>
       <c r="I105" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F106" t="s">
-        <v>939</v>
-      </c>
-      <c r="G106" s="23"/>
+        <v>9</v>
+      </c>
+      <c r="F106"/>
+      <c r="G106" s="20" t="s">
+        <v>964</v>
+      </c>
       <c r="H106" s="15"/>
-      <c r="K106" s="1" t="s">
-        <v>588</v>
-      </c>
     </row>
     <row r="107" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" t="s">
-        <v>940</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F107"/>
       <c r="G107" s="23"/>
       <c r="H107" s="15"/>
       <c r="K107" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F108" t="s">
-        <v>941</v>
-      </c>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108"/>
       <c r="G108" s="23"/>
       <c r="H108" s="15"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>37</v>
+      <c r="I108" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="15"/>
-      <c r="K109" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F110"/>
+      <c r="K109" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>940</v>
+      </c>
       <c r="G110" s="23"/>
       <c r="H110" s="15"/>
-      <c r="I110" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>633</v>
+      <c r="K110" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F111"/>
+        <v>32</v>
+      </c>
+      <c r="F111" t="s">
+        <v>941</v>
+      </c>
       <c r="G111" s="23"/>
       <c r="H111" s="15"/>
-      <c r="I111" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>609</v>
-      </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F112"/>
+        <v>37</v>
+      </c>
+      <c r="F112" t="s">
+        <v>942</v>
+      </c>
       <c r="G112" s="23"/>
       <c r="H112" s="15"/>
-      <c r="I112" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="K112" s="2" t="s">
-        <v>632</v>
+        <v>577</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F113"/>
-      <c r="G113" s="20" t="s">
-        <v>965</v>
-      </c>
+      <c r="G113" s="23"/>
       <c r="H113" s="15"/>
       <c r="I113" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F114"/>
       <c r="G114" s="23"/>
       <c r="H114" s="15"/>
       <c r="I114" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="23"/>
       <c r="H115" s="15"/>
       <c r="I115" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>71</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="F116"/>
-      <c r="G116" s="23"/>
+      <c r="G116" s="20" t="s">
+        <v>965</v>
+      </c>
       <c r="H116" s="15"/>
-    </row>
-    <row r="117" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F117" t="s">
-        <v>943</v>
-      </c>
+      <c r="I116" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F117"/>
       <c r="G117" s="23"/>
       <c r="H117" s="15"/>
+      <c r="I117" s="2" t="s">
+        <v>524</v>
+      </c>
       <c r="K117" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>77</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="23"/>
       <c r="H118" s="15"/>
-      <c r="I118" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I118" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F119" t="s">
-        <v>944</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F119"/>
       <c r="G119" s="23"/>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>90</v>
+        <v>74</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F120"/>
+        <v>76</v>
+      </c>
+      <c r="F120" t="s">
+        <v>943</v>
+      </c>
       <c r="G120" s="23"/>
       <c r="H120" s="15"/>
-      <c r="I120" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>621</v>
+      <c r="K120" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="23"/>
       <c r="H121" s="15"/>
+      <c r="I121" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="K121" s="1" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F122"/>
+        <v>86</v>
+      </c>
+      <c r="F122" t="s">
+        <v>944</v>
+      </c>
       <c r="G122" s="23"/>
       <c r="H122" s="15"/>
-      <c r="I122" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>620</v>
-      </c>
     </row>
     <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D123" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="E123" s="8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="23"/>
       <c r="H123" s="15"/>
       <c r="I123" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F124" t="s">
-        <v>945</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F124"/>
       <c r="G124" s="23"/>
       <c r="H124" s="15"/>
       <c r="K124" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="23"/>
       <c r="H125" s="15"/>
       <c r="I125" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>119</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="8" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="23"/>
       <c r="H126" s="15"/>
       <c r="I126" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>612</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F127"/>
+        <v>110</v>
+      </c>
+      <c r="F127" t="s">
+        <v>945</v>
+      </c>
       <c r="G127" s="23"/>
       <c r="H127" s="15"/>
       <c r="K127" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="23"/>
       <c r="H128" s="15"/>
       <c r="I128" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F129"/>
-      <c r="G129" s="20" t="s">
-        <v>966</v>
-      </c>
+      <c r="G129" s="23"/>
       <c r="H129" s="15"/>
       <c r="I129" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C130" s="17"/>
-      <c r="E130" s="15"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F130"/>
       <c r="G130" s="23"/>
       <c r="H130" s="15"/>
-      <c r="K130" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E131" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F131" t="s">
-        <v>946</v>
-      </c>
-      <c r="G131" s="24"/>
-      <c r="H131" s="18"/>
-      <c r="K131" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="12" t="s">
-        <v>143</v>
+      <c r="K130" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C132" s="17"/>
+        <v>132</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="F132"/>
-      <c r="G132" s="25"/>
+      <c r="G132" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>148</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C133" s="17"/>
+      <c r="E133" s="15"/>
       <c r="F133"/>
-      <c r="G133" s="20" t="s">
-        <v>967</v>
-      </c>
+      <c r="G133" s="23"/>
       <c r="H133" s="15"/>
-      <c r="I133" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="K133" s="2" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F134"/>
-      <c r="G134" s="20" t="s">
-        <v>968</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="2" t="s">
-        <v>535</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F134" t="s">
+        <v>946</v>
+      </c>
+      <c r="G134" s="24"/>
+      <c r="H134" s="18"/>
       <c r="K134" s="2" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F135" t="s">
-        <v>947</v>
-      </c>
-      <c r="G135" s="23"/>
-      <c r="H135" s="15"/>
-      <c r="K135" s="2" t="s">
-        <v>582</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C135" s="17"/>
+      <c r="F135"/>
+      <c r="G135" s="25"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F136"/>
       <c r="G136" s="20" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>166</v>
+        <v>151</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F137" t="s">
-        <v>948</v>
-      </c>
-      <c r="G137" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="F137"/>
+      <c r="G137" s="20" t="s">
+        <v>968</v>
+      </c>
       <c r="H137" s="15"/>
+      <c r="I137" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E138" s="18" t="s">
-        <v>172</v>
+        <v>157</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="F138" t="s">
-        <v>949</v>
-      </c>
-      <c r="G138" s="24"/>
-      <c r="H138" s="18"/>
+        <v>947</v>
+      </c>
+      <c r="G138" s="23"/>
+      <c r="H138" s="15"/>
       <c r="K138" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C139" s="17"/>
+        <v>160</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="F139"/>
-      <c r="G139" s="25"/>
+      <c r="G139" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F140"/>
-      <c r="G140" s="20" t="s">
-        <v>970</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F140" t="s">
+        <v>948</v>
+      </c>
+      <c r="G140" s="23"/>
       <c r="H140" s="15"/>
-      <c r="I140" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>616</v>
-      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F141"/>
-      <c r="G141" s="23"/>
-      <c r="H141" s="15"/>
+        <v>170</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F141" t="s">
+        <v>949</v>
+      </c>
+      <c r="G141" s="24"/>
+      <c r="H141" s="18"/>
+      <c r="K141" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F142" t="s">
-        <v>950</v>
-      </c>
-      <c r="G142" s="23"/>
-      <c r="H142" s="15"/>
-      <c r="K142" s="2" t="s">
-        <v>589</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C142" s="17"/>
+      <c r="F142"/>
+      <c r="G142" s="25"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F143" t="s">
-        <v>951</v>
-      </c>
-      <c r="G143" s="23"/>
+        <v>179</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143" s="20" t="s">
+        <v>970</v>
+      </c>
       <c r="H143" s="15"/>
+      <c r="I143" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F144"/>
       <c r="G144" s="23"/>
@@ -7563,61 +7612,63 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F145"/>
-      <c r="G145" s="20" t="s">
-        <v>971</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F145" t="s">
+        <v>950</v>
+      </c>
+      <c r="G145" s="23"/>
       <c r="H145" s="15"/>
-      <c r="I145" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="K145" s="2" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F146"/>
+        <v>192</v>
+      </c>
+      <c r="F146" t="s">
+        <v>951</v>
+      </c>
       <c r="G146" s="23"/>
       <c r="H146" s="15"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>209</v>
+        <v>195</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F147"/>
       <c r="G147" s="23"/>
@@ -7625,64 +7676,78 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>213</v>
+        <v>200</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F148"/>
-      <c r="G148" s="23"/>
+      <c r="G148" s="20" t="s">
+        <v>971</v>
+      </c>
       <c r="H148" s="15"/>
+      <c r="I148" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E149" s="15"/>
+        <v>205</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="F149"/>
       <c r="G149" s="23"/>
       <c r="H149" s="15"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C150" s="17"/>
-      <c r="E150" s="15"/>
+        <v>208</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>210</v>
+      </c>
       <c r="F150"/>
       <c r="G150" s="23"/>
       <c r="H150" s="15"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>473</v>
+        <v>214</v>
       </c>
       <c r="F151"/>
       <c r="G151" s="23"/>
@@ -7690,310 +7755,311 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>671</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E152" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F152" t="s">
-        <v>952</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E152" s="15"/>
+      <c r="F152"/>
       <c r="G152" s="23"/>
       <c r="H152" s="15"/>
-      <c r="K152" s="2" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E153" s="13"/>
+        <v>219</v>
+      </c>
+      <c r="C153" s="17"/>
+      <c r="E153" s="15"/>
       <c r="F153"/>
-      <c r="G153" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="H153" s="13"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="15"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E154" s="18" t="s">
-        <v>235</v>
+        <v>223</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>473</v>
       </c>
       <c r="F154"/>
-      <c r="G154" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="H154" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>610</v>
-      </c>
+      <c r="G154" s="23"/>
+      <c r="H154" s="15"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F155"/>
-      <c r="G155" s="25"/>
+        <v>671</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F155" t="s">
+        <v>952</v>
+      </c>
+      <c r="G155" s="23"/>
+      <c r="H155" s="15"/>
+      <c r="K155" s="2" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E156" s="18" t="s">
-        <v>242</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E156" s="13"/>
       <c r="F156"/>
       <c r="G156" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="H156" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="K156" s="2" t="s">
-        <v>618</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="H156" s="13"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C157" s="14"/>
+        <v>232</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>233</v>
+      </c>
       <c r="D157" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>246</v>
+        <v>234</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F157"/>
       <c r="G157" s="20" t="s">
-        <v>975</v>
-      </c>
-      <c r="H157" s="15" t="s">
-        <v>729</v>
+        <v>973</v>
+      </c>
+      <c r="H157" s="18" t="s">
+        <v>732</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F158"/>
-      <c r="G158" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="H158" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="K158" s="2" t="s">
-        <v>608</v>
-      </c>
+      <c r="G158" s="25"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>256</v>
+        <v>241</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="F159"/>
       <c r="G159" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="H159" s="15" t="s">
-        <v>693</v>
+        <v>974</v>
+      </c>
+      <c r="H159" s="18" t="s">
+        <v>730</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K159" s="19" t="s">
-        <v>607</v>
+        <v>540</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E160" s="18" t="s">
-        <v>260</v>
+        <v>244</v>
+      </c>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="F160"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="18"/>
+      <c r="G160" s="20" t="s">
+        <v>975</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F161"/>
       <c r="G161" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="H161" s="15" t="s">
-        <v>692</v>
+        <v>976</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>268</v>
+        <v>254</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F162"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="15"/>
+      <c r="G162" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="H162" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K162" s="19" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>272</v>
+        <v>259</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F163"/>
-      <c r="G163" s="25"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="18"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="B164" s="13"/>
-      <c r="C164" s="20" t="s">
-        <v>804</v>
+        <v>261</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="F164"/>
-      <c r="G164" s="25"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
+      <c r="G164" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="H164" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F165"/>
       <c r="G165" s="23"/>
@@ -8001,510 +8067,516 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F166"/>
       <c r="G166" s="25"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>282</v>
+        <v>805</v>
+      </c>
+      <c r="B167" s="13"/>
+      <c r="C167" s="20" t="s">
+        <v>804</v>
       </c>
       <c r="F167"/>
       <c r="G167" s="25"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F168" t="s">
-        <v>953</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>575</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F168"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="15"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F169"/>
+      <c r="G169" s="25"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="F170" t="s">
-        <v>954</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="F170"/>
+      <c r="G170" s="25"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E171" s="18" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F171" t="s">
-        <v>955</v>
-      </c>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
+        <v>953</v>
+      </c>
       <c r="K171" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F172"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F173"/>
+        <v>291</v>
+      </c>
+      <c r="F173" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F174"/>
+        <v>294</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F174" t="s">
+        <v>955</v>
+      </c>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="K174" s="2" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F175" t="s">
-        <v>956</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="F175"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F176"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F177"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F178"/>
+        <v>308</v>
+      </c>
+      <c r="F178" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F179" t="s">
-        <v>957</v>
-      </c>
-      <c r="K179" s="2" t="s">
-        <v>572</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="F179"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E180" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F180" t="s">
-        <v>958</v>
-      </c>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="K180" s="2" t="s">
-        <v>573</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F180"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F181"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="E182" s="15" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F182" t="s">
-        <v>959</v>
-      </c>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
+        <v>957</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F183"/>
+        <v>323</v>
+      </c>
+      <c r="E183" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F183" t="s">
+        <v>958</v>
+      </c>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="K183" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F184"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="F185"/>
+        <v>330</v>
+      </c>
+      <c r="E185" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F185" t="s">
+        <v>959</v>
+      </c>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="E186" s="18" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F186"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F187"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F188"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>354</v>
+        <v>343</v>
+      </c>
+      <c r="D189" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E189" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="F189"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F190"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F191"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F192"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F193"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F194"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F195"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F196"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C197" s="17"/>
+        <v>368</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>369</v>
+      </c>
       <c r="F197"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="E198" s="15" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F198"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="E199" s="15" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F199"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="C200" s="14" t="s">
-        <v>388</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C200" s="17"/>
       <c r="F200"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>391</v>
+        <v>380</v>
+      </c>
+      <c r="E201" s="15" t="s">
+        <v>381</v>
       </c>
       <c r="F201"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E202" s="15" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F202"/>
       <c r="G202" s="15"/>
@@ -8512,40 +8584,40 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F203"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F204"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E205" s="15" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F205"/>
       <c r="G205" s="15"/>
@@ -8553,691 +8625,732 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F206"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>411</v>
+        <v>400</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="F207"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="F208"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F209"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="C210" s="14" t="s">
-        <v>420</v>
+        <v>410</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="F210"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F211"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F212"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F213"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F214"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F215"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F216"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="E217" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="F217" t="s">
-        <v>960</v>
-      </c>
-      <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
-      <c r="K217" s="2" t="s">
-        <v>584</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="F217"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>445</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="F218"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>448</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F219"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>451</v>
+        <v>440</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E220" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F220" t="s">
+        <v>960</v>
+      </c>
+      <c r="G220" s="15"/>
+      <c r="H220" s="15"/>
+      <c r="K220" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B224" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C221" s="16" t="s">
+      <c r="C224" s="16" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C222" s="16" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C223" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C224" s="16" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C225" s="16" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C226" s="16" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C227" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="16" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C103" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C102" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C104" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C105" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C106" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C107" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C108" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C109" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C110" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C111" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C112" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C114" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C115" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C116" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C117" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C118" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C119" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C120" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C121" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C122" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C123" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C124" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C125" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C126" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C127" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C128" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C129" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C131" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C133" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C134" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C135" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C136" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C137" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C138" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C140" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C141" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C142" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C143" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C144" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C145" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C146" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C147" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C148" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C149" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C151" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C152" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C153" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C154" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C155" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C156" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C158" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C159" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C160" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C161" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C162" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C163" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C165" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C166" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C167" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C168" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C169" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C170" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C171" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C172" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C173" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C174" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C175" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C176" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C177" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C178" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C179" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C180" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C181" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C182" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C183" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C184" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C185" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C186" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C187" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C188" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C189" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C190" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C191" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C192" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C193" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C194" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C195" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C196" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C198" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C199" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C200" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C201" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C202" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C203" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C204" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C205" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C206" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C208" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C209" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C210" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C211" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C212" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C213" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C214" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C215" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C216" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C217" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C113" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C218" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C207" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C219" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C220" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C221" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C222" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C223" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C224" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C225" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C226" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C227" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D102" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D103" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D104" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D106" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D107" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D109" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D110" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D111" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D117" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D116" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D145" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D112" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D113" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D114" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D115" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D118" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D119" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D120" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D121" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D122" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D124" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D125" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D126" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D127" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D128" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D129" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D131" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D134" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D135" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D136" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D138" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D140" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D142" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D144" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D151" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D152" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D154" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D157" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D158" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D159" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D171" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E102" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E103" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E104" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E105" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E106" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E107" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E109" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E110" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E111" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E112" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E114" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E115" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E116" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E118" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E119" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E120" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E121" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E122" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E123" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E124" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E125" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E126" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E127" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E128" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E129" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E130" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E133" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E134" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E135" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E136" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E140" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E141" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E142" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E143" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E144" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E150" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E151" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E153" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E157" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E162" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E165" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E180" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E182" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E198" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E199" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E202" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E205" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E217" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D186" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E117" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E146" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E147" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E158" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E159" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E148" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E149" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E113" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E137" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E161" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E152" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E108" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E131" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E138" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E145" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E154" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E156" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E160" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E171" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E186" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B108" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B109" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B110" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B111" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B112" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B113" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B114" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B115" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B116" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B117" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B118" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B119" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B120" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B121" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B122" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B123" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B124" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B125" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B126" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B127" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B128" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B129" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B130" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B131" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B132" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B134" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B135" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B136" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B137" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B138" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B139" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B141" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B142" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B143" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B144" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B145" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B146" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B147" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B148" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B149" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B150" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B151" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B152" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B153" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B102" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B103" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B104" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B105" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B106" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B107" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B221" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B220" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B219" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B218" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B217" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B216" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B215" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B214" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B213" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B212" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B211" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B210" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B209" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B208" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B207" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B206" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B205" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B204" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B203" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B202" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B201" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B200" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B199" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B198" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B197" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B196" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B195" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B194" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B193" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B192" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B191" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B190" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B189" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B188" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B187" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B186" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B185" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B184" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B183" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B182" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B181" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B180" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B179" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B178" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B177" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B176" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B175" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B174" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B173" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B172" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B171" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B170" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B169" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B168" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B167" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B166" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B165" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B163" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B162" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B161" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B160" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B159" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B158" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B157" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B156" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B155" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B154" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E83" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
-    <hyperlink ref="E78" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
-    <hyperlink ref="B79" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
-    <hyperlink ref="B91" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
-    <hyperlink ref="B78" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
-    <hyperlink ref="B77" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
-    <hyperlink ref="E75" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
-    <hyperlink ref="B76" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
-    <hyperlink ref="H158" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
-    <hyperlink ref="B75" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
-    <hyperlink ref="C66" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
-    <hyperlink ref="B64" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
-    <hyperlink ref="E64" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
-    <hyperlink ref="D64" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
-    <hyperlink ref="D65" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
-    <hyperlink ref="B63" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
-    <hyperlink ref="E63" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
-    <hyperlink ref="D63" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
-    <hyperlink ref="E62" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
-    <hyperlink ref="D62" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
-    <hyperlink ref="B82" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
-    <hyperlink ref="B61" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
-    <hyperlink ref="E61" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
-    <hyperlink ref="D61" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
-    <hyperlink ref="B60" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
-    <hyperlink ref="E60" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
-    <hyperlink ref="D60" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
-    <hyperlink ref="E59" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
-    <hyperlink ref="D59" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
-    <hyperlink ref="D58" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
-    <hyperlink ref="E58" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
-    <hyperlink ref="B57" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
-    <hyperlink ref="E57" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
-    <hyperlink ref="D57" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
-    <hyperlink ref="B99" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
-    <hyperlink ref="B56" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
-    <hyperlink ref="D56" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
-    <hyperlink ref="E56" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
-    <hyperlink ref="E55" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
-    <hyperlink ref="C55" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
-    <hyperlink ref="D55" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
-    <hyperlink ref="C164" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
-    <hyperlink ref="C54" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
-    <hyperlink ref="B52" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
-    <hyperlink ref="E52" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
-    <hyperlink ref="E51" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
-    <hyperlink ref="D51" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
-    <hyperlink ref="D52" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
-    <hyperlink ref="B50" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
-    <hyperlink ref="E48" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
-    <hyperlink ref="B48" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
-    <hyperlink ref="D48" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
-    <hyperlink ref="B47" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
-    <hyperlink ref="E47" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
-    <hyperlink ref="E46" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
-    <hyperlink ref="E45" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
-    <hyperlink ref="D45" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
-    <hyperlink ref="D46" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
-    <hyperlink ref="B43" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
-    <hyperlink ref="E43" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
-    <hyperlink ref="E42" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
-    <hyperlink ref="D42" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
-    <hyperlink ref="D41" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
-    <hyperlink ref="B59" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
-    <hyperlink ref="E39" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
-    <hyperlink ref="D39" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
-    <hyperlink ref="D36" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
-    <hyperlink ref="B36" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
-    <hyperlink ref="B38" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
-    <hyperlink ref="B72" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
-    <hyperlink ref="E34" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
-    <hyperlink ref="E30" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
-    <hyperlink ref="D30" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
-    <hyperlink ref="G31" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
-    <hyperlink ref="G32" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
-    <hyperlink ref="G64" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
-    <hyperlink ref="G93" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
-    <hyperlink ref="G102" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
-    <hyperlink ref="G103" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
-    <hyperlink ref="G113" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
-    <hyperlink ref="G129" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
-    <hyperlink ref="G134" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
-    <hyperlink ref="G133" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
-    <hyperlink ref="G136" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
-    <hyperlink ref="G140" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
-    <hyperlink ref="G145" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
-    <hyperlink ref="G153" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
-    <hyperlink ref="G154" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
-    <hyperlink ref="G156" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
-    <hyperlink ref="G157" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
-    <hyperlink ref="G158" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
-    <hyperlink ref="G159" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
-    <hyperlink ref="G161" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
-    <hyperlink ref="E29" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
-    <hyperlink ref="F29" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
-    <hyperlink ref="D29" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
-    <hyperlink ref="D26" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
-    <hyperlink ref="E24" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
-    <hyperlink ref="C77" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
-    <hyperlink ref="D19" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
-    <hyperlink ref="C19" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
-    <hyperlink ref="D18" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
-    <hyperlink ref="E18" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
-    <hyperlink ref="E17" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
-    <hyperlink ref="F17" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
-    <hyperlink ref="F14" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
-    <hyperlink ref="D25" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
-    <hyperlink ref="G25" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
-    <hyperlink ref="G24" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
+    <hyperlink ref="C106" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C105" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C107" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C108" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C109" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C110" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C111" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C112" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C113" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C114" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C115" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C117" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C118" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C119" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C120" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C121" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C122" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C123" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C124" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C125" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C126" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C127" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C128" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C129" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C130" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C131" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C132" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C134" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C136" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C137" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C138" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C139" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C140" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C141" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C143" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C144" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C145" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C146" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C147" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C148" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C149" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C150" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C151" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C152" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C154" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C155" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C156" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C157" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C158" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C159" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C161" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C162" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C163" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C164" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C165" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C166" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C168" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C169" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C170" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C171" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C172" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C173" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C174" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C175" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C176" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C177" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C178" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C179" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C180" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C181" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C182" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C183" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C184" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C185" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C186" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C187" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C188" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C189" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C190" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C191" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C192" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C193" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C194" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C195" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C196" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C197" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C198" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C199" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C201" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C202" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C203" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C204" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C205" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C206" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C207" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C208" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C209" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C211" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C212" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C213" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C214" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C215" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C216" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C217" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C218" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C219" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C220" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C116" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C221" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C210" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C222" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C223" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C224" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C225" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C226" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C227" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C228" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C229" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C230" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D105" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D106" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D107" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D109" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D110" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D112" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D113" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D114" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D120" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D119" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D148" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D115" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D116" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D117" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D118" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D121" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D122" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D123" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D124" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D125" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D127" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D128" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D129" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D130" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D131" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D132" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D134" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D137" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D138" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D139" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D141" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D143" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D145" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D147" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D154" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D155" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D160" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D161" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D162" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D164" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D174" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E105" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E106" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E107" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E108" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E109" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E110" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E112" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E113" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E114" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E115" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E117" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E118" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E119" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E121" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E122" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E123" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E124" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E125" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E126" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E127" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E128" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E129" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E130" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E131" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E132" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E133" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E136" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E137" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E138" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E139" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E143" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E144" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E145" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E146" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E147" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E153" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E154" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E156" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E160" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E165" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E168" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E183" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E185" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E201" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E202" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E205" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E208" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E220" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D189" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E120" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E149" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E150" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E161" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E162" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E151" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E152" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E116" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E140" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E164" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E155" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E111" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E134" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E141" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E148" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E157" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E159" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E163" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E174" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E189" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B111" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B112" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B113" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B114" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B115" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B116" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B117" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B118" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B119" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B120" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B121" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B122" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B123" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B124" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B125" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B126" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B127" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B128" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B129" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B130" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B131" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B132" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B133" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B134" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B135" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B137" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B138" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B139" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B140" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B141" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B142" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B144" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B145" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B146" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B147" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B148" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B149" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B150" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B151" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B152" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B153" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B154" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B155" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B156" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B105" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B106" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B107" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B108" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B109" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B110" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B224" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B223" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B222" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B221" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B220" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B219" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B218" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B217" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B216" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B215" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B214" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B213" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B212" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B211" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B210" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B209" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B208" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B207" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B206" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B205" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B204" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B203" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B202" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B201" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B200" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B199" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B198" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B197" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B196" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B195" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B194" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B193" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B192" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B191" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B190" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B189" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B188" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B187" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B186" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B185" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B184" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B183" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B182" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B181" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B180" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B179" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B178" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B177" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B176" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B175" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B174" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B173" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B172" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B171" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B170" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B169" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B168" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B166" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B165" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B164" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B163" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B162" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B161" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B160" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B159" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B158" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B157" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E86" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
+    <hyperlink ref="E81" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
+    <hyperlink ref="B82" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
+    <hyperlink ref="B94" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
+    <hyperlink ref="B81" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
+    <hyperlink ref="B80" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
+    <hyperlink ref="E78" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
+    <hyperlink ref="B79" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
+    <hyperlink ref="H161" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
+    <hyperlink ref="B78" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
+    <hyperlink ref="C69" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
+    <hyperlink ref="B67" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
+    <hyperlink ref="E67" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
+    <hyperlink ref="D67" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
+    <hyperlink ref="D68" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
+    <hyperlink ref="B66" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
+    <hyperlink ref="E66" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
+    <hyperlink ref="D66" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
+    <hyperlink ref="E65" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
+    <hyperlink ref="D65" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
+    <hyperlink ref="B85" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
+    <hyperlink ref="B64" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
+    <hyperlink ref="E64" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
+    <hyperlink ref="D64" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
+    <hyperlink ref="B63" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
+    <hyperlink ref="E63" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
+    <hyperlink ref="D63" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
+    <hyperlink ref="E62" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
+    <hyperlink ref="D62" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
+    <hyperlink ref="D61" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
+    <hyperlink ref="E61" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
+    <hyperlink ref="B60" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
+    <hyperlink ref="E60" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
+    <hyperlink ref="D60" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
+    <hyperlink ref="B102" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
+    <hyperlink ref="B59" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
+    <hyperlink ref="D59" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
+    <hyperlink ref="E59" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
+    <hyperlink ref="E58" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
+    <hyperlink ref="C58" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
+    <hyperlink ref="D58" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
+    <hyperlink ref="C167" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
+    <hyperlink ref="C57" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
+    <hyperlink ref="B55" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
+    <hyperlink ref="E55" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
+    <hyperlink ref="E54" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
+    <hyperlink ref="D54" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
+    <hyperlink ref="D55" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
+    <hyperlink ref="B53" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
+    <hyperlink ref="E51" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
+    <hyperlink ref="B51" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
+    <hyperlink ref="D51" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
+    <hyperlink ref="B50" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
+    <hyperlink ref="E50" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
+    <hyperlink ref="E49" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
+    <hyperlink ref="E48" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
+    <hyperlink ref="D48" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
+    <hyperlink ref="D49" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
+    <hyperlink ref="B46" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
+    <hyperlink ref="E46" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
+    <hyperlink ref="E45" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
+    <hyperlink ref="D45" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
+    <hyperlink ref="D44" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
+    <hyperlink ref="B62" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
+    <hyperlink ref="E42" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
+    <hyperlink ref="D42" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
+    <hyperlink ref="D39" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
+    <hyperlink ref="B39" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
+    <hyperlink ref="B41" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
+    <hyperlink ref="B75" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
+    <hyperlink ref="E37" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
+    <hyperlink ref="E33" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
+    <hyperlink ref="D33" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
+    <hyperlink ref="G34" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
+    <hyperlink ref="G35" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
+    <hyperlink ref="G67" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
+    <hyperlink ref="G96" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
+    <hyperlink ref="G105" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
+    <hyperlink ref="G106" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
+    <hyperlink ref="G116" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
+    <hyperlink ref="G132" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
+    <hyperlink ref="G137" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
+    <hyperlink ref="G136" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
+    <hyperlink ref="G139" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
+    <hyperlink ref="G143" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
+    <hyperlink ref="G148" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
+    <hyperlink ref="G156" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
+    <hyperlink ref="G157" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
+    <hyperlink ref="G159" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
+    <hyperlink ref="G160" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
+    <hyperlink ref="G161" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
+    <hyperlink ref="G162" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
+    <hyperlink ref="G164" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
+    <hyperlink ref="E32" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
+    <hyperlink ref="F32" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
+    <hyperlink ref="D32" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
+    <hyperlink ref="D29" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
+    <hyperlink ref="E27" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
+    <hyperlink ref="C80" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
+    <hyperlink ref="D22" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
+    <hyperlink ref="C22" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
+    <hyperlink ref="D21" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
+    <hyperlink ref="E21" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
+    <hyperlink ref="E20" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
+    <hyperlink ref="F20" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
+    <hyperlink ref="F17" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
+    <hyperlink ref="D28" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
+    <hyperlink ref="G28" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
+    <hyperlink ref="G27" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/articlelinks.xlsx
+++ b/articlelinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Dropbox/markdown_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D37685-4C1D-D24D-851A-14A1CC1E24F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD737DF6-CE8A-9042-8A80-A9BFEAE3FE87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1136">
   <si>
     <t>文科生如何理解卷积神经网络？</t>
   </si>
@@ -3462,6 +3462,27 @@
   </si>
   <si>
     <t>https://mp.weixin.qq.com/s/7eb3HoeDKXMCOnGzYx3Nmw</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/58474</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/65886</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/qN3EbDE0vAhS-Fhz9joAyw</t>
+  </si>
+  <si>
+    <t>如何把 Markdown 免费在线转换成 RevealJS 便携幻灯？</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/362405220</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/3v0_JMAFE5lzMzl5ip9_Mg</t>
+  </si>
+  <si>
+    <t>质检动真格，你的本科毕业论文该怎么做？</t>
   </si>
 </sst>
 </file>
@@ -3954,17 +3975,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N230"/>
+  <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="61.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="4" customWidth="1"/>
     <col min="5" max="7" width="30.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="30" style="5" customWidth="1"/>
@@ -4009,17 +4030,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1121</v>
+        <v>1135</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1123</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="4"/>
@@ -4031,19 +4048,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1119</v>
+        <v>1132</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>1120</v>
+      <c r="E3" s="6" t="s">
+        <v>1133</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4056,16 +4073,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -4078,16 +4095,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1118</v>
+        <v>1119</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1120</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1112</v>
+        <v>1124</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4100,16 +4120,18 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>1109</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -4120,13 +4142,17 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1099</v>
+        <v>1113</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+        <v>1114</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1112</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
@@ -4138,14 +4164,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1097</v>
+        <v>1111</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>1109</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -4156,20 +4184,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1093</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
@@ -4181,17 +4202,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1090</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
@@ -4203,13 +4220,20 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+        <v>1096</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1093</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
@@ -4221,19 +4245,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4246,10 +4267,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -4264,16 +4285,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1041</v>
+        <v>1083</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1044</v>
+        <v>1084</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1085</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1043</v>
+        <v>1086</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1042</v>
+        <v>1087</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -4286,20 +4310,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1037</v>
+        <v>1080</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>1038</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
@@ -4311,16 +4328,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -4333,19 +4350,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1024</v>
+        <v>1037</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1026</v>
+        <v>1040</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>1027</v>
+        <v>1039</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1038</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -4358,16 +4375,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>1029</v>
+        <v>1036</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -4380,13 +4397,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1031</v>
+        <v>1024</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4399,16 +4422,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>1022</v>
+        <v>1048</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>1033</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4421,16 +4444,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>1020</v>
+        <v>1031</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>1030</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4443,19 +4463,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>1015</v>
+        <v>1021</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4468,19 +4485,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>1008</v>
+        <v>1017</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>1019</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4493,13 +4507,20 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+        <v>1012</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>1015</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="4"/>
@@ -4511,19 +4532,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -4536,23 +4557,14 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>1108</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -4563,23 +4575,21 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>992</v>
+        <v>1007</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1009</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>1107</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -4590,22 +4600,22 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>996</v>
+        <v>1053</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>994</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>1106</v>
+        <v>1000</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>1108</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
@@ -4617,22 +4627,22 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>989</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>988</v>
+        <v>1054</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>992</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>1105</v>
+        <v>1001</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>1107</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="4"/>
@@ -4644,14 +4654,23 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+        <v>990</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>1106</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -4662,16 +4681,23 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>1058</v>
+        <v>986</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>989</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+        <v>988</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>1105</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -4682,20 +4708,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>981</v>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="4"/>
@@ -4707,20 +4726,15 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>897</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="4"/>
@@ -4732,23 +4746,21 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>881</v>
+        <v>979</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>892</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -4759,23 +4771,21 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>890</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>893</v>
-      </c>
+        <v>1059</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -4786,16 +4796,23 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E36" s="6"/>
+        <v>881</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>887</v>
+      </c>
       <c r="F36" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="G36" s="21"/>
+        <v>889</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>892</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -4806,21 +4823,23 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F37" t="s">
-        <v>898</v>
-      </c>
-      <c r="G37" s="20"/>
+        <v>885</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>893</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -4831,15 +4850,15 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="F38"/>
+        <v>1061</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="21" t="s">
+        <v>891</v>
+      </c>
       <c r="G38" s="21"/>
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
@@ -4851,24 +4870,21 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>871</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>870</v>
+        <v>1062</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="F39" t="s">
-        <v>899</v>
-      </c>
-      <c r="G39" s="21"/>
+        <v>898</v>
+      </c>
+      <c r="G39" s="20"/>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4879,15 +4895,17 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B40" s="20"/>
+        <v>876</v>
+      </c>
       <c r="C40" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="6"/>
-      <c r="F40"/>
+        <v>1063</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1129</v>
+      </c>
       <c r="G40" s="21"/>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
@@ -4899,22 +4917,22 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>872</v>
+        <v>1064</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>871</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F41" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="6"/>
@@ -4927,24 +4945,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>865</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B42" s="20"/>
       <c r="C42" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>860</v>
-      </c>
-      <c r="F42" t="s">
-        <v>901</v>
-      </c>
-      <c r="G42" s="20"/>
+        <v>1066</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="6"/>
+      <c r="F42"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -4955,22 +4965,22 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>866</v>
+        <v>868</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>874</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="F43" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="6"/>
@@ -4983,24 +4993,24 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>855</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>858</v>
+        <v>863</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F44" t="s">
-        <v>903</v>
-      </c>
-      <c r="G44" s="21"/>
+        <v>901</v>
+      </c>
+      <c r="G44" s="20"/>
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5011,29 +5021,27 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>850</v>
+        <v>1069</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>862</v>
       </c>
       <c r="F45" t="s">
-        <v>904</v>
-      </c>
-      <c r="G45" s="20"/>
+        <v>902</v>
+      </c>
+      <c r="G45" s="21"/>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -5041,21 +5049,24 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>845</v>
+        <v>856</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>857</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>847</v>
+        <v>1070</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="F46" t="s">
-        <v>905</v>
-      </c>
-      <c r="G46" s="20"/>
+        <v>903</v>
+      </c>
+      <c r="G46" s="21"/>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -5066,24 +5077,29 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>848</v>
+        <v>1071</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>850</v>
       </c>
       <c r="F47" t="s">
-        <v>906</v>
-      </c>
-      <c r="G47" s="21"/>
+        <v>904</v>
+      </c>
+      <c r="G47" s="20"/>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -5091,22 +5107,19 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>839</v>
+        <v>843</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>845</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>841</v>
+        <v>1072</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="F48" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="6"/>
@@ -5119,22 +5132,21 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F49"/>
-      <c r="G49" s="20"/>
+        <v>1073</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="F49" t="s">
+        <v>906</v>
+      </c>
+      <c r="G49" s="21"/>
       <c r="H49" s="6"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -5145,18 +5157,23 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>834</v>
+        <v>838</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>841</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="F50"/>
+        <v>840</v>
+      </c>
+      <c r="F50" t="s">
+        <v>907</v>
+      </c>
       <c r="G50" s="20"/>
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
@@ -5168,23 +5185,21 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>826</v>
+        <v>837</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="F51" t="s">
-        <v>908</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="F51"/>
       <c r="G51" s="20"/>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
@@ -5196,23 +5211,18 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>830</v>
+        <v>1076</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="F52" t="s">
-        <v>909</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="F52"/>
       <c r="G52" s="20"/>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
@@ -5224,24 +5234,24 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>822</v>
+        <v>1077</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>825</v>
       </c>
       <c r="F53" t="s">
-        <v>910</v>
-      </c>
-      <c r="G53" s="21"/>
+        <v>908</v>
+      </c>
+      <c r="G53" s="20"/>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5252,22 +5262,22 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>814</v>
+        <v>829</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>832</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>813</v>
+        <v>1078</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="F54" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="6"/>
@@ -5280,24 +5290,24 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>818</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>809</v>
+        <v>824</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="F55" t="s">
-        <v>912</v>
-      </c>
-      <c r="G55" s="20"/>
+        <v>910</v>
+      </c>
+      <c r="G55" s="21"/>
       <c r="H55" s="6"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5308,14 +5318,23 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B56" s="20"/>
+        <v>816</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>814</v>
+      </c>
       <c r="C56" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56"/>
+        <v>813</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="F56" t="s">
+        <v>911</v>
+      </c>
       <c r="G56" s="20"/>
       <c r="H56" s="6"/>
       <c r="I56" s="4"/>
@@ -5327,14 +5346,24 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57"/>
-      <c r="G57" s="21"/>
+        <v>819</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="F57" t="s">
+        <v>912</v>
+      </c>
+      <c r="G57" s="20"/>
       <c r="H57" s="6"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -5345,23 +5374,14 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F58" t="s">
-        <v>913</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58"/>
       <c r="G58" s="20"/>
       <c r="H58" s="6"/>
       <c r="I58" s="4"/>
@@ -5373,24 +5393,14 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="F59" t="s">
-        <v>914</v>
-      </c>
-      <c r="G59" s="20"/>
+        <v>806</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59"/>
+      <c r="G59" s="21"/>
       <c r="H59" s="6"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -5401,22 +5411,22 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>789</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>791</v>
+        <v>799</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="F60" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="6"/>
@@ -5429,22 +5439,22 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>786</v>
+        <v>794</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>795</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="F61" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="6"/>
@@ -5457,22 +5467,22 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="F62" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="6"/>
@@ -5485,21 +5495,23 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>774</v>
+        <v>787</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F63"/>
+        <v>784</v>
+      </c>
+      <c r="F63" t="s">
+        <v>916</v>
+      </c>
       <c r="G63" s="20"/>
       <c r="H63" s="6"/>
       <c r="I63" s="4"/>
@@ -5511,21 +5523,23 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F64"/>
+        <v>780</v>
+      </c>
+      <c r="F64" t="s">
+        <v>917</v>
+      </c>
       <c r="G64" s="20"/>
       <c r="H64" s="6"/>
       <c r="I64" s="4"/>
@@ -5537,23 +5551,21 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>764</v>
+        <v>773</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>774</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="F65" t="s">
-        <v>918</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="F65"/>
       <c r="G65" s="20"/>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
@@ -5565,23 +5577,21 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="F66" t="s">
-        <v>919</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F66"/>
       <c r="G66" s="20"/>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
@@ -5593,26 +5603,24 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>752</v>
+        <v>763</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="F67" t="s">
-        <v>920</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="G67" s="20"/>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -5623,24 +5631,24 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>748</v>
+        <v>758</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>759</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>750</v>
+        <v>762</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>760</v>
       </c>
       <c r="F68" t="s">
-        <v>921</v>
-      </c>
-      <c r="G68" s="21"/>
+        <v>919</v>
+      </c>
+      <c r="G68" s="20"/>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -5651,24 +5659,26 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>744</v>
+        <v>751</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F69" t="s">
-        <v>922</v>
-      </c>
-      <c r="G69" s="21"/>
+        <v>920</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>961</v>
+      </c>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -5679,22 +5689,22 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>740</v>
+        <v>755</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="F70" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G70" s="21"/>
       <c r="H70" s="6"/>
@@ -5707,22 +5717,22 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>742</v>
+        <v>745</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="F71" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G71" s="21"/>
       <c r="H71" s="6"/>
@@ -5735,22 +5745,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="F72" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="6"/>
@@ -5763,21 +5773,23 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F73"/>
+        <v>733</v>
+      </c>
+      <c r="F73" t="s">
+        <v>924</v>
+      </c>
       <c r="G73" s="21"/>
       <c r="H73" s="6"/>
       <c r="I73" s="4"/>
@@ -5789,22 +5801,22 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="F74" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="6"/>
@@ -5817,23 +5829,21 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>709</v>
+        <v>716</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="F75" t="s">
-        <v>927</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="F75"/>
       <c r="G75" s="21"/>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
@@ -5845,22 +5855,22 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="F76" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="6"/>
@@ -5873,21 +5883,23 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>699</v>
+        <v>710</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F77"/>
+        <v>711</v>
+      </c>
+      <c r="F77" t="s">
+        <v>927</v>
+      </c>
       <c r="G77" s="21"/>
       <c r="H77" s="6"/>
       <c r="I77" s="4"/>
@@ -5899,22 +5911,24 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>695</v>
+        <v>704</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>705</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="F78"/>
-      <c r="G78" s="22"/>
+        <v>707</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="F78" t="s">
+        <v>928</v>
+      </c>
+      <c r="G78" s="21"/>
       <c r="H78" s="6"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -5925,23 +5939,21 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>686</v>
+        <v>698</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="F79" t="s">
-        <v>929</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="F79"/>
       <c r="G79" s="21"/>
       <c r="H79" s="6"/>
       <c r="I79" s="4"/>
@@ -5953,28 +5965,24 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>684</v>
+        <v>695</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>703</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="F80" t="s">
-        <v>930</v>
-      </c>
-      <c r="G80" s="21"/>
+        <v>697</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80" s="22"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -5983,25 +5991,25 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>673</v>
+        <v>689</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>688</v>
       </c>
       <c r="F81" t="s">
-        <v>931</v>
-      </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="13"/>
+        <v>929</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -6011,26 +6019,28 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>675</v>
+        <v>681</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="F82" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="4"/>
+      <c r="I82" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -6039,25 +6049,25 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>659</v>
+        <v>672</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>679</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>661</v>
+        <v>674</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="F83" t="s">
-        <v>933</v>
-      </c>
-      <c r="G83" s="21"/>
-      <c r="H83" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G83" s="22"/>
+      <c r="H83" s="13"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -6067,51 +6077,51 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>654</v>
+        <v>668</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="F84" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="6"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>648</v>
+        <v>660</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>659</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F85"/>
+        <v>661</v>
+      </c>
+      <c r="F85" t="s">
+        <v>933</v>
+      </c>
       <c r="G85" s="21"/>
       <c r="H85" s="6"/>
       <c r="I85" s="4"/>
@@ -6123,229 +6133,225 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>605</v>
+        <v>656</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>655</v>
       </c>
       <c r="F86" t="s">
-        <v>935</v>
-      </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="13"/>
+        <v>934</v>
+      </c>
+      <c r="G86" s="21"/>
+      <c r="H86" s="6"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
+      <c r="K86" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>601</v>
+        <v>647</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="F87"/>
       <c r="G87" s="21"/>
       <c r="H87" s="6"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4" t="s">
-        <v>658</v>
-      </c>
+      <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="6"/>
+        <v>651</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="F88" t="s">
+        <v>935</v>
+      </c>
+      <c r="G88" s="22"/>
+      <c r="H88" s="13"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4" t="s">
-        <v>640</v>
-      </c>
+      <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>594</v>
+        <v>652</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="F89"/>
       <c r="G89" s="21"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
+      <c r="K89" s="4" t="s">
+        <v>658</v>
+      </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="21"/>
       <c r="H90" s="6"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="K90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F91" t="s">
-        <v>936</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="F91"/>
       <c r="G91" s="21"/>
       <c r="H91" s="6"/>
-      <c r="I91" s="4" t="s">
-        <v>561</v>
-      </c>
+      <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>646</v>
+        <v>563</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="21"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4" t="s">
-        <v>643</v>
-      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="F93"/>
+        <v>558</v>
+      </c>
+      <c r="F93" t="s">
+        <v>936</v>
+      </c>
       <c r="G93" s="21"/>
       <c r="H93" s="6"/>
       <c r="I93" s="4" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -6353,29 +6359,29 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>678</v>
+        <v>646</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>506</v>
+        <v>553</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="21"/>
       <c r="H94" s="6"/>
       <c r="I94" s="4" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -6383,19 +6389,29 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>626</v>
+        <v>545</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="E95" s="6"/>
+        <v>546</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>547</v>
+      </c>
       <c r="F95"/>
       <c r="G95" s="21"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="4"/>
+      <c r="I95" s="4" t="s">
+        <v>550</v>
+      </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -6403,33 +6419,29 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>498</v>
+        <v>502</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>678</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F96" t="s">
-        <v>937</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>962</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96" s="21"/>
       <c r="H96" s="6"/>
       <c r="I96" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -6437,55 +6449,53 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>493</v>
+        <v>626</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>495</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="E97" s="6"/>
       <c r="F97"/>
       <c r="G97" s="21"/>
       <c r="H97" s="6"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
+      <c r="K97" s="4" t="s">
+        <v>627</v>
+      </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="F98"/>
-      <c r="G98" s="21"/>
+        <v>500</v>
+      </c>
+      <c r="F98" t="s">
+        <v>937</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>962</v>
+      </c>
       <c r="H98" s="6"/>
       <c r="I98" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -6493,59 +6503,55 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="21"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="4" t="s">
-        <v>511</v>
-      </c>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4" t="s">
-        <v>642</v>
-      </c>
+      <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="21"/>
       <c r="H100" s="6"/>
       <c r="I100" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -6553,49 +6559,59 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>555</v>
+        <v>485</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E101" s="6"/>
+        <v>488</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>486</v>
+      </c>
       <c r="F101"/>
       <c r="G101" s="21"/>
       <c r="H101" s="6"/>
       <c r="I101" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
+      <c r="K101" s="4" t="s">
+        <v>642</v>
+      </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>793</v>
+        <v>478</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="21"/>
       <c r="H102" s="6"/>
-      <c r="I102" s="2" t="s">
-        <v>515</v>
+      <c r="I102" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -6603,1117 +6619,1122 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>467</v>
+        <v>555</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F103" t="s">
-        <v>938</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103"/>
       <c r="G103" s="21"/>
       <c r="H103" s="6"/>
       <c r="I103" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J103" s="4"/>
-      <c r="K103" s="4" t="s">
-        <v>631</v>
-      </c>
+      <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>462</v>
+        <v>474</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>793</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="21"/>
       <c r="H104" s="6"/>
-      <c r="I104" s="4" t="s">
-        <v>517</v>
+      <c r="I104" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105"/>
-      <c r="G105" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>9</v>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F105" t="s">
+        <v>938</v>
+      </c>
+      <c r="G105" s="21"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="F106"/>
-      <c r="G106" s="20" t="s">
-        <v>964</v>
-      </c>
-      <c r="H106" s="15"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
     </row>
     <row r="107" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F107"/>
-      <c r="G107" s="23"/>
+      <c r="G107" s="20" t="s">
+        <v>963</v>
+      </c>
       <c r="H107" s="15"/>
+      <c r="I107" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="K107" s="1" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
     </row>
     <row r="108" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="E108" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F108"/>
-      <c r="G108" s="23"/>
+      <c r="G108" s="20" t="s">
+        <v>964</v>
+      </c>
       <c r="H108" s="15"/>
-      <c r="I108" s="1" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F109" t="s">
-        <v>939</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F109"/>
       <c r="G109" s="23"/>
       <c r="H109" s="15"/>
       <c r="K109" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="110" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2"/>
       <c r="E110" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F110" t="s">
-        <v>940</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F110"/>
       <c r="G110" s="23"/>
       <c r="H110" s="15"/>
-      <c r="K110" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>32</v>
+      <c r="I110" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G111" s="23"/>
       <c r="H111" s="15"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>37</v>
+      <c r="K111" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G112" s="23"/>
       <c r="H112" s="15"/>
-      <c r="K112" s="2" t="s">
-        <v>577</v>
+      <c r="K112" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F113"/>
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
+        <v>941</v>
+      </c>
       <c r="G113" s="23"/>
       <c r="H113" s="15"/>
-      <c r="I113" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>633</v>
-      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F114"/>
+        <v>37</v>
+      </c>
+      <c r="F114" t="s">
+        <v>942</v>
+      </c>
       <c r="G114" s="23"/>
       <c r="H114" s="15"/>
-      <c r="I114" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="K114" s="2" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F115"/>
       <c r="G115" s="23"/>
       <c r="H115" s="15"/>
       <c r="I115" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F116"/>
-      <c r="G116" s="20" t="s">
-        <v>965</v>
-      </c>
+      <c r="G116" s="23"/>
       <c r="H116" s="15"/>
       <c r="I116" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="23"/>
       <c r="H117" s="15"/>
       <c r="I117" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F118"/>
-      <c r="G118" s="23"/>
+      <c r="G118" s="20" t="s">
+        <v>965</v>
+      </c>
       <c r="H118" s="15"/>
       <c r="I118" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>71</v>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="23"/>
       <c r="H119" s="15"/>
-    </row>
-    <row r="120" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F120" t="s">
-        <v>943</v>
-      </c>
+      <c r="I119" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120"/>
       <c r="G120" s="23"/>
       <c r="H120" s="15"/>
+      <c r="I120" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="K120" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>78</v>
+        <v>67</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="23"/>
       <c r="H121" s="15"/>
-      <c r="I121" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F122" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G122" s="23"/>
       <c r="H122" s="15"/>
+      <c r="K122" s="2" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="23"/>
       <c r="H123" s="15"/>
       <c r="I123" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F124"/>
+        <v>86</v>
+      </c>
+      <c r="F124" t="s">
+        <v>944</v>
+      </c>
       <c r="G124" s="23"/>
       <c r="H124" s="15"/>
-      <c r="K124" s="1" t="s">
-        <v>580</v>
-      </c>
     </row>
     <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="23"/>
       <c r="H125" s="15"/>
       <c r="I125" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="E126" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="23"/>
       <c r="H126" s="15"/>
-      <c r="I126" s="1" t="s">
-        <v>529</v>
+      <c r="K126" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F127" t="s">
-        <v>945</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F127"/>
       <c r="G127" s="23"/>
       <c r="H127" s="15"/>
+      <c r="I127" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="K127" s="1" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="23"/>
       <c r="H128" s="15"/>
       <c r="I128" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>628</v>
+        <v>529</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F129"/>
+        <v>110</v>
+      </c>
+      <c r="F129" t="s">
+        <v>945</v>
+      </c>
       <c r="G129" s="23"/>
       <c r="H129" s="15"/>
-      <c r="I129" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="K129" s="1" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="23"/>
       <c r="H130" s="15"/>
+      <c r="I130" s="1" t="s">
+        <v>530</v>
+      </c>
       <c r="K130" s="1" t="s">
-        <v>574</v>
+        <v>628</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="23"/>
       <c r="H131" s="15"/>
       <c r="I131" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F132"/>
-      <c r="G132" s="20" t="s">
-        <v>966</v>
-      </c>
+      <c r="G132" s="23"/>
       <c r="H132" s="15"/>
-      <c r="I132" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="K132" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C133" s="17"/>
-      <c r="E133" s="15"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="F133"/>
       <c r="G133" s="23"/>
       <c r="H133" s="15"/>
-      <c r="K133" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="12" t="s">
-        <v>138</v>
+      <c r="I133" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E134" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F134" t="s">
-        <v>946</v>
-      </c>
-      <c r="G134" s="24"/>
-      <c r="H134" s="18"/>
-      <c r="K134" s="2" t="s">
-        <v>579</v>
+        <v>132</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C135" s="17"/>
+      <c r="E135" s="15"/>
       <c r="F135"/>
-      <c r="G135" s="25"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="15"/>
+      <c r="K135" s="2" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F136"/>
-      <c r="G136" s="20" t="s">
-        <v>967</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="2" t="s">
-        <v>534</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" t="s">
+        <v>946</v>
+      </c>
+      <c r="G136" s="24"/>
+      <c r="H136" s="18"/>
       <c r="K136" s="2" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E137" s="15" t="s">
-        <v>153</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C137" s="17"/>
       <c r="F137"/>
-      <c r="G137" s="20" t="s">
-        <v>968</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>615</v>
-      </c>
+      <c r="G137" s="25"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F138" t="s">
-        <v>947</v>
-      </c>
-      <c r="G138" s="23"/>
+        <v>148</v>
+      </c>
+      <c r="F138"/>
+      <c r="G138" s="20" t="s">
+        <v>967</v>
+      </c>
       <c r="H138" s="15"/>
+      <c r="I138" s="2" t="s">
+        <v>534</v>
+      </c>
       <c r="K138" s="2" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F139"/>
       <c r="G139" s="20" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H139" s="15"/>
       <c r="I139" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>166</v>
+        <v>156</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F140" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G140" s="23"/>
       <c r="H140" s="15"/>
+      <c r="K140" s="2" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E141" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F141" t="s">
-        <v>949</v>
-      </c>
-      <c r="G141" s="24"/>
-      <c r="H141" s="18"/>
+        <v>162</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F141"/>
+      <c r="G141" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="2" t="s">
+        <v>536</v>
+      </c>
       <c r="K141" s="2" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C142" s="17"/>
-      <c r="F142"/>
-      <c r="G142" s="25"/>
+        <v>165</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E142" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F142" t="s">
+        <v>948</v>
+      </c>
+      <c r="G142" s="23"/>
+      <c r="H142" s="15"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F143"/>
-      <c r="G143" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="2" t="s">
-        <v>537</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F143" t="s">
+        <v>949</v>
+      </c>
+      <c r="G143" s="24"/>
+      <c r="H143" s="18"/>
       <c r="K143" s="2" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E144" s="15" t="s">
-        <v>183</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C144" s="17"/>
       <c r="F144"/>
-      <c r="G144" s="23"/>
-      <c r="H144" s="15"/>
+      <c r="G144" s="25"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F145" t="s">
-        <v>950</v>
-      </c>
-      <c r="G145" s="23"/>
+        <v>179</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145" s="20" t="s">
+        <v>970</v>
+      </c>
       <c r="H145" s="15"/>
+      <c r="I145" s="2" t="s">
+        <v>537</v>
+      </c>
       <c r="K145" s="2" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F146" t="s">
-        <v>951</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F146"/>
       <c r="G146" s="23"/>
       <c r="H146" s="15"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F147"/>
+        <v>188</v>
+      </c>
+      <c r="F147" t="s">
+        <v>950</v>
+      </c>
       <c r="G147" s="23"/>
       <c r="H147" s="15"/>
+      <c r="K147" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F148"/>
-      <c r="G148" s="20" t="s">
-        <v>971</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F148" t="s">
+        <v>951</v>
+      </c>
+      <c r="G148" s="23"/>
       <c r="H148" s="15"/>
-      <c r="I148" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>611</v>
-      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>205</v>
+        <v>195</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F149"/>
       <c r="G149" s="23"/>
@@ -7721,33 +7742,44 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F150"/>
-      <c r="G150" s="23"/>
+      <c r="G150" s="20" t="s">
+        <v>971</v>
+      </c>
       <c r="H150" s="15"/>
+      <c r="I150" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F151"/>
       <c r="G151" s="23"/>
@@ -7755,1602 +7787,1637 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E152" s="15"/>
+        <v>209</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>210</v>
+      </c>
       <c r="F152"/>
       <c r="G152" s="23"/>
       <c r="H152" s="15"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C153" s="17"/>
-      <c r="E153" s="15"/>
+        <v>212</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="F153"/>
       <c r="G153" s="23"/>
       <c r="H153" s="15"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>473</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E154" s="15"/>
       <c r="F154"/>
       <c r="G154" s="23"/>
       <c r="H154" s="15"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>671</v>
-      </c>
-      <c r="D155" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E155" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F155" t="s">
-        <v>952</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C155" s="17"/>
+      <c r="E155" s="15"/>
+      <c r="F155"/>
       <c r="G155" s="23"/>
       <c r="H155" s="15"/>
-      <c r="K155" s="2" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E156" s="13"/>
+        <v>222</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>473</v>
+      </c>
       <c r="F156"/>
-      <c r="G156" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="H156" s="13"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="15"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>233</v>
+        <v>671</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E157" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="F157"/>
-      <c r="G157" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="H157" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>539</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F157" t="s">
+        <v>952</v>
+      </c>
+      <c r="G157" s="23"/>
+      <c r="H157" s="15"/>
       <c r="K157" s="2" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>238</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E158" s="13"/>
       <c r="F158"/>
-      <c r="G158" s="25"/>
+      <c r="G158" s="20" t="s">
+        <v>972</v>
+      </c>
+      <c r="H158" s="13"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F159"/>
       <c r="G159" s="20" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E160" s="15" t="s">
-        <v>246</v>
+        <v>237</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="F160"/>
-      <c r="G160" s="20" t="s">
-        <v>975</v>
-      </c>
-      <c r="H160" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>617</v>
-      </c>
+      <c r="G160" s="25"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>251</v>
+        <v>241</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="F161"/>
       <c r="G161" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="H161" s="13" t="s">
-        <v>731</v>
+        <v>974</v>
+      </c>
+      <c r="H161" s="18" t="s">
+        <v>730</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>254</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C162" s="14"/>
       <c r="D162" s="14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F162"/>
       <c r="G162" s="20" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K162" s="19" t="s">
-        <v>607</v>
+        <v>541</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>260</v>
+        <v>249</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="F163"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="18"/>
+      <c r="G163" s="20" t="s">
+        <v>976</v>
+      </c>
+      <c r="H163" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F164"/>
       <c r="G164" s="20" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K164" s="2" t="s">
-        <v>606</v>
+        <v>543</v>
+      </c>
+      <c r="K164" s="19" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>269</v>
+        <v>259</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F165"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="15"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="18"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="F166"/>
-      <c r="G166" s="25"/>
+      <c r="G166" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="H166" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="B167" s="13"/>
-      <c r="C167" s="20" t="s">
-        <v>804</v>
+        <v>266</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="F167"/>
-      <c r="G167" s="25"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="15"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F168"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="15"/>
+      <c r="G168" s="25"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>279</v>
+        <v>805</v>
+      </c>
+      <c r="B169" s="13"/>
+      <c r="C169" s="20" t="s">
+        <v>804</v>
       </c>
       <c r="F169"/>
       <c r="G169" s="25"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>282</v>
+        <v>275</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="F170"/>
-      <c r="G170" s="25"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="15"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F171" t="s">
-        <v>953</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>575</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="F171"/>
+      <c r="G171" s="25"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F172"/>
+      <c r="G172" s="25"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F173" t="s">
-        <v>954</v>
+        <v>953</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D174" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E174" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="F174" t="s">
-        <v>955</v>
-      </c>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="K174" s="2" t="s">
-        <v>578</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F174"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F175"/>
+        <v>291</v>
+      </c>
+      <c r="F175" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F176"/>
+        <v>294</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F176" t="s">
+        <v>955</v>
+      </c>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="K176" s="2" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F177"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F178" t="s">
-        <v>956</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F178"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F179"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="F180"/>
+        <v>308</v>
+      </c>
+      <c r="F180" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F181"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F182" t="s">
-        <v>957</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>572</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F182"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E183" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F183" t="s">
-        <v>958</v>
-      </c>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="K183" s="2" t="s">
-        <v>573</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F183"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F184"/>
+        <v>320</v>
+      </c>
+      <c r="F184" t="s">
+        <v>957</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E185" s="15" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F185" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G185" s="15"/>
       <c r="H185" s="15"/>
+      <c r="K185" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F186"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="F187"/>
+        <v>330</v>
+      </c>
+      <c r="E187" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F187" t="s">
+        <v>959</v>
+      </c>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F188"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D189" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="E189" s="18" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F189"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F190"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>351</v>
+        <v>343</v>
+      </c>
+      <c r="D191" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E191" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="F191"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F192"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F193"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F194"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F195"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F196"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F197"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F198"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F199"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C200" s="17"/>
+        <v>371</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="F200"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="E201" s="15" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F201"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C202" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="E202" s="15" t="s">
-        <v>385</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C202" s="17"/>
       <c r="F202"/>
-      <c r="G202" s="15"/>
-      <c r="H202" s="15"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>388</v>
+        <v>380</v>
+      </c>
+      <c r="E203" s="15" t="s">
+        <v>381</v>
       </c>
       <c r="F203"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>391</v>
+        <v>384</v>
+      </c>
+      <c r="E204" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="F204"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E205" s="15" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F205"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="15"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F206"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>401</v>
+        <v>394</v>
+      </c>
+      <c r="E207" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="F207"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E208" s="15" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F208"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F209"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>411</v>
+        <v>403</v>
+      </c>
+      <c r="C210" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E210" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="F210"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F211"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="C212" s="14" t="s">
-        <v>417</v>
+        <v>410</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="F212"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F213"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F214"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F215"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F216"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F217"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F218"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F219"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="E220" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="F220" t="s">
-        <v>960</v>
-      </c>
-      <c r="G220" s="15"/>
-      <c r="H220" s="15"/>
-      <c r="K220" s="2" t="s">
-        <v>584</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="F220"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>445</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>448</v>
+        <v>440</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E222" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
+        <v>960</v>
+      </c>
+      <c r="G222" s="15"/>
+      <c r="H222" s="15"/>
+      <c r="K222" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B226" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C224" s="16" t="s">
+      <c r="C226" s="16" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C225" s="16" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C227" s="16" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" s="16" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C227" s="16" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="16" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" s="16" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="16" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C229" s="16" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="16" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C232" s="16" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C106" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C105" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C107" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C108" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C109" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C110" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C111" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C112" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C113" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C114" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C115" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C117" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C118" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C119" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C120" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C121" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C122" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C123" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C124" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C125" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C126" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C127" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C128" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C129" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C130" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C131" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C132" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C134" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C136" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C137" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C138" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C139" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C140" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C141" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C143" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C144" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C145" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C146" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C147" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C148" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C149" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C150" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C151" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C152" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C154" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C155" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C156" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C157" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C158" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C159" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C161" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C162" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C163" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C164" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C165" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C166" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C168" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C169" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C170" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C171" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C172" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C173" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C174" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C175" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C176" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C177" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C178" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C179" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C180" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C181" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C182" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C183" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C184" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C185" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C186" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C187" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C188" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C189" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C190" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C191" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C192" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C193" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C194" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C195" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C196" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C197" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C198" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C199" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C201" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C202" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C203" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C204" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C205" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C206" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C207" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C208" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C209" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C211" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C212" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C213" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C214" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C215" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C216" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C217" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C218" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C219" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C220" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C116" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C221" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C210" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C222" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C223" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C224" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C225" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C226" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C227" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C228" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C229" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C230" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D105" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D106" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D107" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D109" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D110" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D112" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D113" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D114" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D120" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D119" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D148" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D115" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D116" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D117" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D118" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D121" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D122" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D123" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D124" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D125" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D127" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D128" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D129" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D130" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D131" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D132" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D134" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D137" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D138" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D139" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D141" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D143" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D145" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D147" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D154" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D155" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D160" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D161" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D162" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D164" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D174" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E105" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E106" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E107" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E108" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E109" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E110" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E112" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E113" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E114" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E115" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E117" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E118" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E119" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E121" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E122" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E123" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E124" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E125" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E126" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E127" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E128" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E129" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E130" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E131" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E132" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E133" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E136" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E137" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E138" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E139" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E143" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E144" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E145" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E146" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E147" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E153" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E154" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E156" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E160" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E165" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E168" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E183" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E185" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E201" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E202" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E205" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E208" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E220" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D189" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E120" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E149" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E150" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E161" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E162" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E151" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E152" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E116" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E140" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E164" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E155" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E111" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E134" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E141" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E148" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E157" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E159" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E163" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E174" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E189" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B111" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B112" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B113" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B114" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B115" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B116" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B117" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B118" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B119" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B120" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B121" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B122" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B123" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B124" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B125" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B126" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B127" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B128" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B129" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B130" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B131" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B132" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B133" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B134" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B135" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B137" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B138" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B139" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B140" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B141" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B142" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B144" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B145" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B146" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B147" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B148" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B149" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B150" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B151" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B152" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B153" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B154" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B155" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B156" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B105" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B106" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B107" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B108" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B109" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B110" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B224" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B223" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B222" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B221" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B220" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B219" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B218" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B217" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B216" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B215" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B214" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B213" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B212" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B211" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B210" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B209" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B208" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B207" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B206" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B205" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B204" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B203" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B202" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B201" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B200" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B199" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B198" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B197" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B196" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B195" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B194" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B193" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B192" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B191" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B190" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B189" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B188" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B187" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B186" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B185" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B184" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B183" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B182" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B181" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B180" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B179" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B178" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B177" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B176" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B175" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B174" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B173" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B172" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B171" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B170" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B169" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B168" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B166" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B165" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B164" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B163" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B162" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B161" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B160" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B159" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B158" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B157" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E86" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
-    <hyperlink ref="E81" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
-    <hyperlink ref="B82" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
-    <hyperlink ref="B94" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
-    <hyperlink ref="B81" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
-    <hyperlink ref="B80" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
-    <hyperlink ref="E78" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
-    <hyperlink ref="B79" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
-    <hyperlink ref="H161" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
-    <hyperlink ref="B78" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
-    <hyperlink ref="C69" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
-    <hyperlink ref="B67" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
-    <hyperlink ref="E67" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
-    <hyperlink ref="D67" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
-    <hyperlink ref="D68" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
-    <hyperlink ref="B66" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
-    <hyperlink ref="E66" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
-    <hyperlink ref="D66" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
-    <hyperlink ref="E65" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
-    <hyperlink ref="D65" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
-    <hyperlink ref="B85" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
-    <hyperlink ref="B64" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
-    <hyperlink ref="E64" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
-    <hyperlink ref="D64" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
-    <hyperlink ref="B63" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
-    <hyperlink ref="E63" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
-    <hyperlink ref="D63" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
-    <hyperlink ref="E62" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
-    <hyperlink ref="D62" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
-    <hyperlink ref="D61" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
-    <hyperlink ref="E61" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
-    <hyperlink ref="B60" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
-    <hyperlink ref="E60" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
-    <hyperlink ref="D60" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
-    <hyperlink ref="B102" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
-    <hyperlink ref="B59" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
-    <hyperlink ref="D59" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
-    <hyperlink ref="E59" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
-    <hyperlink ref="E58" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
-    <hyperlink ref="C58" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
-    <hyperlink ref="D58" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
-    <hyperlink ref="C167" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
-    <hyperlink ref="C57" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
-    <hyperlink ref="B55" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
-    <hyperlink ref="E55" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
-    <hyperlink ref="E54" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
-    <hyperlink ref="D54" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
-    <hyperlink ref="D55" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
-    <hyperlink ref="B53" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
-    <hyperlink ref="E51" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
-    <hyperlink ref="B51" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
-    <hyperlink ref="D51" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
-    <hyperlink ref="B50" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
-    <hyperlink ref="E50" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
-    <hyperlink ref="E49" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
-    <hyperlink ref="E48" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
-    <hyperlink ref="D48" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
-    <hyperlink ref="D49" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
-    <hyperlink ref="B46" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
-    <hyperlink ref="E46" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
-    <hyperlink ref="E45" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
-    <hyperlink ref="D45" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
-    <hyperlink ref="D44" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
-    <hyperlink ref="B62" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
-    <hyperlink ref="E42" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
-    <hyperlink ref="D42" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
-    <hyperlink ref="D39" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
-    <hyperlink ref="B39" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
-    <hyperlink ref="B41" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
-    <hyperlink ref="B75" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
-    <hyperlink ref="E37" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
-    <hyperlink ref="E33" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
-    <hyperlink ref="D33" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
-    <hyperlink ref="G34" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
-    <hyperlink ref="G35" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
-    <hyperlink ref="G67" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
-    <hyperlink ref="G96" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
-    <hyperlink ref="G105" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
-    <hyperlink ref="G106" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
-    <hyperlink ref="G116" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
-    <hyperlink ref="G132" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
-    <hyperlink ref="G137" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
-    <hyperlink ref="G136" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
-    <hyperlink ref="G139" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
-    <hyperlink ref="G143" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
-    <hyperlink ref="G148" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
-    <hyperlink ref="G156" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
-    <hyperlink ref="G157" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
-    <hyperlink ref="G159" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
-    <hyperlink ref="G160" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
-    <hyperlink ref="G161" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
-    <hyperlink ref="G162" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
-    <hyperlink ref="G164" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
-    <hyperlink ref="E32" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
-    <hyperlink ref="F32" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
-    <hyperlink ref="D32" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
-    <hyperlink ref="D29" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
-    <hyperlink ref="E27" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
-    <hyperlink ref="C80" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
-    <hyperlink ref="D22" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
-    <hyperlink ref="C22" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
-    <hyperlink ref="D21" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
-    <hyperlink ref="E21" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
-    <hyperlink ref="E20" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
-    <hyperlink ref="F20" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
-    <hyperlink ref="F17" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
-    <hyperlink ref="D28" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
-    <hyperlink ref="G28" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
-    <hyperlink ref="G27" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
+    <hyperlink ref="C108" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C107" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C109" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C110" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C111" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C112" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C113" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C114" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C115" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C116" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C117" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C119" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C120" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C121" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C122" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C123" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C124" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C125" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C126" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C127" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C128" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C129" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C130" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C131" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C132" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C133" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C134" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C136" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C138" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C139" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C140" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C141" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C142" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C143" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C145" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C146" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C147" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C148" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C149" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C150" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C151" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C152" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C153" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C154" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C156" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C157" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C158" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C159" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C160" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C161" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C163" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C164" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C165" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C166" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C167" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C168" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C170" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C171" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C172" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C173" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C174" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C175" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C176" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C177" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C178" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C179" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C180" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C181" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C182" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C183" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C184" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C185" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C186" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C187" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C188" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C189" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C190" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C191" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C192" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C193" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C194" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C195" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C196" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C197" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C198" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C199" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C200" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C201" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C203" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C204" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C205" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C206" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C207" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C208" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C209" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C210" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C211" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C213" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C214" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C215" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C216" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C217" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C218" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C219" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C220" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C221" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C222" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C118" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C223" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C212" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C224" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C225" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C226" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C227" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C228" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C229" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C230" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C231" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C232" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D107" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D108" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D109" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D111" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D114" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D115" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D116" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D122" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D121" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D150" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D117" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D118" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D119" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D120" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D123" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D124" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D125" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D126" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D127" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D129" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D130" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D131" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D132" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D133" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D134" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D136" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D139" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D140" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D141" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D143" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D145" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D147" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D149" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D156" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D157" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D159" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D162" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D163" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D164" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D176" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E107" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E108" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E109" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E110" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E111" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E112" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E114" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E115" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E116" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E117" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E119" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E120" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E121" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E123" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E124" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E125" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E126" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E127" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E128" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E129" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E130" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E131" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E132" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E133" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E134" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E135" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E138" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E139" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E140" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E141" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E145" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E146" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E147" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E148" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E149" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E155" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E156" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E158" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E162" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E167" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E170" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E185" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E187" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E203" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E204" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E207" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E210" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E222" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D191" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E122" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E151" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E152" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E163" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E164" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E153" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E154" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E118" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E142" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E166" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E157" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E113" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E136" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E143" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E150" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E159" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E161" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E165" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E176" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E191" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B113" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B114" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B115" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B116" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B117" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B118" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B119" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B120" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B121" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B122" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B123" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B124" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B125" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B126" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B127" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B128" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B129" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B130" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B131" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B132" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B133" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B134" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B135" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B136" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B137" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B139" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B140" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B141" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B142" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B143" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B144" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B146" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B147" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B148" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B149" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B150" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B151" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B152" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B153" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B154" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B155" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B156" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B157" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B158" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B107" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B108" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B109" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B110" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B111" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B112" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B226" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B225" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B224" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B223" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B222" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B221" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B220" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B219" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B218" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B217" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B216" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B215" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B214" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B213" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B212" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B211" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B210" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B209" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B208" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B207" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B206" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B205" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B204" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B203" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B202" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B201" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B200" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B199" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B198" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B197" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B196" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B195" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B194" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B193" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B192" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B191" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B190" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B189" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B188" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B187" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B186" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B185" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B184" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B183" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B182" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B181" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B180" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B179" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B178" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B177" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B176" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B175" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B174" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B173" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B172" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B171" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B170" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B168" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B167" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B166" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B165" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B164" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B163" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B162" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B161" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B160" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B159" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E88" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
+    <hyperlink ref="E83" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
+    <hyperlink ref="B84" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
+    <hyperlink ref="B96" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
+    <hyperlink ref="B83" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
+    <hyperlink ref="B82" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
+    <hyperlink ref="E80" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
+    <hyperlink ref="B81" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
+    <hyperlink ref="H163" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
+    <hyperlink ref="B80" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
+    <hyperlink ref="C71" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
+    <hyperlink ref="B69" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
+    <hyperlink ref="E69" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
+    <hyperlink ref="D69" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
+    <hyperlink ref="D70" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
+    <hyperlink ref="B68" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
+    <hyperlink ref="E68" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
+    <hyperlink ref="D68" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
+    <hyperlink ref="E67" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
+    <hyperlink ref="D67" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
+    <hyperlink ref="B87" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
+    <hyperlink ref="B66" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
+    <hyperlink ref="E66" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
+    <hyperlink ref="D66" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
+    <hyperlink ref="B65" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
+    <hyperlink ref="E65" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
+    <hyperlink ref="D65" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
+    <hyperlink ref="E64" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
+    <hyperlink ref="D64" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
+    <hyperlink ref="D63" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
+    <hyperlink ref="E63" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
+    <hyperlink ref="B62" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
+    <hyperlink ref="E62" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
+    <hyperlink ref="D62" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
+    <hyperlink ref="B104" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
+    <hyperlink ref="B61" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
+    <hyperlink ref="D61" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
+    <hyperlink ref="E61" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
+    <hyperlink ref="E60" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
+    <hyperlink ref="C60" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
+    <hyperlink ref="D60" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
+    <hyperlink ref="C169" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
+    <hyperlink ref="C59" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
+    <hyperlink ref="B57" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
+    <hyperlink ref="E57" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
+    <hyperlink ref="E56" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
+    <hyperlink ref="D56" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
+    <hyperlink ref="D57" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
+    <hyperlink ref="B55" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
+    <hyperlink ref="E53" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
+    <hyperlink ref="B53" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
+    <hyperlink ref="D53" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
+    <hyperlink ref="B52" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
+    <hyperlink ref="E52" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
+    <hyperlink ref="E51" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
+    <hyperlink ref="E50" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
+    <hyperlink ref="D50" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
+    <hyperlink ref="D51" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
+    <hyperlink ref="B48" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
+    <hyperlink ref="E48" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
+    <hyperlink ref="E47" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
+    <hyperlink ref="D47" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
+    <hyperlink ref="D46" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
+    <hyperlink ref="B64" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
+    <hyperlink ref="E44" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
+    <hyperlink ref="D44" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
+    <hyperlink ref="D41" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
+    <hyperlink ref="B41" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
+    <hyperlink ref="B43" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
+    <hyperlink ref="B77" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
+    <hyperlink ref="E39" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
+    <hyperlink ref="E35" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
+    <hyperlink ref="D35" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
+    <hyperlink ref="G36" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
+    <hyperlink ref="G37" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
+    <hyperlink ref="G69" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
+    <hyperlink ref="G98" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
+    <hyperlink ref="G107" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
+    <hyperlink ref="G108" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
+    <hyperlink ref="G118" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
+    <hyperlink ref="G134" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
+    <hyperlink ref="G139" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
+    <hyperlink ref="G138" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
+    <hyperlink ref="G141" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
+    <hyperlink ref="G145" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
+    <hyperlink ref="G150" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
+    <hyperlink ref="G158" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
+    <hyperlink ref="G159" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
+    <hyperlink ref="G161" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
+    <hyperlink ref="G162" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
+    <hyperlink ref="G163" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
+    <hyperlink ref="G164" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
+    <hyperlink ref="G166" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
+    <hyperlink ref="E34" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
+    <hyperlink ref="F34" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
+    <hyperlink ref="D34" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
+    <hyperlink ref="D31" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
+    <hyperlink ref="E29" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
+    <hyperlink ref="C82" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
+    <hyperlink ref="D24" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
+    <hyperlink ref="C24" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
+    <hyperlink ref="D23" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
+    <hyperlink ref="E23" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
+    <hyperlink ref="E22" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
+    <hyperlink ref="F22" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
+    <hyperlink ref="F19" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
+    <hyperlink ref="D30" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
+    <hyperlink ref="G30" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
+    <hyperlink ref="G29" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
+    <hyperlink ref="C5" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/articlelinks.xlsx
+++ b/articlelinks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Dropbox/markdown_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD737DF6-CE8A-9042-8A80-A9BFEAE3FE87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964FB502-44B6-A749-A0E3-D896E07CDFFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1141">
   <si>
     <t>文科生如何理解卷积神经网络？</t>
   </si>
@@ -3483,6 +3483,21 @@
   </si>
   <si>
     <t>质检动真格，你的本科毕业论文该怎么做？</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/365409863</t>
+  </si>
+  <si>
+    <t>怎么找到好的研究想法？</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/bVQEANE5ZJBdnGygH1igRA</t>
+  </si>
+  <si>
+    <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;id=1282333</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/66113</t>
   </si>
 </sst>
 </file>
@@ -3975,10 +3990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N232"/>
+  <dimension ref="A1:N233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4030,13 +4045,20 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1140</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="4"/>
@@ -4048,20 +4070,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1130</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="4"/>
@@ -4073,16 +4088,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1127</v>
+        <v>1131</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1126</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -4095,19 +4113,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1122</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4120,16 +4135,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1115</v>
+        <v>1119</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1120</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -4142,16 +4160,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -4164,16 +4182,18 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>1109</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -4184,14 +4204,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>1109</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -4202,10 +4224,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -4220,20 +4242,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1093</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
@@ -4245,16 +4260,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1088</v>
+        <v>1096</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4267,13 +4285,17 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+        <v>1088</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1090</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
@@ -4285,20 +4307,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1087</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
@@ -4310,13 +4325,20 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+        <v>1084</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1087</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
@@ -4328,17 +4350,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>1042</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="4"/>
@@ -4350,19 +4368,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -4375,16 +4390,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -4397,19 +4415,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>1027</v>
+        <v>1036</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4422,16 +4437,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4444,13 +4462,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1048</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4463,16 +4484,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>1022</v>
+        <v>1031</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>1032</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4485,16 +4503,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>1018</v>
+        <v>1021</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1049</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>1020</v>
+        <v>1022</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4507,19 +4525,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>1014</v>
+        <v>1018</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>1019</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -4532,19 +4547,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>1006</v>
+        <v>1012</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>1013</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -4557,13 +4572,20 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+        <v>1050</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>1010</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="4"/>
@@ -4575,20 +4597,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>1011</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="4"/>
@@ -4600,23 +4615,21 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>1108</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -4627,22 +4640,22 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>992</v>
+        <v>994</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>997</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>1107</v>
+        <v>1000</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>1108</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="4"/>
@@ -4654,22 +4667,22 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>998</v>
+        <v>1054</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>992</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>1106</v>
+        <v>1001</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>1107</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="4"/>
@@ -4681,22 +4694,22 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>989</v>
+        <v>1055</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>996</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>1105</v>
+        <v>1002</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>1106</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="4"/>
@@ -4708,14 +4721,23 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+        <v>986</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>1105</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -4726,14 +4748,12 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>999</v>
-      </c>
+        <v>1057</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -4746,20 +4766,15 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>981</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
@@ -4771,19 +4786,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>1059</v>
+        <v>979</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>983</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>896</v>
+        <v>982</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>897</v>
+        <v>980</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>981</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -4796,23 +4811,21 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>892</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -4823,22 +4836,22 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C37" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>1060</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
@@ -4850,16 +4863,23 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E38" s="6"/>
+        <v>1060</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>888</v>
+      </c>
       <c r="F38" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="G38" s="21"/>
+        <v>890</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>893</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -4870,21 +4890,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F39" t="s">
-        <v>898</v>
-      </c>
-      <c r="G39" s="20"/>
+        <v>1061</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="G39" s="21"/>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4895,18 +4910,21 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>875</v>
+        <v>1062</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="F40" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G40" s="21"/>
+        <v>898</v>
+      </c>
+      <c r="G40" s="20"/>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -4917,22 +4935,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>871</v>
+        <v>1063</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="F41" t="s">
-        <v>899</v>
+        <v>1129</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="6"/>
@@ -4945,15 +4957,23 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>867</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>873</v>
+      </c>
       <c r="C42" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="6"/>
-      <c r="F42"/>
+        <v>1064</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="F42" t="s">
+        <v>899</v>
+      </c>
       <c r="G42" s="21"/>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
@@ -4965,23 +4985,15 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>874</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B43" s="20"/>
       <c r="C43" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F43" t="s">
-        <v>900</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="6"/>
+      <c r="F43"/>
       <c r="G43" s="21"/>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
@@ -4993,24 +5005,24 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>865</v>
+        <v>868</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>874</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>860</v>
+        <v>1067</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>869</v>
       </c>
       <c r="F44" t="s">
-        <v>901</v>
-      </c>
-      <c r="G44" s="20"/>
+        <v>900</v>
+      </c>
+      <c r="G44" s="21"/>
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5021,24 +5033,24 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>862</v>
+        <v>1068</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F45" t="s">
-        <v>902</v>
-      </c>
-      <c r="G45" s="21"/>
+        <v>901</v>
+      </c>
+      <c r="G45" s="20"/>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -5049,22 +5061,22 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>855</v>
+        <v>1069</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="6"/>
@@ -5077,29 +5089,27 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>850</v>
+        <v>855</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="F47" t="s">
-        <v>904</v>
-      </c>
-      <c r="G47" s="20"/>
+        <v>903</v>
+      </c>
+      <c r="G47" s="21"/>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -5107,24 +5117,29 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>845</v>
+        <v>849</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>851</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F48" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -5132,21 +5147,21 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>845</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>848</v>
+        <v>1072</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>847</v>
       </c>
       <c r="F49" t="s">
-        <v>906</v>
-      </c>
-      <c r="G49" s="21"/>
+        <v>905</v>
+      </c>
+      <c r="G49" s="20"/>
       <c r="H49" s="6"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -5157,24 +5172,21 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>840</v>
+        <v>1073</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>848</v>
       </c>
       <c r="F50" t="s">
-        <v>907</v>
-      </c>
-      <c r="G50" s="20"/>
+        <v>906</v>
+      </c>
+      <c r="G50" s="21"/>
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5185,21 +5197,23 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F51"/>
+        <v>840</v>
+      </c>
+      <c r="F51" t="s">
+        <v>907</v>
+      </c>
       <c r="G51" s="20"/>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
@@ -5211,16 +5225,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>834</v>
+        <v>837</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>842</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="20"/>
@@ -5234,23 +5251,18 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>828</v>
+        <v>1076</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="F53" t="s">
-        <v>908</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="F53"/>
       <c r="G53" s="20"/>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
@@ -5262,22 +5274,22 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F54" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="6"/>
@@ -5290,24 +5302,24 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>822</v>
+        <v>1078</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>831</v>
       </c>
       <c r="F55" t="s">
-        <v>910</v>
-      </c>
-      <c r="G55" s="21"/>
+        <v>909</v>
+      </c>
+      <c r="G55" s="20"/>
       <c r="H55" s="6"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5318,24 +5330,24 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>814</v>
+        <v>821</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>820</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>815</v>
+        <v>824</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="F56" t="s">
-        <v>911</v>
-      </c>
-      <c r="G56" s="20"/>
+        <v>910</v>
+      </c>
+      <c r="G56" s="21"/>
       <c r="H56" s="6"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -5346,22 +5358,22 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>808</v>
+        <v>816</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F57" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="6"/>
@@ -5374,14 +5386,23 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B58" s="20"/>
+        <v>819</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>808</v>
+      </c>
       <c r="C58" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58"/>
+        <v>812</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="F58" t="s">
+        <v>912</v>
+      </c>
       <c r="G58" s="20"/>
       <c r="H58" s="6"/>
       <c r="I58" s="4"/>
@@ -5393,14 +5414,15 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="E59" s="6"/>
+        <v>811</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E59" s="20"/>
       <c r="F59"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="20"/>
       <c r="H59" s="6"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -5411,24 +5433,14 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F60" t="s">
-        <v>913</v>
-      </c>
-      <c r="G60" s="20"/>
+        <v>807</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60"/>
+      <c r="G60" s="21"/>
       <c r="H60" s="6"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -5439,22 +5451,22 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>796</v>
+        <v>799</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F61" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="6"/>
@@ -5467,22 +5479,22 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="F62" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="6"/>
@@ -5495,22 +5507,22 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>789</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="F63" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="6"/>
@@ -5523,22 +5535,22 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>779</v>
+        <v>787</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F64" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="6"/>
@@ -5551,21 +5563,23 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F65"/>
+        <v>780</v>
+      </c>
+      <c r="F65" t="s">
+        <v>917</v>
+      </c>
       <c r="G65" s="20"/>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
@@ -5577,19 +5591,19 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F66"/>
       <c r="G66" s="20"/>
@@ -5603,23 +5617,21 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>764</v>
+        <v>768</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>769</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="F67" t="s">
-        <v>918</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F67"/>
       <c r="G67" s="20"/>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
@@ -5631,22 +5643,22 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>759</v>
+        <v>763</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F68" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="6"/>
@@ -5659,26 +5671,24 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="F69" t="s">
-        <v>920</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="G69" s="20"/>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -5689,24 +5699,26 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>750</v>
+        <v>756</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F70" t="s">
-        <v>921</v>
-      </c>
-      <c r="G70" s="21"/>
+        <v>920</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>961</v>
+      </c>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -5717,22 +5729,22 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>743</v>
+        <v>748</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F71" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G71" s="21"/>
       <c r="H71" s="6"/>
@@ -5745,22 +5757,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F72" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="6"/>
@@ -5773,22 +5785,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F73" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="6"/>
@@ -5801,22 +5813,22 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F74" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="6"/>
@@ -5829,21 +5841,23 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F75"/>
+        <v>726</v>
+      </c>
+      <c r="F75" t="s">
+        <v>925</v>
+      </c>
       <c r="G75" s="21"/>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
@@ -5855,23 +5869,21 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="F76" t="s">
-        <v>926</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="F76"/>
       <c r="G76" s="21"/>
       <c r="H76" s="6"/>
       <c r="I76" s="4"/>
@@ -5883,22 +5895,22 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>709</v>
+        <v>712</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F77" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G77" s="21"/>
       <c r="H77" s="6"/>
@@ -5911,22 +5923,22 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="F78" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="6"/>
@@ -5939,21 +5951,23 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F79"/>
+        <v>706</v>
+      </c>
+      <c r="F79" t="s">
+        <v>928</v>
+      </c>
       <c r="G79" s="21"/>
       <c r="H79" s="6"/>
       <c r="I79" s="4"/>
@@ -5965,22 +5979,22 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>695</v>
+        <v>698</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>696</v>
+        <v>700</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="F80"/>
-      <c r="G80" s="22"/>
+      <c r="G80" s="21"/>
       <c r="H80" s="6"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -5991,24 +6005,22 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="F81" t="s">
-        <v>929</v>
-      </c>
-      <c r="G81" s="21"/>
+        <v>697</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81" s="22"/>
       <c r="H81" s="6"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6019,28 +6031,26 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>684</v>
+        <v>686</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="F82" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -6049,26 +6059,28 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>676</v>
+        <v>681</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>673</v>
+        <v>682</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="F83" t="s">
-        <v>931</v>
-      </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="4"/>
+        <v>930</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -6077,25 +6089,25 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>669</v>
+        <v>674</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="F84" t="s">
-        <v>932</v>
-      </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G84" s="22"/>
+      <c r="H84" s="13"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -6105,22 +6117,22 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>659</v>
+        <v>668</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F85" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G85" s="21"/>
       <c r="H85" s="6"/>
@@ -6133,81 +6145,81 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F86" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="6"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>648</v>
+        <v>653</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>654</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F87"/>
+        <v>655</v>
+      </c>
+      <c r="F87" t="s">
+        <v>934</v>
+      </c>
       <c r="G87" s="21"/>
       <c r="H87" s="6"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>603</v>
+        <v>647</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="F88" t="s">
-        <v>935</v>
-      </c>
-      <c r="G88" s="22"/>
-      <c r="H88" s="13"/>
+        <v>650</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="6"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -6217,47 +6229,47 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="6"/>
+        <v>651</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="F89" t="s">
+        <v>935</v>
+      </c>
+      <c r="G89" s="22"/>
+      <c r="H89" s="13"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4" t="s">
-        <v>658</v>
-      </c>
+      <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F90"/>
       <c r="G90" s="21"/>
@@ -6265,7 +6277,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
@@ -6273,53 +6285,53 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="21"/>
       <c r="H91" s="6"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
+      <c r="K91" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="21"/>
       <c r="H92" s="6"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -6327,61 +6339,59 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F93" t="s">
-        <v>936</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="F93"/>
       <c r="G93" s="21"/>
       <c r="H93" s="6"/>
-      <c r="I93" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="F94"/>
+        <v>558</v>
+      </c>
+      <c r="F94" t="s">
+        <v>936</v>
+      </c>
       <c r="G94" s="21"/>
       <c r="H94" s="6"/>
       <c r="I94" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -6389,29 +6399,29 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>545</v>
+        <v>646</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="21"/>
       <c r="H95" s="6"/>
       <c r="I95" s="4" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -6419,29 +6429,29 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>678</v>
+        <v>545</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="21"/>
       <c r="H96" s="6"/>
       <c r="I96" s="4" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -6449,19 +6459,29 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="E97" s="6"/>
+        <v>502</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="F97"/>
       <c r="G97" s="21"/>
       <c r="H97" s="6"/>
-      <c r="I97" s="4"/>
+      <c r="I97" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -6469,33 +6489,19 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>499</v>
+        <v>626</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F98" t="s">
-        <v>937</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>962</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98"/>
+      <c r="G98" s="21"/>
       <c r="H98" s="6"/>
-      <c r="I98" s="4" t="s">
-        <v>509</v>
-      </c>
+      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -6503,85 +6509,89 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F99"/>
-      <c r="G99" s="21"/>
+        <v>500</v>
+      </c>
+      <c r="F99" t="s">
+        <v>937</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>962</v>
+      </c>
       <c r="H99" s="6"/>
-      <c r="I99" s="4"/>
+      <c r="I99" s="4" t="s">
+        <v>509</v>
+      </c>
       <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
+      <c r="K99" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="21"/>
       <c r="H100" s="6"/>
-      <c r="I100" s="4" t="s">
-        <v>510</v>
-      </c>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4" t="s">
-        <v>638</v>
-      </c>
+      <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="21"/>
       <c r="H101" s="6"/>
       <c r="I101" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -6589,29 +6599,29 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="21"/>
       <c r="H102" s="6"/>
       <c r="I102" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -6619,81 +6629,79 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E103" s="6"/>
+        <v>479</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>481</v>
+      </c>
       <c r="F103"/>
       <c r="G103" s="21"/>
       <c r="H103" s="6"/>
       <c r="I103" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
+      <c r="K103" s="4" t="s">
+        <v>634</v>
+      </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E104" s="6"/>
       <c r="F104"/>
       <c r="G104" s="21"/>
       <c r="H104" s="6"/>
-      <c r="I104" s="2" t="s">
-        <v>515</v>
+      <c r="I104" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="J104" s="4"/>
-      <c r="K104" s="4" t="s">
-        <v>629</v>
-      </c>
+      <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>793</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F105" t="s">
-        <v>938</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="F105"/>
       <c r="G105" s="21"/>
       <c r="H105" s="6"/>
-      <c r="I105" s="4" t="s">
-        <v>516</v>
+      <c r="I105" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
@@ -6701,1102 +6709,1117 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F106"/>
+        <v>470</v>
+      </c>
+      <c r="F106" t="s">
+        <v>938</v>
+      </c>
       <c r="G106" s="21"/>
       <c r="H106" s="6"/>
       <c r="I106" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>4</v>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="F107"/>
-      <c r="G107" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="G107" s="21"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
     </row>
     <row r="108" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H108" s="15"/>
+      <c r="I108" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F109"/>
-      <c r="G109" s="23"/>
+      <c r="G109" s="20" t="s">
+        <v>964</v>
+      </c>
       <c r="H109" s="15"/>
-      <c r="K109" s="1" t="s">
-        <v>587</v>
-      </c>
     </row>
     <row r="110" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E110" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="23"/>
       <c r="H110" s="15"/>
-      <c r="I110" s="1" t="s">
-        <v>520</v>
+      <c r="K110" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2"/>
       <c r="E111" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111" t="s">
-        <v>939</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F111"/>
       <c r="G111" s="23"/>
       <c r="H111" s="15"/>
-      <c r="K111" s="1" t="s">
-        <v>588</v>
+      <c r="I111" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G112" s="23"/>
       <c r="H112" s="15"/>
       <c r="K112" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>32</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G113" s="23"/>
       <c r="H113" s="15"/>
+      <c r="K113" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="15"/>
-      <c r="K114" s="2" t="s">
-        <v>577</v>
-      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F115"/>
+        <v>37</v>
+      </c>
+      <c r="F115" t="s">
+        <v>942</v>
+      </c>
       <c r="G115" s="23"/>
       <c r="H115" s="15"/>
-      <c r="I115" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="K115" s="2" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F116"/>
       <c r="G116" s="23"/>
       <c r="H116" s="15"/>
       <c r="I116" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="23"/>
       <c r="H117" s="15"/>
       <c r="I117" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>466</v>
+        <v>49</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F118"/>
-      <c r="G118" s="20" t="s">
-        <v>965</v>
-      </c>
+      <c r="G118" s="23"/>
       <c r="H118" s="15"/>
       <c r="I118" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F119"/>
-      <c r="G119" s="23"/>
+      <c r="G119" s="20" t="s">
+        <v>965</v>
+      </c>
       <c r="H119" s="15"/>
       <c r="I119" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="23"/>
       <c r="H120" s="15"/>
       <c r="I120" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>71</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="23"/>
       <c r="H121" s="15"/>
+      <c r="I121" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F122" t="s">
-        <v>943</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F122"/>
       <c r="G122" s="23"/>
       <c r="H122" s="15"/>
-      <c r="K122" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F123"/>
+        <v>76</v>
+      </c>
+      <c r="F123" t="s">
+        <v>943</v>
+      </c>
       <c r="G123" s="23"/>
       <c r="H123" s="15"/>
-      <c r="I123" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>623</v>
+      <c r="K123" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F124" t="s">
-        <v>944</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F124"/>
       <c r="G124" s="23"/>
       <c r="H124" s="15"/>
+      <c r="I124" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F125"/>
+        <v>86</v>
+      </c>
+      <c r="F125" t="s">
+        <v>944</v>
+      </c>
       <c r="G125" s="23"/>
       <c r="H125" s="15"/>
-      <c r="I125" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="23"/>
       <c r="H126" s="15"/>
+      <c r="I126" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="K126" s="1" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="23"/>
       <c r="H127" s="15"/>
-      <c r="I127" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="K127" s="1" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E128" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="23"/>
       <c r="H128" s="15"/>
       <c r="I128" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D129" s="2"/>
       <c r="E129" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F129" t="s">
-        <v>945</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F129"/>
       <c r="G129" s="23"/>
       <c r="H129" s="15"/>
-      <c r="K129" s="1" t="s">
-        <v>586</v>
+      <c r="I129" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F130"/>
+        <v>110</v>
+      </c>
+      <c r="F130" t="s">
+        <v>945</v>
+      </c>
       <c r="G130" s="23"/>
       <c r="H130" s="15"/>
-      <c r="I130" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="K130" s="1" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="23"/>
       <c r="H131" s="15"/>
       <c r="I131" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F132"/>
       <c r="G132" s="23"/>
       <c r="H132" s="15"/>
+      <c r="I132" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="K132" s="1" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F133"/>
       <c r="G133" s="23"/>
       <c r="H133" s="15"/>
-      <c r="I133" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="K133" s="1" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F134"/>
-      <c r="G134" s="20" t="s">
-        <v>966</v>
-      </c>
+      <c r="G134" s="23"/>
       <c r="H134" s="15"/>
       <c r="I134" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F135"/>
+      <c r="G135" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K134" s="1" t="s">
+      <c r="K135" s="1" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="17"/>
-      <c r="E135" s="15"/>
-      <c r="F135"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="15"/>
-      <c r="K135" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E136" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F136" t="s">
-        <v>946</v>
-      </c>
-      <c r="G136" s="24"/>
-      <c r="H136" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="C136" s="17"/>
+      <c r="E136" s="15"/>
+      <c r="F136"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="15"/>
       <c r="K136" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137" s="17"/>
-      <c r="F137"/>
-      <c r="G137" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F137" t="s">
+        <v>946</v>
+      </c>
+      <c r="G137" s="24"/>
+      <c r="H137" s="18"/>
+      <c r="K137" s="2" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C138" s="17"/>
       <c r="F138"/>
-      <c r="G138" s="20" t="s">
-        <v>967</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="G138" s="25"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F139"/>
       <c r="G139" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H139" s="15"/>
       <c r="I139" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F140" t="s">
-        <v>947</v>
-      </c>
-      <c r="G140" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="F140"/>
+      <c r="G140" s="20" t="s">
+        <v>968</v>
+      </c>
       <c r="H140" s="15"/>
+      <c r="I140" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="K140" s="2" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F141"/>
-      <c r="G141" s="20" t="s">
-        <v>969</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F141" t="s">
+        <v>947</v>
+      </c>
+      <c r="G141" s="23"/>
       <c r="H141" s="15"/>
-      <c r="I141" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="K141" s="2" t="s">
-        <v>630</v>
+        <v>582</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F142" t="s">
-        <v>948</v>
-      </c>
-      <c r="G142" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142" s="20" t="s">
+        <v>969</v>
+      </c>
       <c r="H142" s="15"/>
+      <c r="I142" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E143" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="F143" t="s">
-        <v>949</v>
-      </c>
-      <c r="G143" s="24"/>
-      <c r="H143" s="18"/>
-      <c r="K143" s="2" t="s">
-        <v>585</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="G143" s="23"/>
+      <c r="H143" s="15"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C144" s="17"/>
-      <c r="F144"/>
-      <c r="G144" s="25"/>
+        <v>169</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F144" t="s">
+        <v>949</v>
+      </c>
+      <c r="G144" s="24"/>
+      <c r="H144" s="18"/>
+      <c r="K144" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C145" s="17"/>
       <c r="F145"/>
-      <c r="G145" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="G145" s="25"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F146"/>
-      <c r="G146" s="23"/>
+      <c r="G146" s="20" t="s">
+        <v>970</v>
+      </c>
       <c r="H146" s="15"/>
+      <c r="I146" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F147" t="s">
-        <v>950</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F147"/>
       <c r="G147" s="23"/>
       <c r="H147" s="15"/>
-      <c r="K147" s="2" t="s">
-        <v>589</v>
-      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F148" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G148" s="23"/>
       <c r="H148" s="15"/>
+      <c r="K148" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F149"/>
+        <v>192</v>
+      </c>
+      <c r="F149" t="s">
+        <v>951</v>
+      </c>
       <c r="G149" s="23"/>
       <c r="H149" s="15"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F150"/>
-      <c r="G150" s="20" t="s">
-        <v>971</v>
-      </c>
+      <c r="G150" s="23"/>
       <c r="H150" s="15"/>
-      <c r="I150" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K150" s="2" t="s">
-        <v>611</v>
-      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F151"/>
-      <c r="G151" s="23"/>
+      <c r="G151" s="20" t="s">
+        <v>971</v>
+      </c>
       <c r="H151" s="15"/>
+      <c r="I151" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F152"/>
       <c r="G152" s="23"/>
@@ -7804,16 +7827,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F153"/>
       <c r="G153" s="23"/>
@@ -7821,27 +7844,31 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E154" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="F154"/>
       <c r="G154" s="23"/>
       <c r="H154" s="15"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C155" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="E155" s="15"/>
       <c r="F155"/>
       <c r="G155" s="23"/>
@@ -7849,800 +7876,796 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D156" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E156" s="15" t="s">
-        <v>473</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C156" s="17"/>
+      <c r="E156" s="15"/>
       <c r="F156"/>
       <c r="G156" s="23"/>
       <c r="H156" s="15"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>671</v>
+        <v>222</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F157" t="s">
-        <v>952</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="F157"/>
       <c r="G157" s="23"/>
       <c r="H157" s="15"/>
-      <c r="K157" s="2" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E158" s="13"/>
-      <c r="F158"/>
-      <c r="G158" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="H158" s="13"/>
+        <v>671</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F158" t="s">
+        <v>952</v>
+      </c>
+      <c r="G158" s="23"/>
+      <c r="H158" s="15"/>
+      <c r="K158" s="2" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E159" s="18" t="s">
-        <v>235</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E159" s="13"/>
       <c r="F159"/>
       <c r="G159" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="H159" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="K159" s="2" t="s">
-        <v>610</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="H159" s="13"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F160"/>
-      <c r="G160" s="25"/>
+      <c r="G160" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="H160" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E161" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F161"/>
-      <c r="G161" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="H161" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>618</v>
-      </c>
+      <c r="G161" s="25"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E162" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="F162"/>
       <c r="G162" s="20" t="s">
-        <v>975</v>
-      </c>
-      <c r="H162" s="15" t="s">
-        <v>729</v>
+        <v>974</v>
+      </c>
+      <c r="H162" s="18" t="s">
+        <v>730</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>249</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C163" s="14"/>
       <c r="D163" s="14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F163"/>
       <c r="G163" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="H163" s="13" t="s">
-        <v>731</v>
+        <v>975</v>
+      </c>
+      <c r="H163" s="15" t="s">
+        <v>729</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F164"/>
       <c r="G164" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="H164" s="15" t="s">
-        <v>693</v>
+        <v>976</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K164" s="19" t="s">
-        <v>607</v>
+        <v>542</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F165"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="18"/>
+      <c r="G165" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="H165" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K165" s="19" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D166" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F166"/>
-      <c r="G166" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="H166" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K166" s="2" t="s">
-        <v>606</v>
-      </c>
+      <c r="G166" s="24"/>
+      <c r="H166" s="18"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F167"/>
-      <c r="G167" s="23"/>
-      <c r="H167" s="15"/>
+      <c r="G167" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="H167" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="F168"/>
-      <c r="G168" s="25"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="15"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="B169" s="13"/>
-      <c r="C169" s="20" t="s">
-        <v>804</v>
+        <v>270</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="F169"/>
       <c r="G169" s="25"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B170" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>276</v>
+        <v>805</v>
+      </c>
+      <c r="B170" s="13"/>
+      <c r="C170" s="20" t="s">
+        <v>804</v>
       </c>
       <c r="F170"/>
-      <c r="G170" s="23"/>
-      <c r="H170" s="15"/>
+      <c r="G170" s="25"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="F171"/>
-      <c r="G171" s="25"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="15"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F172"/>
       <c r="G172" s="25"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F173" t="s">
-        <v>953</v>
-      </c>
-      <c r="K173" s="2" t="s">
-        <v>575</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="F173"/>
+      <c r="G173" s="25"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F174"/>
+        <v>285</v>
+      </c>
+      <c r="F174" t="s">
+        <v>953</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="F175" t="s">
-        <v>954</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F175"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D176" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E176" s="18" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F176" t="s">
-        <v>955</v>
-      </c>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
-      <c r="K176" s="2" t="s">
-        <v>578</v>
+        <v>954</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F177"/>
+        <v>294</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F177" t="s">
+        <v>955</v>
+      </c>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="K177" s="2" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F178"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F179"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F180" t="s">
-        <v>956</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F180"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F181"/>
+        <v>308</v>
+      </c>
+      <c r="F181" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F182"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F183"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F184" t="s">
-        <v>957</v>
-      </c>
-      <c r="K184" s="2" t="s">
-        <v>572</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F184"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E185" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F185" t="s">
-        <v>958</v>
-      </c>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
+        <v>957</v>
+      </c>
       <c r="K185" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F186"/>
+        <v>323</v>
+      </c>
+      <c r="E186" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F186" t="s">
+        <v>958</v>
+      </c>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="K186" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="E187" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="F187" t="s">
-        <v>959</v>
-      </c>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
+        <v>327</v>
+      </c>
+      <c r="F187"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F188"/>
+        <v>330</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F188" t="s">
+        <v>959</v>
+      </c>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F189"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F190"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D191" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="E191" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F191"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="D192" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E192" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="F192"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F193"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F194"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F195"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F196"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F197"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F198"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F199"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F200"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F201"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C202" s="17"/>
+        <v>374</v>
+      </c>
+      <c r="C202" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="F202"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C203" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="E203" s="15" t="s">
-        <v>381</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C203" s="17"/>
       <c r="F203"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="15"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E204" s="15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F204"/>
       <c r="G204" s="15"/>
@@ -8650,774 +8673,791 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="F205"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F206"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E207" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F207"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="F208"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F209"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E210" s="15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F210"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="E211" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="F211"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>408</v>
       </c>
       <c r="F212"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C213" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="F213"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F214"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F215"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F216"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F217"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F218"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F219"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F220"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F221"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="E222" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="F222" t="s">
-        <v>960</v>
-      </c>
-      <c r="G222" s="15"/>
-      <c r="H222" s="15"/>
-      <c r="K222" s="2" t="s">
-        <v>584</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="F222"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>445</v>
+        <v>440</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E223" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
+        <v>960</v>
+      </c>
+      <c r="G223" s="15"/>
+      <c r="H223" s="15"/>
+      <c r="K223" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="B227" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C226" s="16" t="s">
+      <c r="C227" s="16" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C227" s="16" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C228" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C229" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C230" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C231" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C232" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C233" s="16" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C108" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C107" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C109" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C110" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C111" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C112" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C113" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C114" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C115" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C116" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C117" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C119" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C120" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C121" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C122" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C123" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C124" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C125" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C126" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C127" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C128" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C129" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C130" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C131" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C132" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C133" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C134" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C136" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C138" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C139" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C140" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C141" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C142" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C143" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C145" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C146" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C147" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C148" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C149" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C150" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C151" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C152" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C153" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C154" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C156" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C157" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C158" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C159" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C160" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C161" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C163" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C164" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C165" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C166" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C167" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C168" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C170" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C171" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C172" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C173" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C174" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C175" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C176" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C177" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C178" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C179" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C180" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C181" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C182" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C183" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C184" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C185" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C186" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C187" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C188" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C189" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C190" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C191" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C192" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C193" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C194" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C195" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C196" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C197" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C198" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C199" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C200" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C201" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C203" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C204" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C205" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C206" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C207" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C208" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C209" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C210" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C211" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C213" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C214" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C215" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C216" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C217" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C218" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C219" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C220" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C221" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C222" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C118" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C223" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C212" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C224" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C225" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C226" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C227" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C228" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C229" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C230" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C231" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C232" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D107" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D108" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D109" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D111" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D114" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D115" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D116" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D122" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D121" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D150" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D117" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D118" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D119" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D120" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D123" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D124" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D125" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D126" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D127" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D129" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D130" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D131" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D132" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D133" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D134" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D136" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D139" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D140" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D141" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D143" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D145" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D147" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D149" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D156" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D157" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D159" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D162" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D163" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D164" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D176" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E107" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E108" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E109" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E110" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E111" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E112" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E114" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E115" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E116" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E117" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E119" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E120" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E121" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E123" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E124" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E125" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E126" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E127" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E128" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E129" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E130" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E131" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E132" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E133" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E134" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E135" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E138" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E139" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E140" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E141" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E145" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E146" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E147" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E148" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E149" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E155" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E156" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E158" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E162" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E167" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E170" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E185" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E187" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E203" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E204" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E207" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E210" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E222" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D191" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E122" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E151" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E152" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E163" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E164" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E153" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E154" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E118" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E142" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E166" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E157" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E113" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E136" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E143" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E150" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E159" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E161" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E165" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E176" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E191" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B113" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B114" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B115" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B116" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B117" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B118" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B119" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B120" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B121" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B122" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B123" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B124" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B125" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B126" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B127" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B128" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B129" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B130" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B131" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B132" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B133" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B134" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B135" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B136" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B137" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B139" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B140" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B141" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B142" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B143" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B144" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B146" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B147" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B148" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B149" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B150" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B151" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B152" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B153" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B154" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B155" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B156" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B157" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B158" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B107" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B108" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B109" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B110" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B111" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B112" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B226" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B225" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B224" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B223" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B222" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B221" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B220" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B219" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B218" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B217" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B216" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B215" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B214" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B213" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B212" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B211" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B210" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B209" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B208" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B207" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B206" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B205" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B204" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B203" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B202" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B201" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B200" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B199" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B198" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B197" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B196" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B195" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B194" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B193" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B192" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B191" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B190" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B189" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B188" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B187" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B186" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B185" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B184" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B183" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B182" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B181" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B180" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B179" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B178" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B177" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B176" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B175" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B174" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B173" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B172" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B171" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B170" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B168" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B167" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B166" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B165" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B164" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B163" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B162" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B161" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B160" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B159" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E88" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
-    <hyperlink ref="E83" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
-    <hyperlink ref="B84" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
-    <hyperlink ref="B96" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
-    <hyperlink ref="B83" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
-    <hyperlink ref="B82" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
-    <hyperlink ref="E80" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
-    <hyperlink ref="B81" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
-    <hyperlink ref="H163" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
-    <hyperlink ref="B80" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
-    <hyperlink ref="C71" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
-    <hyperlink ref="B69" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
-    <hyperlink ref="E69" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
-    <hyperlink ref="D69" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
-    <hyperlink ref="D70" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
-    <hyperlink ref="B68" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
-    <hyperlink ref="E68" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
-    <hyperlink ref="D68" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
-    <hyperlink ref="E67" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
-    <hyperlink ref="D67" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
-    <hyperlink ref="B87" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
-    <hyperlink ref="B66" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
-    <hyperlink ref="E66" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
-    <hyperlink ref="D66" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
-    <hyperlink ref="B65" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
-    <hyperlink ref="E65" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
-    <hyperlink ref="D65" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
-    <hyperlink ref="E64" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
-    <hyperlink ref="D64" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
-    <hyperlink ref="D63" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
-    <hyperlink ref="E63" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
-    <hyperlink ref="B62" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
-    <hyperlink ref="E62" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
-    <hyperlink ref="D62" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
-    <hyperlink ref="B104" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
-    <hyperlink ref="B61" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
-    <hyperlink ref="D61" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
-    <hyperlink ref="E61" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
-    <hyperlink ref="E60" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
-    <hyperlink ref="C60" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
-    <hyperlink ref="D60" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
-    <hyperlink ref="C169" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
-    <hyperlink ref="C59" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
-    <hyperlink ref="B57" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
-    <hyperlink ref="E57" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
-    <hyperlink ref="E56" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
-    <hyperlink ref="D56" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
-    <hyperlink ref="D57" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
-    <hyperlink ref="B55" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
-    <hyperlink ref="E53" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
-    <hyperlink ref="B53" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
-    <hyperlink ref="D53" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
-    <hyperlink ref="B52" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
-    <hyperlink ref="E52" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
-    <hyperlink ref="E51" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
-    <hyperlink ref="E50" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
-    <hyperlink ref="D50" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
-    <hyperlink ref="D51" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
-    <hyperlink ref="B48" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
-    <hyperlink ref="E48" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
-    <hyperlink ref="E47" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
-    <hyperlink ref="D47" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
-    <hyperlink ref="D46" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
-    <hyperlink ref="B64" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
-    <hyperlink ref="E44" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
-    <hyperlink ref="D44" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
-    <hyperlink ref="D41" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
-    <hyperlink ref="B41" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
-    <hyperlink ref="B43" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
-    <hyperlink ref="B77" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
-    <hyperlink ref="E39" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
-    <hyperlink ref="E35" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
-    <hyperlink ref="D35" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
-    <hyperlink ref="G36" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
-    <hyperlink ref="G37" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
-    <hyperlink ref="G69" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
-    <hyperlink ref="G98" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
-    <hyperlink ref="G107" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
-    <hyperlink ref="G108" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
-    <hyperlink ref="G118" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
-    <hyperlink ref="G134" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
-    <hyperlink ref="G139" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
-    <hyperlink ref="G138" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
-    <hyperlink ref="G141" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
-    <hyperlink ref="G145" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
-    <hyperlink ref="G150" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
-    <hyperlink ref="G158" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
-    <hyperlink ref="G159" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
-    <hyperlink ref="G161" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
-    <hyperlink ref="G162" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
-    <hyperlink ref="G163" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
-    <hyperlink ref="G164" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
-    <hyperlink ref="G166" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
-    <hyperlink ref="E34" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
-    <hyperlink ref="F34" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
-    <hyperlink ref="D34" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
-    <hyperlink ref="D31" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
-    <hyperlink ref="E29" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
-    <hyperlink ref="C82" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
-    <hyperlink ref="D24" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
-    <hyperlink ref="C24" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
-    <hyperlink ref="D23" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
-    <hyperlink ref="E23" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
-    <hyperlink ref="E22" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
-    <hyperlink ref="F22" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
-    <hyperlink ref="F19" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
-    <hyperlink ref="D30" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
-    <hyperlink ref="G30" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
-    <hyperlink ref="G29" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
-    <hyperlink ref="C5" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
+    <hyperlink ref="C109" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C108" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C110" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C111" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C112" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C113" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C114" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C115" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C116" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C117" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C118" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C120" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C121" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C122" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C123" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C124" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C125" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C126" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C127" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C128" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C129" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C130" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C131" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C132" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C133" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C134" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C135" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C137" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C139" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C140" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C141" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C142" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C143" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C144" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C146" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C147" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C148" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C149" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C150" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C151" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C152" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C153" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C154" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C155" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C157" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C158" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C159" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C160" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C161" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C162" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C164" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C165" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C166" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C167" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C168" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C169" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C171" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C172" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C173" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C174" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C175" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C176" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C177" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C178" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C179" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C180" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C181" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C182" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C183" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C184" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C185" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C186" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C187" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C188" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C189" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C190" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C191" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C192" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C193" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C194" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C195" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C196" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C197" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C198" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C199" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C200" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C201" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C202" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C204" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C205" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C206" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C207" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C208" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C209" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C210" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C211" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C212" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C214" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C215" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C216" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C217" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C218" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C219" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C220" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C221" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C222" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C223" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C119" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C224" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C213" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C225" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C226" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C227" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C228" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C229" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C230" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C231" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C232" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C233" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D108" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D109" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D110" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D112" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D113" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D115" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D116" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D117" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D123" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D122" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D151" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D118" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D119" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D120" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D121" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D124" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D125" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D126" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D127" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D128" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D130" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D131" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D132" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D133" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D134" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D135" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D137" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D140" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D141" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D142" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D144" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D146" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D148" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D150" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D157" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D158" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D160" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D167" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D177" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E108" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E109" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E110" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E111" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E112" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E113" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E115" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E116" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E117" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E118" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E120" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E121" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E122" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E124" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E125" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E126" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E127" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E128" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E129" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E130" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E131" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E132" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E133" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E134" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E135" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E136" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E139" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E140" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E141" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E142" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E146" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E147" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E148" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E149" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E150" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E156" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E157" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E159" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E163" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E168" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E171" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E186" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E188" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E204" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E205" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E211" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E223" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D192" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E123" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E152" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E153" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E164" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E165" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E154" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E155" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E119" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E143" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E167" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E158" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E114" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E137" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E144" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E151" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E160" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E162" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E166" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E177" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E192" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B114" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B115" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B116" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B117" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B118" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B119" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B120" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B121" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B122" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B123" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B124" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B125" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B126" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B127" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B128" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B129" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B130" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B131" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B132" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B133" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B134" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B135" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B136" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B137" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B138" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B140" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B141" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B142" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B143" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B144" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B145" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B147" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B148" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B149" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B150" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B151" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B152" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B153" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B154" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B155" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B156" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B157" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B158" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B159" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B108" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B109" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B110" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B111" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B112" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B113" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B227" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B226" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B225" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B224" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B223" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B222" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B221" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B220" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B219" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B218" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B217" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B216" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B215" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B214" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B213" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B212" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B211" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B210" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B209" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B208" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B207" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B206" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B205" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B204" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B203" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B202" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B201" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B200" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B199" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B198" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B197" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B196" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B195" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B194" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B193" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B192" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B191" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B190" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B189" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B188" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B187" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B186" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B185" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B184" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B183" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B182" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B181" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B180" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B179" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B178" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B177" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B176" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B175" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B174" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B173" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B172" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B171" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B169" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B168" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B167" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B166" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B165" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B164" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B163" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B162" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B161" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B160" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E89" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
+    <hyperlink ref="E84" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
+    <hyperlink ref="B85" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
+    <hyperlink ref="B97" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
+    <hyperlink ref="B84" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
+    <hyperlink ref="B83" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
+    <hyperlink ref="E81" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
+    <hyperlink ref="B82" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
+    <hyperlink ref="H164" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
+    <hyperlink ref="B81" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
+    <hyperlink ref="C72" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
+    <hyperlink ref="B70" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
+    <hyperlink ref="E70" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
+    <hyperlink ref="D70" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
+    <hyperlink ref="D71" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
+    <hyperlink ref="B69" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
+    <hyperlink ref="E69" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
+    <hyperlink ref="D69" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
+    <hyperlink ref="E68" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
+    <hyperlink ref="D68" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
+    <hyperlink ref="B88" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
+    <hyperlink ref="B67" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
+    <hyperlink ref="E67" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
+    <hyperlink ref="D67" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
+    <hyperlink ref="B66" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
+    <hyperlink ref="E66" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
+    <hyperlink ref="D66" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
+    <hyperlink ref="E65" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
+    <hyperlink ref="D65" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
+    <hyperlink ref="D64" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
+    <hyperlink ref="E64" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
+    <hyperlink ref="B63" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
+    <hyperlink ref="E63" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
+    <hyperlink ref="D63" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
+    <hyperlink ref="B105" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
+    <hyperlink ref="B62" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
+    <hyperlink ref="D62" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
+    <hyperlink ref="E62" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
+    <hyperlink ref="E61" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
+    <hyperlink ref="C61" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
+    <hyperlink ref="D61" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
+    <hyperlink ref="C170" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
+    <hyperlink ref="C60" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
+    <hyperlink ref="B58" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
+    <hyperlink ref="E58" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
+    <hyperlink ref="E57" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
+    <hyperlink ref="D57" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
+    <hyperlink ref="D58" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
+    <hyperlink ref="B56" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
+    <hyperlink ref="E54" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
+    <hyperlink ref="B54" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
+    <hyperlink ref="D54" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
+    <hyperlink ref="B53" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
+    <hyperlink ref="E53" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
+    <hyperlink ref="E52" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
+    <hyperlink ref="E51" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
+    <hyperlink ref="D51" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
+    <hyperlink ref="D52" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
+    <hyperlink ref="B49" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
+    <hyperlink ref="E49" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
+    <hyperlink ref="E48" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
+    <hyperlink ref="D48" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
+    <hyperlink ref="D47" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
+    <hyperlink ref="B65" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
+    <hyperlink ref="E45" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
+    <hyperlink ref="D45" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
+    <hyperlink ref="D42" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
+    <hyperlink ref="B42" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
+    <hyperlink ref="B44" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
+    <hyperlink ref="B78" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
+    <hyperlink ref="E40" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
+    <hyperlink ref="E36" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
+    <hyperlink ref="D36" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
+    <hyperlink ref="G37" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
+    <hyperlink ref="G38" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
+    <hyperlink ref="G70" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
+    <hyperlink ref="G99" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
+    <hyperlink ref="G108" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
+    <hyperlink ref="G109" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
+    <hyperlink ref="G119" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
+    <hyperlink ref="G135" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
+    <hyperlink ref="G140" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
+    <hyperlink ref="G139" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
+    <hyperlink ref="G142" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
+    <hyperlink ref="G146" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
+    <hyperlink ref="G151" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
+    <hyperlink ref="G159" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
+    <hyperlink ref="G160" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
+    <hyperlink ref="G162" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
+    <hyperlink ref="G163" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
+    <hyperlink ref="G164" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
+    <hyperlink ref="G165" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
+    <hyperlink ref="G167" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
+    <hyperlink ref="E35" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
+    <hyperlink ref="F35" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
+    <hyperlink ref="D35" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
+    <hyperlink ref="D32" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
+    <hyperlink ref="E30" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
+    <hyperlink ref="C83" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
+    <hyperlink ref="D25" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
+    <hyperlink ref="C25" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
+    <hyperlink ref="D24" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
+    <hyperlink ref="E24" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
+    <hyperlink ref="E23" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
+    <hyperlink ref="F23" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
+    <hyperlink ref="F20" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
+    <hyperlink ref="D31" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
+    <hyperlink ref="G31" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
+    <hyperlink ref="G30" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
+    <hyperlink ref="C6" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/articlelinks.xlsx
+++ b/articlelinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Dropbox/markdown_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964FB502-44B6-A749-A0E3-D896E07CDFFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5B29A-6B9C-B74F-8439-46393DD7D90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1146">
   <si>
     <t>文科生如何理解卷积神经网络？</t>
   </si>
@@ -3498,6 +3498,21 @@
   </si>
   <si>
     <t>https://sspai.com/post/66113</t>
+  </si>
+  <si>
+    <t>导师究竟有啥用？</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/367699442</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/66267</t>
+  </si>
+  <si>
+    <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;quickforward=1&amp;id=1283685</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/qAzC6f-4I1wL84O1Cilzgg</t>
   </si>
 </sst>
 </file>
@@ -3990,10 +4005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N233"/>
+  <dimension ref="A1:N234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4045,19 +4060,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4070,13 +4085,20 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1140</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="4"/>
@@ -4088,20 +4110,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1130</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="4"/>
@@ -4113,16 +4128,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1127</v>
+        <v>1131</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1126</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4135,19 +4153,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1122</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -4160,16 +4175,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1115</v>
+        <v>1119</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1120</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -4182,16 +4200,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4204,16 +4222,18 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>1109</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -4224,14 +4244,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>1109</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4242,10 +4264,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -4260,20 +4282,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>1093</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
@@ -4285,16 +4300,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1088</v>
+        <v>1096</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -4307,13 +4325,17 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+        <v>1088</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1090</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
@@ -4325,20 +4347,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>1087</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
@@ -4350,13 +4365,20 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+        <v>1084</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1087</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="4"/>
@@ -4368,17 +4390,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>1042</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="4"/>
@@ -4390,19 +4408,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -4415,16 +4430,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4437,19 +4455,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>1027</v>
+        <v>1036</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4462,16 +4477,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4484,13 +4502,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1048</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4503,16 +4524,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>1022</v>
+        <v>1031</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>1032</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4525,16 +4543,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>1018</v>
+        <v>1021</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1049</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>1020</v>
+        <v>1022</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -4547,19 +4565,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>1014</v>
+        <v>1018</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>1019</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -4572,19 +4587,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>1006</v>
+        <v>1012</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>1013</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4597,13 +4612,20 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+        <v>1050</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>1010</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="4"/>
@@ -4615,20 +4637,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>1011</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
@@ -4640,23 +4655,21 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>1108</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -4667,22 +4680,22 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>992</v>
+        <v>994</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>997</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>1107</v>
+        <v>1000</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>1108</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="4"/>
@@ -4694,22 +4707,22 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>998</v>
+        <v>1054</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>992</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>1106</v>
+        <v>1001</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>1107</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="4"/>
@@ -4721,22 +4734,22 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>989</v>
+        <v>1055</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>996</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>1105</v>
+        <v>1002</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>1106</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="4"/>
@@ -4748,14 +4761,23 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+        <v>986</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>1105</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -4766,14 +4788,12 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>999</v>
-      </c>
+        <v>1057</v>
+      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -4786,20 +4806,15 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>981</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
@@ -4811,19 +4826,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>1059</v>
+        <v>979</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>983</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>896</v>
+        <v>982</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>897</v>
+        <v>980</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>981</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -4836,23 +4851,21 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>892</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -4863,22 +4876,22 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C38" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>1060</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
@@ -4890,16 +4903,23 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>1060</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>888</v>
+      </c>
       <c r="F39" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="G39" s="21"/>
+        <v>890</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>893</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4910,21 +4930,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F40" t="s">
-        <v>898</v>
-      </c>
-      <c r="G40" s="20"/>
+        <v>1061</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="G40" s="21"/>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -4935,18 +4950,21 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>875</v>
+        <v>1062</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="F41" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G41" s="21"/>
+        <v>898</v>
+      </c>
+      <c r="G41" s="20"/>
       <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -4957,22 +4975,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>871</v>
+        <v>1063</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="F42" t="s">
-        <v>899</v>
+        <v>1129</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="6"/>
@@ -4985,15 +4997,23 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B43" s="20"/>
+        <v>867</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>873</v>
+      </c>
       <c r="C43" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="6"/>
-      <c r="F43"/>
+        <v>1064</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="F43" t="s">
+        <v>899</v>
+      </c>
       <c r="G43" s="21"/>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
@@ -5005,23 +5025,15 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>874</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F44" t="s">
-        <v>900</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="6"/>
+      <c r="F44"/>
       <c r="G44" s="21"/>
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
@@ -5033,24 +5045,24 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>865</v>
+        <v>868</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>874</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>860</v>
+        <v>1067</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>869</v>
       </c>
       <c r="F45" t="s">
-        <v>901</v>
-      </c>
-      <c r="G45" s="20"/>
+        <v>900</v>
+      </c>
+      <c r="G45" s="21"/>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -5061,24 +5073,24 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>862</v>
+        <v>1068</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F46" t="s">
-        <v>902</v>
-      </c>
-      <c r="G46" s="21"/>
+        <v>901</v>
+      </c>
+      <c r="G46" s="20"/>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -5089,22 +5101,22 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>855</v>
+        <v>1069</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F47" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="6"/>
@@ -5117,29 +5129,27 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>850</v>
+        <v>855</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="F48" t="s">
-        <v>904</v>
-      </c>
-      <c r="G48" s="20"/>
+        <v>903</v>
+      </c>
+      <c r="G48" s="21"/>
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -5147,24 +5157,29 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>845</v>
+        <v>849</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>851</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F49" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="6"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -5172,21 +5187,21 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>845</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>848</v>
+        <v>1072</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>847</v>
       </c>
       <c r="F50" t="s">
-        <v>906</v>
-      </c>
-      <c r="G50" s="21"/>
+        <v>905</v>
+      </c>
+      <c r="G50" s="20"/>
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5197,24 +5212,21 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>840</v>
+        <v>1073</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>848</v>
       </c>
       <c r="F51" t="s">
-        <v>907</v>
-      </c>
-      <c r="G51" s="20"/>
+        <v>906</v>
+      </c>
+      <c r="G51" s="21"/>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -5225,21 +5237,23 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F52"/>
+        <v>840</v>
+      </c>
+      <c r="F52" t="s">
+        <v>907</v>
+      </c>
       <c r="G52" s="20"/>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
@@ -5251,16 +5265,19 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>834</v>
+        <v>837</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>842</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F53"/>
       <c r="G53" s="20"/>
@@ -5274,23 +5291,18 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>828</v>
+        <v>1076</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="F54" t="s">
-        <v>908</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="F54"/>
       <c r="G54" s="20"/>
       <c r="H54" s="6"/>
       <c r="I54" s="4"/>
@@ -5302,22 +5314,22 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F55" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="6"/>
@@ -5330,24 +5342,24 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>822</v>
+        <v>1078</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>831</v>
       </c>
       <c r="F56" t="s">
-        <v>910</v>
-      </c>
-      <c r="G56" s="21"/>
+        <v>909</v>
+      </c>
+      <c r="G56" s="20"/>
       <c r="H56" s="6"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -5358,24 +5370,24 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>814</v>
+        <v>821</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>820</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>815</v>
+        <v>824</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="F57" t="s">
-        <v>911</v>
-      </c>
-      <c r="G57" s="20"/>
+        <v>910</v>
+      </c>
+      <c r="G57" s="21"/>
       <c r="H57" s="6"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -5386,22 +5398,22 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>808</v>
+        <v>816</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F58" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="6"/>
@@ -5414,14 +5426,23 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B59" s="20"/>
+        <v>819</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>808</v>
+      </c>
       <c r="C59" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59"/>
+        <v>812</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="F59" t="s">
+        <v>912</v>
+      </c>
       <c r="G59" s="20"/>
       <c r="H59" s="6"/>
       <c r="I59" s="4"/>
@@ -5433,14 +5454,15 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="E60" s="6"/>
+        <v>811</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E60" s="20"/>
       <c r="F60"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="6"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -5451,24 +5473,14 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F61" t="s">
-        <v>913</v>
-      </c>
-      <c r="G61" s="20"/>
+        <v>807</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61"/>
+      <c r="G61" s="21"/>
       <c r="H61" s="6"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -5479,22 +5491,22 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>796</v>
+        <v>799</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F62" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="6"/>
@@ -5507,22 +5519,22 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="F63" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="6"/>
@@ -5535,22 +5547,22 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>789</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="F64" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="6"/>
@@ -5563,22 +5575,22 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>779</v>
+        <v>787</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F65" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="6"/>
@@ -5591,21 +5603,23 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F66"/>
+        <v>780</v>
+      </c>
+      <c r="F66" t="s">
+        <v>917</v>
+      </c>
       <c r="G66" s="20"/>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
@@ -5617,19 +5631,19 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="20"/>
@@ -5643,23 +5657,21 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>764</v>
+        <v>768</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>769</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="F68" t="s">
-        <v>918</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F68"/>
       <c r="G68" s="20"/>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
@@ -5671,22 +5683,22 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>759</v>
+        <v>763</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F69" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="6"/>
@@ -5699,26 +5711,24 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="F70" t="s">
-        <v>920</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="G70" s="20"/>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -5729,24 +5739,26 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>750</v>
+        <v>756</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F71" t="s">
-        <v>921</v>
-      </c>
-      <c r="G71" s="21"/>
+        <v>920</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>961</v>
+      </c>
       <c r="H71" s="6"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -5757,22 +5769,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>743</v>
+        <v>748</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F72" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="6"/>
@@ -5785,22 +5797,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F73" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="6"/>
@@ -5813,22 +5825,22 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F74" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="6"/>
@@ -5841,22 +5853,22 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F75" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G75" s="21"/>
       <c r="H75" s="6"/>
@@ -5869,21 +5881,23 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F76"/>
+        <v>726</v>
+      </c>
+      <c r="F76" t="s">
+        <v>925</v>
+      </c>
       <c r="G76" s="21"/>
       <c r="H76" s="6"/>
       <c r="I76" s="4"/>
@@ -5895,23 +5909,21 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="F77" t="s">
-        <v>926</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="F77"/>
       <c r="G77" s="21"/>
       <c r="H77" s="6"/>
       <c r="I77" s="4"/>
@@ -5923,22 +5935,22 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>709</v>
+        <v>712</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F78" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="6"/>
@@ -5951,22 +5963,22 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="F79" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="6"/>
@@ -5979,21 +5991,23 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F80"/>
+        <v>706</v>
+      </c>
+      <c r="F80" t="s">
+        <v>928</v>
+      </c>
       <c r="G80" s="21"/>
       <c r="H80" s="6"/>
       <c r="I80" s="4"/>
@@ -6005,22 +6019,22 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>695</v>
+        <v>698</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>696</v>
+        <v>700</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="F81"/>
-      <c r="G81" s="22"/>
+      <c r="G81" s="21"/>
       <c r="H81" s="6"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6031,24 +6045,22 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="F82" t="s">
-        <v>929</v>
-      </c>
-      <c r="G82" s="21"/>
+        <v>697</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82" s="22"/>
       <c r="H82" s="6"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6059,28 +6071,26 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>684</v>
+        <v>686</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="F83" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="6"/>
-      <c r="I83" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -6089,26 +6099,28 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>676</v>
+        <v>681</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>673</v>
+        <v>682</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="F84" t="s">
-        <v>931</v>
-      </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="4"/>
+        <v>930</v>
+      </c>
+      <c r="G84" s="21"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -6117,25 +6129,25 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>669</v>
+        <v>674</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="F85" t="s">
-        <v>932</v>
-      </c>
-      <c r="G85" s="21"/>
-      <c r="H85" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G85" s="22"/>
+      <c r="H85" s="13"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -6145,22 +6157,22 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>659</v>
+        <v>668</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F86" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="6"/>
@@ -6173,81 +6185,81 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F87" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="6"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>648</v>
+        <v>653</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>654</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F88"/>
+        <v>655</v>
+      </c>
+      <c r="F88" t="s">
+        <v>934</v>
+      </c>
       <c r="G88" s="21"/>
       <c r="H88" s="6"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
+      <c r="K88" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>603</v>
+        <v>647</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="F89" t="s">
-        <v>935</v>
-      </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="13"/>
+        <v>650</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -6257,47 +6269,47 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="F90"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="6"/>
+        <v>651</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="F90" t="s">
+        <v>935</v>
+      </c>
+      <c r="G90" s="22"/>
+      <c r="H90" s="13"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4" t="s">
-        <v>658</v>
-      </c>
+      <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F91"/>
       <c r="G91" s="21"/>
@@ -6305,7 +6317,7 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -6313,53 +6325,53 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="21"/>
       <c r="H92" s="6"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
+      <c r="K92" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="21"/>
       <c r="H93" s="6"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -6367,61 +6379,59 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F94" t="s">
-        <v>936</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="F94"/>
       <c r="G94" s="21"/>
       <c r="H94" s="6"/>
-      <c r="I94" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="F95"/>
+        <v>558</v>
+      </c>
+      <c r="F95" t="s">
+        <v>936</v>
+      </c>
       <c r="G95" s="21"/>
       <c r="H95" s="6"/>
       <c r="I95" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -6429,29 +6439,29 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>545</v>
+        <v>646</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="21"/>
       <c r="H96" s="6"/>
       <c r="I96" s="4" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -6459,29 +6469,29 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>678</v>
+        <v>545</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="21"/>
       <c r="H97" s="6"/>
       <c r="I97" s="4" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -6489,19 +6499,29 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="E98" s="6"/>
+        <v>502</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="F98"/>
       <c r="G98" s="21"/>
       <c r="H98" s="6"/>
-      <c r="I98" s="4"/>
+      <c r="I98" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -6509,33 +6529,19 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>499</v>
+        <v>626</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F99" t="s">
-        <v>937</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>962</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99"/>
+      <c r="G99" s="21"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="4" t="s">
-        <v>509</v>
-      </c>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -6543,85 +6549,89 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F100"/>
-      <c r="G100" s="21"/>
+        <v>500</v>
+      </c>
+      <c r="F100" t="s">
+        <v>937</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>962</v>
+      </c>
       <c r="H100" s="6"/>
-      <c r="I100" s="4"/>
+      <c r="I100" s="4" t="s">
+        <v>509</v>
+      </c>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="21"/>
       <c r="H101" s="6"/>
-      <c r="I101" s="4" t="s">
-        <v>510</v>
-      </c>
+      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="4" t="s">
-        <v>638</v>
-      </c>
+      <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="21"/>
       <c r="H102" s="6"/>
       <c r="I102" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -6629,29 +6639,29 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="21"/>
       <c r="H103" s="6"/>
       <c r="I103" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -6659,81 +6669,79 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E104" s="6"/>
+        <v>479</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>481</v>
+      </c>
       <c r="F104"/>
       <c r="G104" s="21"/>
       <c r="H104" s="6"/>
       <c r="I104" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
+      <c r="K104" s="4" t="s">
+        <v>634</v>
+      </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E105" s="6"/>
       <c r="F105"/>
       <c r="G105" s="21"/>
       <c r="H105" s="6"/>
-      <c r="I105" s="2" t="s">
-        <v>515</v>
+      <c r="I105" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="J105" s="4"/>
-      <c r="K105" s="4" t="s">
-        <v>629</v>
-      </c>
+      <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>793</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F106" t="s">
-        <v>938</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="F106"/>
       <c r="G106" s="21"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="4" t="s">
-        <v>516</v>
+      <c r="I106" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -6741,1102 +6749,1117 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F107"/>
+        <v>470</v>
+      </c>
+      <c r="F107" t="s">
+        <v>938</v>
+      </c>
       <c r="G107" s="21"/>
       <c r="H107" s="6"/>
       <c r="I107" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>4</v>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="F108"/>
-      <c r="G108" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="G108" s="21"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
     </row>
     <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H109" s="15"/>
+      <c r="I109" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="110" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F110"/>
-      <c r="G110" s="23"/>
+      <c r="G110" s="20" t="s">
+        <v>964</v>
+      </c>
       <c r="H110" s="15"/>
-      <c r="K110" s="1" t="s">
-        <v>587</v>
-      </c>
     </row>
     <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E111" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="23"/>
       <c r="H111" s="15"/>
-      <c r="I111" s="1" t="s">
-        <v>520</v>
+      <c r="K111" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112" t="s">
-        <v>939</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F112"/>
       <c r="G112" s="23"/>
       <c r="H112" s="15"/>
-      <c r="K112" s="1" t="s">
-        <v>588</v>
+      <c r="I112" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G113" s="23"/>
       <c r="H113" s="15"/>
       <c r="K113" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>32</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F114" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="15"/>
+      <c r="K114" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="15"/>
-      <c r="K115" s="2" t="s">
-        <v>577</v>
-      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116"/>
+        <v>37</v>
+      </c>
+      <c r="F116" t="s">
+        <v>942</v>
+      </c>
       <c r="G116" s="23"/>
       <c r="H116" s="15"/>
-      <c r="I116" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="K116" s="2" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="23"/>
       <c r="H117" s="15"/>
       <c r="I117" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="23"/>
       <c r="H118" s="15"/>
       <c r="I118" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>466</v>
+        <v>49</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F119"/>
-      <c r="G119" s="20" t="s">
-        <v>965</v>
-      </c>
+      <c r="G119" s="23"/>
       <c r="H119" s="15"/>
       <c r="I119" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F120"/>
-      <c r="G120" s="23"/>
+      <c r="G120" s="20" t="s">
+        <v>965</v>
+      </c>
       <c r="H120" s="15"/>
       <c r="I120" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F121"/>
       <c r="G121" s="23"/>
       <c r="H121" s="15"/>
       <c r="I121" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>71</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="23"/>
       <c r="H122" s="15"/>
+      <c r="I122" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="123" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F123" t="s">
-        <v>943</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F123"/>
       <c r="G123" s="23"/>
       <c r="H123" s="15"/>
-      <c r="K123" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F124"/>
+        <v>76</v>
+      </c>
+      <c r="F124" t="s">
+        <v>943</v>
+      </c>
       <c r="G124" s="23"/>
       <c r="H124" s="15"/>
-      <c r="I124" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>623</v>
+      <c r="K124" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F125" t="s">
-        <v>944</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F125"/>
       <c r="G125" s="23"/>
       <c r="H125" s="15"/>
+      <c r="I125" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F126"/>
+        <v>86</v>
+      </c>
+      <c r="F126" t="s">
+        <v>944</v>
+      </c>
       <c r="G126" s="23"/>
       <c r="H126" s="15"/>
-      <c r="I126" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F127"/>
       <c r="G127" s="23"/>
       <c r="H127" s="15"/>
+      <c r="I127" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="K127" s="1" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="23"/>
       <c r="H128" s="15"/>
-      <c r="I128" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="K128" s="1" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D129" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E129" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="23"/>
       <c r="H129" s="15"/>
       <c r="I129" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D130" s="2"/>
       <c r="E130" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F130" t="s">
-        <v>945</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F130"/>
       <c r="G130" s="23"/>
       <c r="H130" s="15"/>
-      <c r="K130" s="1" t="s">
-        <v>586</v>
+      <c r="I130" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F131"/>
+        <v>110</v>
+      </c>
+      <c r="F131" t="s">
+        <v>945</v>
+      </c>
       <c r="G131" s="23"/>
       <c r="H131" s="15"/>
-      <c r="I131" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="K131" s="1" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F132"/>
       <c r="G132" s="23"/>
       <c r="H132" s="15"/>
       <c r="I132" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F133"/>
       <c r="G133" s="23"/>
       <c r="H133" s="15"/>
+      <c r="I133" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="K133" s="1" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F134"/>
       <c r="G134" s="23"/>
       <c r="H134" s="15"/>
-      <c r="I134" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="K134" s="1" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F135"/>
-      <c r="G135" s="20" t="s">
-        <v>966</v>
-      </c>
+      <c r="G135" s="23"/>
       <c r="H135" s="15"/>
       <c r="I135" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F136"/>
+      <c r="G136" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="K136" s="1" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="17"/>
-      <c r="E136" s="15"/>
-      <c r="F136"/>
-      <c r="G136" s="23"/>
-      <c r="H136" s="15"/>
-      <c r="K136" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E137" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F137" t="s">
-        <v>946</v>
-      </c>
-      <c r="G137" s="24"/>
-      <c r="H137" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="C137" s="17"/>
+      <c r="E137" s="15"/>
+      <c r="F137"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="15"/>
       <c r="K137" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C138" s="17"/>
-      <c r="F138"/>
-      <c r="G138" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138" t="s">
+        <v>946</v>
+      </c>
+      <c r="G138" s="24"/>
+      <c r="H138" s="18"/>
+      <c r="K138" s="2" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C139" s="17"/>
       <c r="F139"/>
-      <c r="G139" s="20" t="s">
-        <v>967</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="G139" s="25"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F140"/>
       <c r="G140" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H140" s="15"/>
       <c r="I140" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F141" t="s">
-        <v>947</v>
-      </c>
-      <c r="G141" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="F141"/>
+      <c r="G141" s="20" t="s">
+        <v>968</v>
+      </c>
       <c r="H141" s="15"/>
+      <c r="I141" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="K141" s="2" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F142"/>
-      <c r="G142" s="20" t="s">
-        <v>969</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F142" t="s">
+        <v>947</v>
+      </c>
+      <c r="G142" s="23"/>
       <c r="H142" s="15"/>
-      <c r="I142" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="K142" s="2" t="s">
-        <v>630</v>
+        <v>582</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F143" t="s">
-        <v>948</v>
-      </c>
-      <c r="G143" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143" s="20" t="s">
+        <v>969</v>
+      </c>
       <c r="H143" s="15"/>
+      <c r="I143" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E144" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="F144" t="s">
-        <v>949</v>
-      </c>
-      <c r="G144" s="24"/>
-      <c r="H144" s="18"/>
-      <c r="K144" s="2" t="s">
-        <v>585</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="G144" s="23"/>
+      <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C145" s="17"/>
-      <c r="F145"/>
-      <c r="G145" s="25"/>
+        <v>169</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F145" t="s">
+        <v>949</v>
+      </c>
+      <c r="G145" s="24"/>
+      <c r="H145" s="18"/>
+      <c r="K145" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E146" s="15" t="s">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C146" s="17"/>
       <c r="F146"/>
-      <c r="G146" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="G146" s="25"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F147"/>
-      <c r="G147" s="23"/>
+      <c r="G147" s="20" t="s">
+        <v>970</v>
+      </c>
       <c r="H147" s="15"/>
+      <c r="I147" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F148" t="s">
-        <v>950</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F148"/>
       <c r="G148" s="23"/>
       <c r="H148" s="15"/>
-      <c r="K148" s="2" t="s">
-        <v>589</v>
-      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F149" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G149" s="23"/>
       <c r="H149" s="15"/>
+      <c r="K149" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F150"/>
+        <v>192</v>
+      </c>
+      <c r="F150" t="s">
+        <v>951</v>
+      </c>
       <c r="G150" s="23"/>
       <c r="H150" s="15"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F151"/>
-      <c r="G151" s="20" t="s">
-        <v>971</v>
-      </c>
+      <c r="G151" s="23"/>
       <c r="H151" s="15"/>
-      <c r="I151" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>611</v>
-      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F152"/>
-      <c r="G152" s="23"/>
+      <c r="G152" s="20" t="s">
+        <v>971</v>
+      </c>
       <c r="H152" s="15"/>
+      <c r="I152" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F153"/>
       <c r="G153" s="23"/>
@@ -7844,16 +7867,16 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F154"/>
       <c r="G154" s="23"/>
@@ -7861,27 +7884,31 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E155" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="F155"/>
       <c r="G155" s="23"/>
       <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C156" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="E156" s="15"/>
       <c r="F156"/>
       <c r="G156" s="23"/>
@@ -7889,800 +7916,796 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>473</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C157" s="17"/>
+      <c r="E157" s="15"/>
       <c r="F157"/>
       <c r="G157" s="23"/>
       <c r="H157" s="15"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>671</v>
+        <v>222</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F158" t="s">
-        <v>952</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="F158"/>
       <c r="G158" s="23"/>
       <c r="H158" s="15"/>
-      <c r="K158" s="2" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E159" s="13"/>
-      <c r="F159"/>
-      <c r="G159" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="H159" s="13"/>
+        <v>671</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F159" t="s">
+        <v>952</v>
+      </c>
+      <c r="G159" s="23"/>
+      <c r="H159" s="15"/>
+      <c r="K159" s="2" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E160" s="18" t="s">
-        <v>235</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E160" s="13"/>
       <c r="F160"/>
       <c r="G160" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="H160" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>610</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="H160" s="13"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F161"/>
-      <c r="G161" s="25"/>
+      <c r="G161" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="H161" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E162" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F162"/>
-      <c r="G162" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="H162" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>618</v>
-      </c>
+      <c r="G162" s="25"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="F163"/>
       <c r="G163" s="20" t="s">
-        <v>975</v>
-      </c>
-      <c r="H163" s="15" t="s">
-        <v>729</v>
+        <v>974</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>730</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>249</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C164" s="14"/>
       <c r="D164" s="14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F164"/>
       <c r="G164" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="H164" s="13" t="s">
-        <v>731</v>
+        <v>975</v>
+      </c>
+      <c r="H164" s="15" t="s">
+        <v>729</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F165"/>
       <c r="G165" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="H165" s="15" t="s">
-        <v>693</v>
+        <v>976</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K165" s="19" t="s">
-        <v>607</v>
+        <v>542</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E166" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F166"/>
-      <c r="G166" s="24"/>
-      <c r="H166" s="18"/>
+      <c r="G166" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="H166" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K166" s="19" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F167"/>
-      <c r="G167" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="H167" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>606</v>
-      </c>
+      <c r="G167" s="24"/>
+      <c r="H167" s="18"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F168"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="15"/>
+      <c r="G168" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="H168" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="F169"/>
-      <c r="G169" s="25"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="15"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="20" t="s">
-        <v>804</v>
+        <v>270</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="F170"/>
       <c r="G170" s="25"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="E171" s="15" t="s">
-        <v>276</v>
+        <v>805</v>
+      </c>
+      <c r="B171" s="13"/>
+      <c r="C171" s="20" t="s">
+        <v>804</v>
       </c>
       <c r="F171"/>
-      <c r="G171" s="23"/>
-      <c r="H171" s="15"/>
+      <c r="G171" s="25"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="F172"/>
-      <c r="G172" s="25"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="15"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F173"/>
       <c r="G173" s="25"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F174" t="s">
-        <v>953</v>
-      </c>
-      <c r="K174" s="2" t="s">
-        <v>575</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="F174"/>
+      <c r="G174" s="25"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F175"/>
+        <v>285</v>
+      </c>
+      <c r="F175" t="s">
+        <v>953</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="F176" t="s">
-        <v>954</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F176"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D177" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E177" s="18" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F177" t="s">
-        <v>955</v>
-      </c>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-      <c r="K177" s="2" t="s">
-        <v>578</v>
+        <v>954</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F178"/>
+        <v>294</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F178" t="s">
+        <v>955</v>
+      </c>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="K178" s="2" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F179"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F180"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F181" t="s">
-        <v>956</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F181"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F182"/>
+        <v>308</v>
+      </c>
+      <c r="F182" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F183"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F184"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F185" t="s">
-        <v>957</v>
-      </c>
-      <c r="K185" s="2" t="s">
-        <v>572</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F185"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E186" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F186" t="s">
-        <v>958</v>
-      </c>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
+        <v>957</v>
+      </c>
       <c r="K186" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F187"/>
+        <v>323</v>
+      </c>
+      <c r="E187" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F187" t="s">
+        <v>958</v>
+      </c>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="K187" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="E188" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="F188" t="s">
-        <v>959</v>
-      </c>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
+        <v>327</v>
+      </c>
+      <c r="F188"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F189"/>
+        <v>330</v>
+      </c>
+      <c r="E189" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F189" t="s">
+        <v>959</v>
+      </c>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F190"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F191"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="E192" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F192"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="18"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="D193" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E193" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="F193"/>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F194"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F195"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F196"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F197"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F198"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F199"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F200"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F201"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F202"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C203" s="17"/>
+        <v>374</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="F203"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="E204" s="15" t="s">
-        <v>381</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C204" s="17"/>
       <c r="F204"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="15"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E205" s="15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F205"/>
       <c r="G205" s="15"/>
@@ -8690,774 +8713,791 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
+      </c>
+      <c r="E206" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="F206"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F207"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E208" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F208"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="E209" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="F209"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F210"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E211" s="15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F211"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="E212" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="F212"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>408</v>
       </c>
       <c r="F213"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C214" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="F214"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F215"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F216"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F217"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F218"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F219"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F220"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F221"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F222"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="E223" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="F223" t="s">
-        <v>960</v>
-      </c>
-      <c r="G223" s="15"/>
-      <c r="H223" s="15"/>
-      <c r="K223" s="2" t="s">
-        <v>584</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="F223"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>445</v>
+        <v>440</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E224" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F224" t="s">
+        <v>960</v>
+      </c>
+      <c r="G224" s="15"/>
+      <c r="H224" s="15"/>
+      <c r="K224" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B227" s="13" t="s">
+      <c r="B228" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C227" s="16" t="s">
+      <c r="C228" s="16" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C228" s="16" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C229" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C230" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C231" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C232" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C233" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="16" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C109" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C108" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C110" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C111" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C112" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C113" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C114" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C115" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C116" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C117" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C118" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C120" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C121" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C122" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C123" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C124" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C125" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C126" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C127" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C128" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C129" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C130" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C131" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C132" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C133" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C134" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C135" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C137" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C139" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C140" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C141" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C142" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C143" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C144" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C146" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C147" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C148" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C149" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C150" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C151" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C152" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C153" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C154" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C155" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C157" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C158" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C159" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C160" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C161" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C162" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C164" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C165" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C166" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C167" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C168" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C169" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C171" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C172" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C173" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C174" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C175" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C176" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C177" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C178" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C179" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C180" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C181" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C182" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C183" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C184" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C185" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C186" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C187" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C188" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C189" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C190" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C191" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C192" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C193" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C194" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C195" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C196" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C197" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C198" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C199" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C200" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C201" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C202" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C204" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C205" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C206" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C207" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C208" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C209" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C210" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C211" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C212" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C214" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C215" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C216" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C217" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C218" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C219" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C220" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C221" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C222" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C223" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C119" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C224" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C213" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C225" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C226" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C227" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C228" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C229" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C230" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C231" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C232" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C233" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D108" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D109" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D110" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D112" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D113" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D115" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D116" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D117" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D123" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D122" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D151" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D118" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D119" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D120" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D121" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D124" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D125" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D126" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D127" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D128" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D130" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D131" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D132" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D133" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D134" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D135" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D137" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D140" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D141" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D142" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D144" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D146" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D148" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D150" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D157" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D158" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D160" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D167" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D177" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E108" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E109" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E110" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E111" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E112" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E113" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E115" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E116" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E117" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E118" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E120" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E121" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E122" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E124" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E125" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E126" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E127" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E128" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E129" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E130" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E131" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E132" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E133" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E134" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E135" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E136" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E139" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E140" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E141" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E142" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E146" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E147" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E148" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E149" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E150" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E156" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E157" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E159" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E163" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E168" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E171" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E186" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E188" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E204" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E205" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E211" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E223" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D192" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E123" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E152" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E153" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E164" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E165" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E154" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E155" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E119" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E143" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E167" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E158" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E114" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E137" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E144" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E151" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E160" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E162" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E166" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E177" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E192" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B114" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B115" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B116" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B117" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B118" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B119" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B120" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B121" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B122" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B123" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B124" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B125" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B126" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B127" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B128" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B129" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B130" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B131" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B132" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B133" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B134" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B135" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B136" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B137" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B138" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B140" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B141" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B142" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B143" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B144" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B145" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B147" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B148" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B149" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B150" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B151" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B152" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B153" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B154" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B155" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B156" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B157" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B158" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B159" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B108" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B109" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B110" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B111" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B112" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B113" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B227" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B226" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B225" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B224" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B223" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B222" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B221" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B220" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B219" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B218" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B217" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B216" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B215" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B214" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B213" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B212" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B211" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B210" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B209" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B208" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B207" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B206" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B205" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B204" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B203" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B202" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B201" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B200" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B199" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B198" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B197" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B196" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B195" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B194" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B193" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B192" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B191" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B190" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B189" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B188" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B187" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B186" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B185" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B184" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B183" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B182" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B181" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B180" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B179" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B178" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B177" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B176" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B175" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B174" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B173" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B172" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B171" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B169" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B168" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B167" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B166" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B165" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B164" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B163" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B162" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B161" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B160" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E89" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
-    <hyperlink ref="E84" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
-    <hyperlink ref="B85" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
-    <hyperlink ref="B97" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
-    <hyperlink ref="B84" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
-    <hyperlink ref="B83" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
-    <hyperlink ref="E81" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
-    <hyperlink ref="B82" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
-    <hyperlink ref="H164" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
-    <hyperlink ref="B81" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
-    <hyperlink ref="C72" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
-    <hyperlink ref="B70" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
-    <hyperlink ref="E70" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
-    <hyperlink ref="D70" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
-    <hyperlink ref="D71" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
-    <hyperlink ref="B69" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
-    <hyperlink ref="E69" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
-    <hyperlink ref="D69" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
-    <hyperlink ref="E68" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
-    <hyperlink ref="D68" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
-    <hyperlink ref="B88" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
-    <hyperlink ref="B67" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
-    <hyperlink ref="E67" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
-    <hyperlink ref="D67" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
-    <hyperlink ref="B66" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
-    <hyperlink ref="E66" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
-    <hyperlink ref="D66" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
-    <hyperlink ref="E65" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
-    <hyperlink ref="D65" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
-    <hyperlink ref="D64" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
-    <hyperlink ref="E64" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
-    <hyperlink ref="B63" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
-    <hyperlink ref="E63" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
-    <hyperlink ref="D63" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
-    <hyperlink ref="B105" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
-    <hyperlink ref="B62" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
-    <hyperlink ref="D62" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
-    <hyperlink ref="E62" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
-    <hyperlink ref="E61" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
-    <hyperlink ref="C61" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
-    <hyperlink ref="D61" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
-    <hyperlink ref="C170" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
-    <hyperlink ref="C60" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
-    <hyperlink ref="B58" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
-    <hyperlink ref="E58" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
-    <hyperlink ref="E57" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
-    <hyperlink ref="D57" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
-    <hyperlink ref="D58" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
-    <hyperlink ref="B56" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
-    <hyperlink ref="E54" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
-    <hyperlink ref="B54" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
-    <hyperlink ref="D54" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
-    <hyperlink ref="B53" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
-    <hyperlink ref="E53" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
-    <hyperlink ref="E52" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
-    <hyperlink ref="E51" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
-    <hyperlink ref="D51" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
-    <hyperlink ref="D52" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
-    <hyperlink ref="B49" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
-    <hyperlink ref="E49" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
-    <hyperlink ref="E48" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
-    <hyperlink ref="D48" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
-    <hyperlink ref="D47" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
-    <hyperlink ref="B65" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
-    <hyperlink ref="E45" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
-    <hyperlink ref="D45" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
-    <hyperlink ref="D42" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
-    <hyperlink ref="B42" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
-    <hyperlink ref="B44" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
-    <hyperlink ref="B78" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
-    <hyperlink ref="E40" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
-    <hyperlink ref="E36" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
-    <hyperlink ref="D36" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
-    <hyperlink ref="G37" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
-    <hyperlink ref="G38" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
-    <hyperlink ref="G70" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
-    <hyperlink ref="G99" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
-    <hyperlink ref="G108" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
-    <hyperlink ref="G109" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
-    <hyperlink ref="G119" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
-    <hyperlink ref="G135" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
-    <hyperlink ref="G140" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
-    <hyperlink ref="G139" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
-    <hyperlink ref="G142" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
-    <hyperlink ref="G146" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
-    <hyperlink ref="G151" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
-    <hyperlink ref="G159" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
-    <hyperlink ref="G160" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
-    <hyperlink ref="G162" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
-    <hyperlink ref="G163" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
-    <hyperlink ref="G164" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
-    <hyperlink ref="G165" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
-    <hyperlink ref="G167" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
-    <hyperlink ref="E35" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
-    <hyperlink ref="F35" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
-    <hyperlink ref="D35" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
-    <hyperlink ref="D32" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
-    <hyperlink ref="E30" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
-    <hyperlink ref="C83" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
-    <hyperlink ref="D25" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
-    <hyperlink ref="C25" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
-    <hyperlink ref="D24" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
-    <hyperlink ref="E24" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
-    <hyperlink ref="E23" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
-    <hyperlink ref="F23" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
-    <hyperlink ref="F20" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
-    <hyperlink ref="D31" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
-    <hyperlink ref="G31" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
-    <hyperlink ref="G30" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
-    <hyperlink ref="C6" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
+    <hyperlink ref="C110" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C109" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C111" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C112" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C113" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C114" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C115" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C116" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C117" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C118" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C119" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C121" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C122" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C123" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C124" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C125" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C126" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C127" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C128" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C129" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C130" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C131" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C132" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C133" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C134" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C135" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C136" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C138" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C140" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C141" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C142" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C143" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C144" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C145" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C147" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C148" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C149" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C150" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C151" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C152" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C153" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C154" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C155" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C156" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C158" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C159" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C160" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C161" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C162" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C163" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C165" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C166" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C167" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C168" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C169" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C170" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C172" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C173" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C174" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C175" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C176" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C177" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C178" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C179" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C180" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C181" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C182" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C183" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C184" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C185" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C186" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C187" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C188" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C189" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C190" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C191" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C192" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C193" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C194" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C195" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C196" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C197" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C198" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C199" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C200" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C201" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C202" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C203" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C205" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C206" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C207" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C208" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C209" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C210" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C211" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C212" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C213" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C215" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C216" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C217" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C218" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C219" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C220" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C221" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C222" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C223" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C224" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C120" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C225" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C214" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C226" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C227" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C228" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C229" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C230" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C231" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C232" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C233" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C234" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D109" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D110" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D111" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D113" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D114" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D116" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D117" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D118" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D124" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D123" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D152" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D119" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D120" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D121" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D122" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D125" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D126" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D127" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D128" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D129" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D131" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D132" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D133" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D134" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D135" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D136" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D138" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D141" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D142" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D143" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D145" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D147" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D149" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D151" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D158" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D159" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D161" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D164" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D165" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D166" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D168" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E109" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E110" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E111" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E112" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E113" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E114" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E116" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E117" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E118" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E119" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E121" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E122" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E123" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E125" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E126" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E127" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E128" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E129" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E130" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E131" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E132" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E133" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E134" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E135" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E136" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E137" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E140" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E141" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E142" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E143" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E147" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E148" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E149" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E150" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E151" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E157" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E158" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E160" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E164" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E169" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E172" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E187" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E189" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E205" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E206" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E209" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E212" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E224" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D193" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E124" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E153" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E154" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E165" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E166" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E155" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E156" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E120" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E144" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E168" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E159" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E115" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E138" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E145" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E152" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E161" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E163" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E167" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E178" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E193" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B115" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B116" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B117" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B118" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B119" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B120" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B121" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B122" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B123" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B124" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B125" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B126" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B127" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B128" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B129" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B130" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B131" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B132" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B133" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B134" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B135" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B136" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B137" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B138" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B139" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B141" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B142" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B143" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B144" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B145" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B146" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B148" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B149" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B150" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B151" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B152" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B153" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B154" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B155" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B156" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B157" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B158" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B159" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B160" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B109" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B110" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B111" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B112" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B113" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B114" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B228" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B227" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B226" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B225" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B224" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B223" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B222" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B221" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B220" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B219" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B218" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B217" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B216" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B215" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B214" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B213" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B212" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B211" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B210" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B209" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B208" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B207" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B206" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B205" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B204" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B203" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B202" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B201" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B200" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B199" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B198" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B197" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B196" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B195" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B194" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B193" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B192" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B191" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B190" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B189" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B188" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B187" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B186" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B185" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B184" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B183" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B182" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B181" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B180" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B179" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B178" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B177" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B176" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B175" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B174" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B173" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B172" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B170" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B169" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B168" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B167" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B166" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B165" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B164" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B163" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B162" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B161" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E90" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
+    <hyperlink ref="E85" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
+    <hyperlink ref="B86" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
+    <hyperlink ref="B98" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
+    <hyperlink ref="B85" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
+    <hyperlink ref="B84" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
+    <hyperlink ref="E82" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
+    <hyperlink ref="B83" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
+    <hyperlink ref="H165" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
+    <hyperlink ref="B82" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
+    <hyperlink ref="C73" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
+    <hyperlink ref="B71" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
+    <hyperlink ref="E71" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
+    <hyperlink ref="D71" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
+    <hyperlink ref="D72" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
+    <hyperlink ref="B70" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
+    <hyperlink ref="E70" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
+    <hyperlink ref="D70" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
+    <hyperlink ref="E69" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
+    <hyperlink ref="D69" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
+    <hyperlink ref="B89" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
+    <hyperlink ref="B68" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
+    <hyperlink ref="E68" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
+    <hyperlink ref="D68" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
+    <hyperlink ref="B67" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
+    <hyperlink ref="E67" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
+    <hyperlink ref="D67" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
+    <hyperlink ref="E66" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
+    <hyperlink ref="D66" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
+    <hyperlink ref="D65" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
+    <hyperlink ref="E65" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
+    <hyperlink ref="B64" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
+    <hyperlink ref="E64" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
+    <hyperlink ref="D64" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
+    <hyperlink ref="B106" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
+    <hyperlink ref="B63" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
+    <hyperlink ref="D63" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
+    <hyperlink ref="E63" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
+    <hyperlink ref="E62" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
+    <hyperlink ref="C62" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
+    <hyperlink ref="D62" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
+    <hyperlink ref="C171" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
+    <hyperlink ref="C61" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
+    <hyperlink ref="B59" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
+    <hyperlink ref="E59" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
+    <hyperlink ref="E58" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
+    <hyperlink ref="D58" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
+    <hyperlink ref="D59" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
+    <hyperlink ref="B57" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
+    <hyperlink ref="E55" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
+    <hyperlink ref="B55" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
+    <hyperlink ref="D55" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
+    <hyperlink ref="B54" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
+    <hyperlink ref="E54" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
+    <hyperlink ref="E53" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
+    <hyperlink ref="E52" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
+    <hyperlink ref="D52" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
+    <hyperlink ref="D53" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
+    <hyperlink ref="B50" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
+    <hyperlink ref="E50" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
+    <hyperlink ref="E49" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
+    <hyperlink ref="D49" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
+    <hyperlink ref="D48" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
+    <hyperlink ref="B66" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
+    <hyperlink ref="E46" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
+    <hyperlink ref="D46" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
+    <hyperlink ref="D43" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
+    <hyperlink ref="B43" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
+    <hyperlink ref="B45" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
+    <hyperlink ref="B79" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
+    <hyperlink ref="E41" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
+    <hyperlink ref="E37" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
+    <hyperlink ref="D37" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
+    <hyperlink ref="G38" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
+    <hyperlink ref="G39" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
+    <hyperlink ref="G71" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
+    <hyperlink ref="G100" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
+    <hyperlink ref="G109" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
+    <hyperlink ref="G110" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
+    <hyperlink ref="G120" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
+    <hyperlink ref="G136" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
+    <hyperlink ref="G141" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
+    <hyperlink ref="G140" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
+    <hyperlink ref="G143" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
+    <hyperlink ref="G147" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
+    <hyperlink ref="G152" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
+    <hyperlink ref="G160" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
+    <hyperlink ref="G161" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
+    <hyperlink ref="G163" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
+    <hyperlink ref="G164" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
+    <hyperlink ref="G165" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
+    <hyperlink ref="G166" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
+    <hyperlink ref="G168" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
+    <hyperlink ref="E36" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
+    <hyperlink ref="F36" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
+    <hyperlink ref="D36" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
+    <hyperlink ref="D33" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
+    <hyperlink ref="E31" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
+    <hyperlink ref="C84" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
+    <hyperlink ref="D26" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
+    <hyperlink ref="C26" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
+    <hyperlink ref="D25" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
+    <hyperlink ref="E25" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
+    <hyperlink ref="E24" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
+    <hyperlink ref="F24" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
+    <hyperlink ref="F21" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
+    <hyperlink ref="D32" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
+    <hyperlink ref="G32" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
+    <hyperlink ref="G31" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
+    <hyperlink ref="C7" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/articlelinks.xlsx
+++ b/articlelinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Dropbox/markdown_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5B29A-6B9C-B74F-8439-46393DD7D90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5782F5-FC6E-F24E-99CA-9F90162196C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="1148">
   <si>
     <t>文科生如何理解卷积神经网络？</t>
   </si>
@@ -3513,6 +3513,12 @@
   </si>
   <si>
     <t>https://mp.weixin.qq.com/s/qAzC6f-4I1wL84O1Cilzgg</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Uy6jMzy7h5XH1-UUxp90Bg</t>
+  </si>
+  <si>
+    <t>如何训练和解释你的图片分类深度卷积模型？</t>
   </si>
 </sst>
 </file>
@@ -4005,10 +4011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N234"/>
+  <dimension ref="A1:N235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4060,20 +4066,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1143</v>
-      </c>
+        <v>1146</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="4"/>
@@ -4085,19 +4084,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4110,13 +4109,20 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1140</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="4"/>
@@ -4128,20 +4134,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1130</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="4"/>
@@ -4153,16 +4152,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1127</v>
+        <v>1131</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1126</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -4175,19 +4177,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1122</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -4200,16 +4199,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1115</v>
+        <v>1119</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1120</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4222,16 +4224,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -4244,16 +4246,18 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>1109</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4264,14 +4268,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>1109</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -4282,10 +4288,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -4300,20 +4306,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1093</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
@@ -4325,16 +4324,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1088</v>
+        <v>1096</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -4347,13 +4349,17 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+        <v>1088</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1090</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
@@ -4365,20 +4371,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>1087</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="4"/>
@@ -4390,13 +4389,20 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+        <v>1084</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1087</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="4"/>
@@ -4408,17 +4414,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>1042</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="4"/>
@@ -4430,19 +4432,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4455,16 +4454,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4477,19 +4479,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>1027</v>
+        <v>1036</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4502,16 +4501,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4524,13 +4526,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1048</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4543,16 +4548,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>1022</v>
+        <v>1031</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1032</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -4565,16 +4567,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>1018</v>
+        <v>1021</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1049</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>1020</v>
+        <v>1022</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -4587,19 +4589,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>1014</v>
+        <v>1018</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>1019</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4612,19 +4611,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>1006</v>
+        <v>1012</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>1013</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -4637,13 +4636,20 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+        <v>1050</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>1010</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
@@ -4655,20 +4661,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>1011</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="4"/>
@@ -4680,23 +4679,21 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>1108</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -4707,22 +4704,22 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>992</v>
+        <v>994</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>997</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>1107</v>
+        <v>1000</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>1108</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="4"/>
@@ -4734,22 +4731,22 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>998</v>
+        <v>1054</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>992</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>1106</v>
+        <v>1001</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>1107</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="4"/>
@@ -4761,22 +4758,22 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>989</v>
+        <v>1055</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>996</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>1105</v>
+        <v>1002</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>1106</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="4"/>
@@ -4788,14 +4785,23 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+        <v>986</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>1105</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -4806,14 +4812,12 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>999</v>
-      </c>
+        <v>1057</v>
+      </c>
+      <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -4826,20 +4830,15 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>981</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="4"/>
@@ -4851,19 +4850,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>1059</v>
+        <v>979</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>983</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>896</v>
+        <v>982</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>897</v>
+        <v>980</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>981</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -4876,23 +4875,21 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>892</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -4903,22 +4900,22 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C39" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>1060</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
@@ -4930,16 +4927,23 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E40" s="6"/>
+        <v>1060</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>888</v>
+      </c>
       <c r="F40" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="G40" s="21"/>
+        <v>890</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>893</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -4950,21 +4954,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F41" t="s">
-        <v>898</v>
-      </c>
-      <c r="G41" s="20"/>
+        <v>1061</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="G41" s="21"/>
       <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -4975,18 +4974,21 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>875</v>
+        <v>1062</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="F42" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G42" s="21"/>
+        <v>898</v>
+      </c>
+      <c r="G42" s="20"/>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -4997,22 +4999,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>871</v>
+        <v>1063</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="F43" t="s">
-        <v>899</v>
+        <v>1129</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="6"/>
@@ -5025,15 +5021,23 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B44" s="20"/>
+        <v>867</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>873</v>
+      </c>
       <c r="C44" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="6"/>
-      <c r="F44"/>
+        <v>1064</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="F44" t="s">
+        <v>899</v>
+      </c>
       <c r="G44" s="21"/>
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
@@ -5045,23 +5049,15 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>874</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F45" t="s">
-        <v>900</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="6"/>
+      <c r="F45"/>
       <c r="G45" s="21"/>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
@@ -5073,24 +5069,24 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>865</v>
+        <v>868</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>874</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>860</v>
+        <v>1067</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>869</v>
       </c>
       <c r="F46" t="s">
-        <v>901</v>
-      </c>
-      <c r="G46" s="20"/>
+        <v>900</v>
+      </c>
+      <c r="G46" s="21"/>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -5101,24 +5097,24 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>862</v>
+        <v>1068</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F47" t="s">
-        <v>902</v>
-      </c>
-      <c r="G47" s="21"/>
+        <v>901</v>
+      </c>
+      <c r="G47" s="20"/>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -5129,22 +5125,22 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>855</v>
+        <v>1069</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F48" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="6"/>
@@ -5157,29 +5153,27 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>850</v>
+        <v>855</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="F49" t="s">
-        <v>904</v>
-      </c>
-      <c r="G49" s="20"/>
+        <v>903</v>
+      </c>
+      <c r="G49" s="21"/>
       <c r="H49" s="6"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -5187,24 +5181,29 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>845</v>
+        <v>849</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>851</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F50" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -5212,21 +5211,21 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>845</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>848</v>
+        <v>1072</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>847</v>
       </c>
       <c r="F51" t="s">
-        <v>906</v>
-      </c>
-      <c r="G51" s="21"/>
+        <v>905</v>
+      </c>
+      <c r="G51" s="20"/>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -5237,24 +5236,21 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>840</v>
+        <v>1073</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>848</v>
       </c>
       <c r="F52" t="s">
-        <v>907</v>
-      </c>
-      <c r="G52" s="20"/>
+        <v>906</v>
+      </c>
+      <c r="G52" s="21"/>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -5265,21 +5261,23 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F53"/>
+        <v>840</v>
+      </c>
+      <c r="F53" t="s">
+        <v>907</v>
+      </c>
       <c r="G53" s="20"/>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
@@ -5291,16 +5289,19 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>834</v>
+        <v>837</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>842</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F54"/>
       <c r="G54" s="20"/>
@@ -5314,23 +5315,18 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>828</v>
+        <v>1076</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="F55" t="s">
-        <v>908</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="F55"/>
       <c r="G55" s="20"/>
       <c r="H55" s="6"/>
       <c r="I55" s="4"/>
@@ -5342,22 +5338,22 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F56" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="6"/>
@@ -5370,24 +5366,24 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>822</v>
+        <v>1078</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>831</v>
       </c>
       <c r="F57" t="s">
-        <v>910</v>
-      </c>
-      <c r="G57" s="21"/>
+        <v>909</v>
+      </c>
+      <c r="G57" s="20"/>
       <c r="H57" s="6"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -5398,24 +5394,24 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>814</v>
+        <v>821</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>820</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>815</v>
+        <v>824</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="F58" t="s">
-        <v>911</v>
-      </c>
-      <c r="G58" s="20"/>
+        <v>910</v>
+      </c>
+      <c r="G58" s="21"/>
       <c r="H58" s="6"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -5426,22 +5422,22 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>808</v>
+        <v>816</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F59" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="6"/>
@@ -5454,14 +5450,23 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B60" s="20"/>
+        <v>819</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>808</v>
+      </c>
       <c r="C60" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E60" s="20"/>
-      <c r="F60"/>
+        <v>812</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="F60" t="s">
+        <v>912</v>
+      </c>
       <c r="G60" s="20"/>
       <c r="H60" s="6"/>
       <c r="I60" s="4"/>
@@ -5473,14 +5478,15 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="E61" s="6"/>
+        <v>811</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E61" s="20"/>
       <c r="F61"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="6"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -5491,24 +5497,14 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F62" t="s">
-        <v>913</v>
-      </c>
-      <c r="G62" s="20"/>
+        <v>807</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62"/>
+      <c r="G62" s="21"/>
       <c r="H62" s="6"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -5519,22 +5515,22 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>796</v>
+        <v>799</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F63" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="6"/>
@@ -5547,22 +5543,22 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="F64" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="6"/>
@@ -5575,22 +5571,22 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>789</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="F65" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="6"/>
@@ -5603,22 +5599,22 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>779</v>
+        <v>787</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F66" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="6"/>
@@ -5631,21 +5627,23 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F67"/>
+        <v>780</v>
+      </c>
+      <c r="F67" t="s">
+        <v>917</v>
+      </c>
       <c r="G67" s="20"/>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
@@ -5657,19 +5655,19 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F68"/>
       <c r="G68" s="20"/>
@@ -5683,23 +5681,21 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>764</v>
+        <v>768</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>769</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="F69" t="s">
-        <v>918</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F69"/>
       <c r="G69" s="20"/>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
@@ -5711,22 +5707,22 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>759</v>
+        <v>763</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F70" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="6"/>
@@ -5739,26 +5735,24 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="F71" t="s">
-        <v>920</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="G71" s="20"/>
       <c r="H71" s="6"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -5769,24 +5763,26 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>750</v>
+        <v>756</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F72" t="s">
-        <v>921</v>
-      </c>
-      <c r="G72" s="21"/>
+        <v>920</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>961</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -5797,22 +5793,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>743</v>
+        <v>748</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F73" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="6"/>
@@ -5825,22 +5821,22 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F74" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="6"/>
@@ -5853,22 +5849,22 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F75" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G75" s="21"/>
       <c r="H75" s="6"/>
@@ -5881,22 +5877,22 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F76" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="6"/>
@@ -5909,21 +5905,23 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F77"/>
+        <v>726</v>
+      </c>
+      <c r="F77" t="s">
+        <v>925</v>
+      </c>
       <c r="G77" s="21"/>
       <c r="H77" s="6"/>
       <c r="I77" s="4"/>
@@ -5935,23 +5933,21 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="F78" t="s">
-        <v>926</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="F78"/>
       <c r="G78" s="21"/>
       <c r="H78" s="6"/>
       <c r="I78" s="4"/>
@@ -5963,22 +5959,22 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>709</v>
+        <v>712</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F79" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="6"/>
@@ -5991,22 +5987,22 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="F80" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="6"/>
@@ -6019,21 +6015,23 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F81"/>
+        <v>706</v>
+      </c>
+      <c r="F81" t="s">
+        <v>928</v>
+      </c>
       <c r="G81" s="21"/>
       <c r="H81" s="6"/>
       <c r="I81" s="4"/>
@@ -6045,22 +6043,22 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>695</v>
+        <v>698</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>696</v>
+        <v>700</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="F82"/>
-      <c r="G82" s="22"/>
+      <c r="G82" s="21"/>
       <c r="H82" s="6"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6071,24 +6069,22 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="F83" t="s">
-        <v>929</v>
-      </c>
-      <c r="G83" s="21"/>
+        <v>697</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" s="22"/>
       <c r="H83" s="6"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -6099,28 +6095,26 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>684</v>
+        <v>686</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="F84" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -6129,26 +6123,28 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>676</v>
+        <v>681</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>673</v>
+        <v>682</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="F85" t="s">
-        <v>931</v>
-      </c>
-      <c r="G85" s="22"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="4"/>
+        <v>930</v>
+      </c>
+      <c r="G85" s="21"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -6157,25 +6153,25 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>669</v>
+        <v>674</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="F86" t="s">
-        <v>932</v>
-      </c>
-      <c r="G86" s="21"/>
-      <c r="H86" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G86" s="22"/>
+      <c r="H86" s="13"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -6185,22 +6181,22 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>659</v>
+        <v>668</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F87" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="6"/>
@@ -6213,81 +6209,81 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F88" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="6"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>648</v>
+        <v>653</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>654</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F89"/>
+        <v>655</v>
+      </c>
+      <c r="F89" t="s">
+        <v>934</v>
+      </c>
       <c r="G89" s="21"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
+      <c r="K89" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>603</v>
+        <v>647</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="F90" t="s">
-        <v>935</v>
-      </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="13"/>
+        <v>650</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="6"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -6297,47 +6293,47 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="F91"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="6"/>
+        <v>651</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="F91" t="s">
+        <v>935</v>
+      </c>
+      <c r="G91" s="22"/>
+      <c r="H91" s="13"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4" t="s">
-        <v>658</v>
-      </c>
+      <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F92"/>
       <c r="G92" s="21"/>
@@ -6345,7 +6341,7 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -6353,53 +6349,53 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="21"/>
       <c r="H93" s="6"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="21"/>
       <c r="H94" s="6"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -6407,61 +6403,59 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F95" t="s">
-        <v>936</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="F95"/>
       <c r="G95" s="21"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="F96"/>
+        <v>558</v>
+      </c>
+      <c r="F96" t="s">
+        <v>936</v>
+      </c>
       <c r="G96" s="21"/>
       <c r="H96" s="6"/>
       <c r="I96" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -6469,29 +6463,29 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>545</v>
+        <v>646</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F97"/>
       <c r="G97" s="21"/>
       <c r="H97" s="6"/>
       <c r="I97" s="4" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -6499,29 +6493,29 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>678</v>
+        <v>545</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="21"/>
       <c r="H98" s="6"/>
       <c r="I98" s="4" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -6529,19 +6523,29 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="E99" s="6"/>
+        <v>502</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="F99"/>
       <c r="G99" s="21"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="4"/>
+      <c r="I99" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -6549,33 +6553,19 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>499</v>
+        <v>626</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F100" t="s">
-        <v>937</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>962</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100"/>
+      <c r="G100" s="21"/>
       <c r="H100" s="6"/>
-      <c r="I100" s="4" t="s">
-        <v>509</v>
-      </c>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -6583,85 +6573,89 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F101"/>
-      <c r="G101" s="21"/>
+        <v>500</v>
+      </c>
+      <c r="F101" t="s">
+        <v>937</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>962</v>
+      </c>
       <c r="H101" s="6"/>
-      <c r="I101" s="4"/>
+      <c r="I101" s="4" t="s">
+        <v>509</v>
+      </c>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
+      <c r="K101" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="F102"/>
       <c r="G102" s="21"/>
       <c r="H102" s="6"/>
-      <c r="I102" s="4" t="s">
-        <v>510</v>
-      </c>
+      <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="4" t="s">
-        <v>638</v>
-      </c>
+      <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="21"/>
       <c r="H103" s="6"/>
       <c r="I103" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -6669,29 +6663,29 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="21"/>
       <c r="H104" s="6"/>
       <c r="I104" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -6699,81 +6693,79 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E105" s="6"/>
+        <v>479</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>481</v>
+      </c>
       <c r="F105"/>
       <c r="G105" s="21"/>
       <c r="H105" s="6"/>
       <c r="I105" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
+      <c r="K105" s="4" t="s">
+        <v>634</v>
+      </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E106" s="6"/>
       <c r="F106"/>
       <c r="G106" s="21"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="2" t="s">
-        <v>515</v>
+      <c r="I106" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="J106" s="4"/>
-      <c r="K106" s="4" t="s">
-        <v>629</v>
-      </c>
+      <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>793</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F107" t="s">
-        <v>938</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="F107"/>
       <c r="G107" s="21"/>
       <c r="H107" s="6"/>
-      <c r="I107" s="4" t="s">
-        <v>516</v>
+      <c r="I107" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
@@ -6781,1102 +6773,1117 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F108"/>
+        <v>470</v>
+      </c>
+      <c r="F108" t="s">
+        <v>938</v>
+      </c>
       <c r="G108" s="21"/>
       <c r="H108" s="6"/>
       <c r="I108" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>4</v>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="F109"/>
-      <c r="G109" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="G109" s="21"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
     </row>
     <row r="110" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H110" s="15"/>
+      <c r="I110" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F111"/>
-      <c r="G111" s="23"/>
+      <c r="G111" s="20" t="s">
+        <v>964</v>
+      </c>
       <c r="H111" s="15"/>
-      <c r="K111" s="1" t="s">
-        <v>587</v>
-      </c>
     </row>
     <row r="112" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E112" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F112"/>
       <c r="G112" s="23"/>
       <c r="H112" s="15"/>
-      <c r="I112" s="1" t="s">
-        <v>520</v>
+      <c r="K112" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113" t="s">
-        <v>939</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F113"/>
       <c r="G113" s="23"/>
       <c r="H113" s="15"/>
-      <c r="K113" s="1" t="s">
-        <v>588</v>
+      <c r="I113" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="15"/>
       <c r="K114" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>32</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="15"/>
+      <c r="K115" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G116" s="23"/>
       <c r="H116" s="15"/>
-      <c r="K116" s="2" t="s">
-        <v>577</v>
-      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117"/>
+        <v>37</v>
+      </c>
+      <c r="F117" t="s">
+        <v>942</v>
+      </c>
       <c r="G117" s="23"/>
       <c r="H117" s="15"/>
-      <c r="I117" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="K117" s="2" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F118"/>
       <c r="G118" s="23"/>
       <c r="H118" s="15"/>
       <c r="I118" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="23"/>
       <c r="H119" s="15"/>
       <c r="I119" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>466</v>
+        <v>49</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F120"/>
-      <c r="G120" s="20" t="s">
-        <v>965</v>
-      </c>
+      <c r="G120" s="23"/>
       <c r="H120" s="15"/>
       <c r="I120" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F121"/>
-      <c r="G121" s="23"/>
+      <c r="G121" s="20" t="s">
+        <v>965</v>
+      </c>
       <c r="H121" s="15"/>
       <c r="I121" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F122"/>
       <c r="G122" s="23"/>
       <c r="H122" s="15"/>
       <c r="I122" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>71</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="23"/>
       <c r="H123" s="15"/>
+      <c r="I123" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F124" t="s">
-        <v>943</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F124"/>
       <c r="G124" s="23"/>
       <c r="H124" s="15"/>
-      <c r="K124" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F125"/>
+        <v>76</v>
+      </c>
+      <c r="F125" t="s">
+        <v>943</v>
+      </c>
       <c r="G125" s="23"/>
       <c r="H125" s="15"/>
-      <c r="I125" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>623</v>
+      <c r="K125" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F126" t="s">
-        <v>944</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F126"/>
       <c r="G126" s="23"/>
       <c r="H126" s="15"/>
+      <c r="I126" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F127"/>
+        <v>86</v>
+      </c>
+      <c r="F127" t="s">
+        <v>944</v>
+      </c>
       <c r="G127" s="23"/>
       <c r="H127" s="15"/>
-      <c r="I127" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F128"/>
       <c r="G128" s="23"/>
       <c r="H128" s="15"/>
+      <c r="I128" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="K128" s="1" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="23"/>
       <c r="H129" s="15"/>
-      <c r="I129" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="K129" s="1" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D130" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E130" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="23"/>
       <c r="H130" s="15"/>
       <c r="I130" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D131" s="2"/>
       <c r="E131" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F131" t="s">
-        <v>945</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F131"/>
       <c r="G131" s="23"/>
       <c r="H131" s="15"/>
-      <c r="K131" s="1" t="s">
-        <v>586</v>
+      <c r="I131" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F132"/>
+        <v>110</v>
+      </c>
+      <c r="F132" t="s">
+        <v>945</v>
+      </c>
       <c r="G132" s="23"/>
       <c r="H132" s="15"/>
-      <c r="I132" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="K132" s="1" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F133"/>
       <c r="G133" s="23"/>
       <c r="H133" s="15"/>
       <c r="I133" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F134"/>
       <c r="G134" s="23"/>
       <c r="H134" s="15"/>
+      <c r="I134" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="K134" s="1" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F135"/>
       <c r="G135" s="23"/>
       <c r="H135" s="15"/>
-      <c r="I135" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="K135" s="1" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F136"/>
-      <c r="G136" s="20" t="s">
-        <v>966</v>
-      </c>
+      <c r="G136" s="23"/>
       <c r="H136" s="15"/>
       <c r="I136" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F137"/>
+      <c r="G137" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="K137" s="1" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137" s="17"/>
-      <c r="E137" s="15"/>
-      <c r="F137"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="15"/>
-      <c r="K137" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E138" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F138" t="s">
-        <v>946</v>
-      </c>
-      <c r="G138" s="24"/>
-      <c r="H138" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="C138" s="17"/>
+      <c r="E138" s="15"/>
+      <c r="F138"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="15"/>
       <c r="K138" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C139" s="17"/>
-      <c r="F139"/>
-      <c r="G139" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F139" t="s">
+        <v>946</v>
+      </c>
+      <c r="G139" s="24"/>
+      <c r="H139" s="18"/>
+      <c r="K139" s="2" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E140" s="15" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C140" s="17"/>
       <c r="F140"/>
-      <c r="G140" s="20" t="s">
-        <v>967</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="G140" s="25"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F141"/>
       <c r="G141" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H141" s="15"/>
       <c r="I141" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F142" t="s">
-        <v>947</v>
-      </c>
-      <c r="G142" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142" s="20" t="s">
+        <v>968</v>
+      </c>
       <c r="H142" s="15"/>
+      <c r="I142" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="K142" s="2" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F143"/>
-      <c r="G143" s="20" t="s">
-        <v>969</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F143" t="s">
+        <v>947</v>
+      </c>
+      <c r="G143" s="23"/>
       <c r="H143" s="15"/>
-      <c r="I143" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="K143" s="2" t="s">
-        <v>630</v>
+        <v>582</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F144" t="s">
-        <v>948</v>
-      </c>
-      <c r="G144" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144" s="20" t="s">
+        <v>969</v>
+      </c>
       <c r="H144" s="15"/>
+      <c r="I144" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E145" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="F145" t="s">
-        <v>949</v>
-      </c>
-      <c r="G145" s="24"/>
-      <c r="H145" s="18"/>
-      <c r="K145" s="2" t="s">
-        <v>585</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="G145" s="23"/>
+      <c r="H145" s="15"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C146" s="17"/>
-      <c r="F146"/>
-      <c r="G146" s="25"/>
+        <v>169</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F146" t="s">
+        <v>949</v>
+      </c>
+      <c r="G146" s="24"/>
+      <c r="H146" s="18"/>
+      <c r="K146" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E147" s="15" t="s">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C147" s="17"/>
       <c r="F147"/>
-      <c r="G147" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="G147" s="25"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F148"/>
-      <c r="G148" s="23"/>
+      <c r="G148" s="20" t="s">
+        <v>970</v>
+      </c>
       <c r="H148" s="15"/>
+      <c r="I148" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F149" t="s">
-        <v>950</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F149"/>
       <c r="G149" s="23"/>
       <c r="H149" s="15"/>
-      <c r="K149" s="2" t="s">
-        <v>589</v>
-      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F150" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G150" s="23"/>
       <c r="H150" s="15"/>
+      <c r="K150" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F151"/>
+        <v>192</v>
+      </c>
+      <c r="F151" t="s">
+        <v>951</v>
+      </c>
       <c r="G151" s="23"/>
       <c r="H151" s="15"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F152"/>
-      <c r="G152" s="20" t="s">
-        <v>971</v>
-      </c>
+      <c r="G152" s="23"/>
       <c r="H152" s="15"/>
-      <c r="I152" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>611</v>
-      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F153"/>
-      <c r="G153" s="23"/>
+      <c r="G153" s="20" t="s">
+        <v>971</v>
+      </c>
       <c r="H153" s="15"/>
+      <c r="I153" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F154"/>
       <c r="G154" s="23"/>
@@ -7884,16 +7891,16 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F155"/>
       <c r="G155" s="23"/>
@@ -7901,27 +7908,31 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E156" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="F156"/>
       <c r="G156" s="23"/>
       <c r="H156" s="15"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C157" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="E157" s="15"/>
       <c r="F157"/>
       <c r="G157" s="23"/>
@@ -7929,800 +7940,796 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>473</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C158" s="17"/>
+      <c r="E158" s="15"/>
       <c r="F158"/>
       <c r="G158" s="23"/>
       <c r="H158" s="15"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>671</v>
+        <v>222</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F159" t="s">
-        <v>952</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="F159"/>
       <c r="G159" s="23"/>
       <c r="H159" s="15"/>
-      <c r="K159" s="2" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E160" s="13"/>
-      <c r="F160"/>
-      <c r="G160" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="H160" s="13"/>
+        <v>671</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F160" t="s">
+        <v>952</v>
+      </c>
+      <c r="G160" s="23"/>
+      <c r="H160" s="15"/>
+      <c r="K160" s="2" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E161" s="18" t="s">
-        <v>235</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E161" s="13"/>
       <c r="F161"/>
       <c r="G161" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="H161" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>610</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="H161" s="13"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F162"/>
-      <c r="G162" s="25"/>
+      <c r="G162" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="H162" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F163"/>
-      <c r="G163" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="H163" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="K163" s="2" t="s">
-        <v>618</v>
-      </c>
+      <c r="G163" s="25"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E164" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="F164"/>
       <c r="G164" s="20" t="s">
-        <v>975</v>
-      </c>
-      <c r="H164" s="15" t="s">
-        <v>729</v>
+        <v>974</v>
+      </c>
+      <c r="H164" s="18" t="s">
+        <v>730</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>249</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C165" s="14"/>
       <c r="D165" s="14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F165"/>
       <c r="G165" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="H165" s="13" t="s">
-        <v>731</v>
+        <v>975</v>
+      </c>
+      <c r="H165" s="15" t="s">
+        <v>729</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F166"/>
       <c r="G166" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="H166" s="15" t="s">
-        <v>693</v>
+        <v>976</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K166" s="19" t="s">
-        <v>607</v>
+        <v>542</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E167" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F167"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="18"/>
+      <c r="G167" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="H167" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K167" s="19" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F168"/>
-      <c r="G168" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="H168" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>606</v>
-      </c>
+      <c r="G168" s="24"/>
+      <c r="H168" s="18"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F169"/>
-      <c r="G169" s="23"/>
-      <c r="H169" s="15"/>
+      <c r="G169" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="H169" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="F170"/>
-      <c r="G170" s="25"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="15"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="20" t="s">
-        <v>804</v>
+        <v>270</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="F171"/>
       <c r="G171" s="25"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="E172" s="15" t="s">
-        <v>276</v>
+        <v>805</v>
+      </c>
+      <c r="B172" s="13"/>
+      <c r="C172" s="20" t="s">
+        <v>804</v>
       </c>
       <c r="F172"/>
-      <c r="G172" s="23"/>
-      <c r="H172" s="15"/>
+      <c r="G172" s="25"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="E173" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="F173"/>
-      <c r="G173" s="25"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="15"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F174"/>
       <c r="G174" s="25"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F175" t="s">
-        <v>953</v>
-      </c>
-      <c r="K175" s="2" t="s">
-        <v>575</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="F175"/>
+      <c r="G175" s="25"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F176"/>
+        <v>285</v>
+      </c>
+      <c r="F176" t="s">
+        <v>953</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="F177" t="s">
-        <v>954</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F177"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D178" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E178" s="18" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F178" t="s">
-        <v>955</v>
-      </c>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="K178" s="2" t="s">
-        <v>578</v>
+        <v>954</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F179"/>
+        <v>294</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F179" t="s">
+        <v>955</v>
+      </c>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="K179" s="2" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F180"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F181"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F182" t="s">
-        <v>956</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F182"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F183"/>
+        <v>308</v>
+      </c>
+      <c r="F183" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F184"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F185"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F186" t="s">
-        <v>957</v>
-      </c>
-      <c r="K186" s="2" t="s">
-        <v>572</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F186"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E187" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F187" t="s">
-        <v>958</v>
-      </c>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
+        <v>957</v>
+      </c>
       <c r="K187" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F188"/>
+        <v>323</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F188" t="s">
+        <v>958</v>
+      </c>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="K188" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="E189" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="F189" t="s">
-        <v>959</v>
-      </c>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
+        <v>327</v>
+      </c>
+      <c r="F189"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F190"/>
+        <v>330</v>
+      </c>
+      <c r="E190" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F190" t="s">
+        <v>959</v>
+      </c>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F191"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F192"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D193" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="E193" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F193"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="D194" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E194" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="F194"/>
+      <c r="G194" s="18"/>
+      <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F195"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F196"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F197"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F198"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F199"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F200"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F201"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F202"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F203"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C204" s="17"/>
+        <v>374</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="F204"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C205" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="E205" s="15" t="s">
-        <v>381</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C205" s="17"/>
       <c r="F205"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="15"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F206"/>
       <c r="G206" s="15"/>
@@ -8730,774 +8737,791 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
+      </c>
+      <c r="E207" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="F207"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="B209" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C208" s="14" t="s">
+      <c r="C209" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="F208"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="12" t="s">
+      <c r="F209"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="B209" s="13" t="s">
+      <c r="B210" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C209" s="14" t="s">
+      <c r="C210" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="E209" s="15" t="s">
+      <c r="E210" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="F209"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="15"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="12" t="s">
+      <c r="F210"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B211" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C210" s="14" t="s">
+      <c r="C211" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="F210"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="12" t="s">
+      <c r="F211"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B212" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C211" s="14" t="s">
+      <c r="C212" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="F211"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="12" t="s">
+      <c r="F212"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B213" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C212" s="14" t="s">
+      <c r="C213" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="E212" s="15" t="s">
+      <c r="E213" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="F212"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="15"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="12" t="s">
+      <c r="F213"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="B213" s="13" t="s">
+      <c r="B214" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="C213" s="14" t="s">
+      <c r="C214" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="F213"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="12" t="s">
+      <c r="F214"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="B214" s="13" t="s">
+      <c r="B215" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="C214" s="16" t="s">
+      <c r="C215" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="F214"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="12" t="s">
+      <c r="F215"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B215" s="13" t="s">
+      <c r="B216" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C215" s="14" t="s">
+      <c r="C216" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F215"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="12" t="s">
+      <c r="F216"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="B216" s="13" t="s">
+      <c r="B217" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="C216" s="14" t="s">
+      <c r="C217" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="F216"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="12" t="s">
+      <c r="F217"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B217" s="13" t="s">
+      <c r="B218" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="C217" s="14" t="s">
+      <c r="C218" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="F217"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="12" t="s">
+      <c r="F218"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="B218" s="13" t="s">
+      <c r="B219" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="C218" s="14" t="s">
+      <c r="C219" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="F218"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="12" t="s">
+      <c r="F219"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="B220" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C219" s="14" t="s">
+      <c r="C220" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="F219"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="12" t="s">
+      <c r="F220"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="B221" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C220" s="14" t="s">
+      <c r="C221" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="F220"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="12" t="s">
+      <c r="F221"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B222" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="C221" s="14" t="s">
+      <c r="C222" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F221"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="12" t="s">
+      <c r="F222"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B222" s="13" t="s">
+      <c r="B223" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C222" s="14" t="s">
+      <c r="C223" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="F222"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="12" t="s">
+      <c r="F223"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="B224" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C223" s="14" t="s">
+      <c r="C224" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="F223"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="12" t="s">
+      <c r="F224"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B225" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C224" s="14" t="s">
+      <c r="C225" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="E224" s="15" t="s">
+      <c r="E225" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F225" t="s">
         <v>960</v>
       </c>
-      <c r="G224" s="15"/>
-      <c r="H224" s="15"/>
-      <c r="K224" s="2" t="s">
+      <c r="G225" s="15"/>
+      <c r="H225" s="15"/>
+      <c r="K225" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="12" t="s">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="B226" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="C225" s="16" t="s">
+      <c r="C226" s="16" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="12" t="s">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="B227" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="C226" s="16" t="s">
+      <c r="C227" s="16" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="12" t="s">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B227" s="13" t="s">
+      <c r="B228" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="C227" s="16" t="s">
+      <c r="C228" s="16" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="12" t="s">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B228" s="13" t="s">
+      <c r="B229" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C228" s="16" t="s">
+      <c r="C229" s="16" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C229" s="16" t="s">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C230" s="16" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="16" t="s">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C231" s="16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C231" s="16" t="s">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C232" s="16" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C232" s="16" t="s">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C233" s="16" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C233" s="16" t="s">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C234" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C234" s="16" t="s">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C235" s="16" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C110" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C109" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C111" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C112" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C113" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C114" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C115" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C116" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C117" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C118" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C119" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C121" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C122" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C123" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C124" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C125" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C126" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C127" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C128" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C129" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C130" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C131" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C132" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C133" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C134" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C135" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C136" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C138" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C140" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C141" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C142" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C143" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C144" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C145" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C147" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C148" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C149" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C150" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C151" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C152" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C153" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C154" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C155" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C156" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C158" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C159" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C160" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C161" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C162" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C163" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C165" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C166" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C167" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C168" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C169" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C170" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C172" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C173" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C174" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C175" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C176" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C177" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C178" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C179" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C180" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C181" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C182" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C183" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C184" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C185" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C186" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C187" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C188" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C189" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C190" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C191" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C192" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C193" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C194" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C195" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C196" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C197" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C198" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C199" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C200" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C201" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C202" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C203" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C205" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C206" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C207" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C208" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C209" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C210" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C211" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C212" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C213" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C215" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C216" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C217" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C218" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C219" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C220" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C221" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C222" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C223" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C224" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C120" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C225" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C214" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C226" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C227" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C228" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C229" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C230" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C231" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C232" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C233" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C234" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D109" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D110" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D111" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D113" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D114" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D116" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D117" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D118" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D124" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D123" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D152" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D119" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D120" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D121" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D122" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D125" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D126" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D127" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D128" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D129" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D131" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D132" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D133" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D134" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D135" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D136" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D138" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D141" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D142" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D143" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D145" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D147" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D149" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D151" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D158" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D159" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D161" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D164" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D165" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D166" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D168" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E109" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E110" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E111" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E112" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E113" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E114" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E116" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E117" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E118" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E119" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E121" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E122" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E123" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E125" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E126" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E127" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E128" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E129" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E130" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E131" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E132" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E133" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E134" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E135" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E136" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E137" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E140" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E141" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E142" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E143" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E147" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E148" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E149" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E150" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E151" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E157" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E158" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E160" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E164" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E169" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E172" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E187" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E189" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E205" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E206" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E209" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E212" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E224" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D193" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E124" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E153" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E154" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E165" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E166" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E155" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E156" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E120" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E144" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E168" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E159" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E115" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E138" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E145" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E152" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E161" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E163" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E167" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E178" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E193" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B115" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B116" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B117" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B118" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B119" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B120" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B121" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B122" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B123" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B124" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B125" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B126" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B127" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B128" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B129" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B130" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B131" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B132" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B133" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B134" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B135" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B136" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B137" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B138" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B139" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B141" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B142" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B143" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B144" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B145" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B146" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B148" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B149" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B150" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B151" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B152" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B153" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B154" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B155" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B156" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B157" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B158" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B159" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B160" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B109" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B110" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B111" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B112" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B113" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B114" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B228" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B227" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B226" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B225" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B224" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B223" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B222" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B221" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B220" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B219" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B218" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B217" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B216" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B215" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B214" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B213" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B212" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B211" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B210" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B209" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B208" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B207" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B206" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B205" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B204" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B203" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B202" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B201" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B200" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B199" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B198" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B197" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B196" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B195" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B194" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B193" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B192" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B191" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B190" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B189" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B188" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B187" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B186" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B185" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B184" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B183" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B182" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B181" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B180" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B179" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B178" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B177" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B176" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B175" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B174" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B173" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B172" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B170" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B169" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B168" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B167" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B166" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B165" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B164" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B163" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B162" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B161" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E90" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
-    <hyperlink ref="E85" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
-    <hyperlink ref="B86" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
-    <hyperlink ref="B98" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
-    <hyperlink ref="B85" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
-    <hyperlink ref="B84" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
-    <hyperlink ref="E82" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
-    <hyperlink ref="B83" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
-    <hyperlink ref="H165" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
-    <hyperlink ref="B82" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
-    <hyperlink ref="C73" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
-    <hyperlink ref="B71" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
-    <hyperlink ref="E71" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
-    <hyperlink ref="D71" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
-    <hyperlink ref="D72" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
-    <hyperlink ref="B70" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
-    <hyperlink ref="E70" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
-    <hyperlink ref="D70" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
-    <hyperlink ref="E69" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
-    <hyperlink ref="D69" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
-    <hyperlink ref="B89" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
-    <hyperlink ref="B68" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
-    <hyperlink ref="E68" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
-    <hyperlink ref="D68" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
-    <hyperlink ref="B67" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
-    <hyperlink ref="E67" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
-    <hyperlink ref="D67" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
-    <hyperlink ref="E66" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
-    <hyperlink ref="D66" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
-    <hyperlink ref="D65" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
-    <hyperlink ref="E65" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
-    <hyperlink ref="B64" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
-    <hyperlink ref="E64" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
-    <hyperlink ref="D64" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
-    <hyperlink ref="B106" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
-    <hyperlink ref="B63" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
-    <hyperlink ref="D63" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
-    <hyperlink ref="E63" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
-    <hyperlink ref="E62" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
-    <hyperlink ref="C62" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
-    <hyperlink ref="D62" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
-    <hyperlink ref="C171" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
-    <hyperlink ref="C61" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
-    <hyperlink ref="B59" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
-    <hyperlink ref="E59" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
-    <hyperlink ref="E58" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
-    <hyperlink ref="D58" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
-    <hyperlink ref="D59" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
-    <hyperlink ref="B57" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
-    <hyperlink ref="E55" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
-    <hyperlink ref="B55" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
-    <hyperlink ref="D55" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
-    <hyperlink ref="B54" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
-    <hyperlink ref="E54" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
-    <hyperlink ref="E53" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
-    <hyperlink ref="E52" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
-    <hyperlink ref="D52" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
-    <hyperlink ref="D53" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
-    <hyperlink ref="B50" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
-    <hyperlink ref="E50" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
-    <hyperlink ref="E49" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
-    <hyperlink ref="D49" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
-    <hyperlink ref="D48" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
-    <hyperlink ref="B66" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
-    <hyperlink ref="E46" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
-    <hyperlink ref="D46" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
-    <hyperlink ref="D43" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
-    <hyperlink ref="B43" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
-    <hyperlink ref="B45" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
-    <hyperlink ref="B79" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
-    <hyperlink ref="E41" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
-    <hyperlink ref="E37" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
-    <hyperlink ref="D37" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
-    <hyperlink ref="G38" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
-    <hyperlink ref="G39" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
-    <hyperlink ref="G71" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
-    <hyperlink ref="G100" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
-    <hyperlink ref="G109" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
-    <hyperlink ref="G110" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
-    <hyperlink ref="G120" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
-    <hyperlink ref="G136" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
-    <hyperlink ref="G141" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
-    <hyperlink ref="G140" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
-    <hyperlink ref="G143" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
-    <hyperlink ref="G147" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
-    <hyperlink ref="G152" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
-    <hyperlink ref="G160" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
-    <hyperlink ref="G161" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
-    <hyperlink ref="G163" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
-    <hyperlink ref="G164" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
-    <hyperlink ref="G165" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
-    <hyperlink ref="G166" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
-    <hyperlink ref="G168" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
-    <hyperlink ref="E36" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
-    <hyperlink ref="F36" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
-    <hyperlink ref="D36" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
-    <hyperlink ref="D33" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
-    <hyperlink ref="E31" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
-    <hyperlink ref="C84" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
-    <hyperlink ref="D26" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
-    <hyperlink ref="C26" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
-    <hyperlink ref="D25" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
-    <hyperlink ref="E25" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
-    <hyperlink ref="E24" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
-    <hyperlink ref="F24" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
-    <hyperlink ref="F21" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
-    <hyperlink ref="D32" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
-    <hyperlink ref="G32" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
-    <hyperlink ref="G31" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
-    <hyperlink ref="C7" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
+    <hyperlink ref="C111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C110" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C112" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C113" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C114" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C115" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C116" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C117" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C118" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C119" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C120" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C122" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C123" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C124" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C125" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C126" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C127" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C128" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C129" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C130" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C131" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C132" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C133" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C134" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C135" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C136" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C137" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C139" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C141" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C142" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C143" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C144" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C145" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C146" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C148" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C149" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C150" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C151" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C152" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C153" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C154" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C155" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C156" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C157" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C159" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C160" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C161" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C162" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C163" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C164" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C166" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C167" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C168" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C169" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C170" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C171" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C173" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C174" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C175" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C176" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C177" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C178" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C179" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C180" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C181" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C182" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C183" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C184" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C185" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C186" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C187" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C188" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C189" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C190" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C191" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C192" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C193" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C194" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C195" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C196" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C197" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C198" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C199" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C200" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C201" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C202" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C203" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C204" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C206" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C207" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C208" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C209" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C210" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C211" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C212" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C213" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C214" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C216" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C217" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C218" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C219" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C220" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C221" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C222" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C223" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C224" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C225" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C121" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C226" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C215" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C227" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C228" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C229" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C230" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C231" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C232" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C233" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C234" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C235" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D110" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D111" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D112" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D114" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D115" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D117" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D118" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D119" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D125" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D124" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D153" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D120" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D121" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D122" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D123" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D126" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D127" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D128" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D129" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D130" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D132" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D133" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D134" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D135" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D136" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D137" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D139" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D142" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D143" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D144" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D146" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D148" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D150" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D152" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D159" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D160" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D165" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D166" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D167" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D169" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E110" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E111" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E112" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E113" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E114" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E115" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E117" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E118" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E119" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E120" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E122" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E123" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E124" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E126" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E127" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E128" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E129" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E130" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E131" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E132" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E133" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E134" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E135" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E136" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E137" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E138" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E141" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E142" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E143" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E144" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E148" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E149" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E150" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E151" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E152" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E158" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E159" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E161" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E165" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E170" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E173" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E188" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E190" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E210" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E213" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E225" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D194" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E125" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E154" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E155" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E166" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E167" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E156" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E157" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E121" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E145" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E169" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E160" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E116" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E139" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E146" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E153" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E162" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E164" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E168" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E179" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E194" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B116" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B117" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B118" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B119" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B120" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B121" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B122" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B123" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B124" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B125" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B126" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B127" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B128" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B129" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B130" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B131" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B132" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B133" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B134" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B135" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B136" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B137" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B138" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B139" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B140" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B142" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B143" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B144" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B145" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B146" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B147" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B149" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B150" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B151" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B152" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B153" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B154" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B155" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B156" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B157" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B158" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B159" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B160" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B161" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B110" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B111" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B112" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B113" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B114" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B115" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B229" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B228" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B227" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B226" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B225" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B224" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B223" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B222" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B221" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B220" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B219" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B218" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B217" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B216" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B215" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B214" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B213" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B212" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B211" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B210" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B209" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B208" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B207" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B206" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B205" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B204" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B203" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B202" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B201" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B200" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B199" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B198" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B197" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B196" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B195" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B194" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B193" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B192" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B191" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B190" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B189" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B188" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B187" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B186" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B185" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B184" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B183" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B182" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B181" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B180" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B179" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B178" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B177" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B176" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B175" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B174" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B173" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B171" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B170" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B169" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B168" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B167" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B166" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B165" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B164" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B163" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B162" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E91" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
+    <hyperlink ref="E86" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
+    <hyperlink ref="B87" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
+    <hyperlink ref="B99" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
+    <hyperlink ref="B86" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
+    <hyperlink ref="B85" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
+    <hyperlink ref="E83" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
+    <hyperlink ref="B84" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
+    <hyperlink ref="H166" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
+    <hyperlink ref="B83" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
+    <hyperlink ref="C74" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
+    <hyperlink ref="B72" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
+    <hyperlink ref="E72" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
+    <hyperlink ref="D72" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
+    <hyperlink ref="D73" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
+    <hyperlink ref="B71" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
+    <hyperlink ref="E71" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
+    <hyperlink ref="D71" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
+    <hyperlink ref="E70" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
+    <hyperlink ref="D70" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
+    <hyperlink ref="B90" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
+    <hyperlink ref="B69" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
+    <hyperlink ref="E69" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
+    <hyperlink ref="D69" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
+    <hyperlink ref="B68" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
+    <hyperlink ref="E68" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
+    <hyperlink ref="D68" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
+    <hyperlink ref="E67" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
+    <hyperlink ref="D67" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
+    <hyperlink ref="D66" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
+    <hyperlink ref="E66" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
+    <hyperlink ref="B65" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
+    <hyperlink ref="E65" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
+    <hyperlink ref="D65" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
+    <hyperlink ref="B107" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
+    <hyperlink ref="B64" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
+    <hyperlink ref="D64" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
+    <hyperlink ref="E64" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
+    <hyperlink ref="E63" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
+    <hyperlink ref="C63" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
+    <hyperlink ref="D63" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
+    <hyperlink ref="C172" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
+    <hyperlink ref="C62" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
+    <hyperlink ref="B60" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
+    <hyperlink ref="E60" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
+    <hyperlink ref="E59" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
+    <hyperlink ref="D59" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
+    <hyperlink ref="D60" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
+    <hyperlink ref="B58" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
+    <hyperlink ref="E56" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
+    <hyperlink ref="B56" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
+    <hyperlink ref="D56" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
+    <hyperlink ref="B55" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
+    <hyperlink ref="E55" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
+    <hyperlink ref="E54" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
+    <hyperlink ref="E53" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
+    <hyperlink ref="D53" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
+    <hyperlink ref="D54" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
+    <hyperlink ref="B51" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
+    <hyperlink ref="E51" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
+    <hyperlink ref="E50" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
+    <hyperlink ref="D50" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
+    <hyperlink ref="D49" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
+    <hyperlink ref="B67" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
+    <hyperlink ref="E47" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
+    <hyperlink ref="D47" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
+    <hyperlink ref="D44" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
+    <hyperlink ref="B44" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
+    <hyperlink ref="B46" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
+    <hyperlink ref="B80" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
+    <hyperlink ref="E42" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
+    <hyperlink ref="E38" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
+    <hyperlink ref="D38" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
+    <hyperlink ref="G39" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
+    <hyperlink ref="G40" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
+    <hyperlink ref="G72" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
+    <hyperlink ref="G101" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
+    <hyperlink ref="G110" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
+    <hyperlink ref="G111" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
+    <hyperlink ref="G121" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
+    <hyperlink ref="G137" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
+    <hyperlink ref="G142" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
+    <hyperlink ref="G141" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
+    <hyperlink ref="G144" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
+    <hyperlink ref="G148" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
+    <hyperlink ref="G153" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
+    <hyperlink ref="G161" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
+    <hyperlink ref="G162" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
+    <hyperlink ref="G164" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
+    <hyperlink ref="G165" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
+    <hyperlink ref="G166" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
+    <hyperlink ref="G167" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
+    <hyperlink ref="G169" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
+    <hyperlink ref="E37" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
+    <hyperlink ref="F37" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
+    <hyperlink ref="D37" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
+    <hyperlink ref="D34" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
+    <hyperlink ref="E32" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
+    <hyperlink ref="C85" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
+    <hyperlink ref="D27" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
+    <hyperlink ref="C27" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
+    <hyperlink ref="D26" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
+    <hyperlink ref="E26" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
+    <hyperlink ref="E25" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
+    <hyperlink ref="F25" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
+    <hyperlink ref="F22" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
+    <hyperlink ref="D33" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
+    <hyperlink ref="G33" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
+    <hyperlink ref="G32" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
+    <hyperlink ref="C8" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/articlelinks.xlsx
+++ b/articlelinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Dropbox/markdown_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5782F5-FC6E-F24E-99CA-9F90162196C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F376C31-09C7-614F-BA1D-5E37BA056653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1153">
   <si>
     <t>文科生如何理解卷积神经网络？</t>
   </si>
@@ -3519,6 +3519,21 @@
   </si>
   <si>
     <t>如何训练和解释你的图片分类深度卷积模型？</t>
+  </si>
+  <si>
+    <t>如何一行代码都不写，就做出网站和应用？</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Y6bsuKWkm29ibxmu7jF_hw</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/372056101</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/66618</t>
+  </si>
+  <si>
+    <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;quickforward=1&amp;id=1286386</t>
   </si>
 </sst>
 </file>
@@ -4011,10 +4026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N235"/>
+  <dimension ref="A1:N236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4066,13 +4081,20 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+        <v>1148</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1151</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="4"/>
@@ -4084,20 +4106,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1143</v>
-      </c>
+        <v>1146</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="4"/>
@@ -4109,19 +4124,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -4134,13 +4149,20 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1140</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="4"/>
@@ -4152,20 +4174,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1130</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
@@ -4177,16 +4192,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1127</v>
+        <v>1131</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1126</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -4199,19 +4217,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1122</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4224,16 +4239,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1115</v>
+        <v>1119</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1120</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -4246,16 +4264,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -4268,16 +4286,18 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>1109</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -4288,14 +4308,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>1109</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4306,10 +4328,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -4324,20 +4346,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1093</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
@@ -4349,16 +4364,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1088</v>
+        <v>1096</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -4371,13 +4389,17 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+        <v>1088</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1090</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="4"/>
@@ -4389,20 +4411,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>1087</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="4"/>
@@ -4414,13 +4429,20 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+        <v>1084</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1087</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="4"/>
@@ -4432,17 +4454,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>1042</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="4"/>
@@ -4454,19 +4472,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4479,16 +4494,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4501,19 +4519,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>1027</v>
+        <v>1036</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4526,16 +4541,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4548,13 +4566,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1048</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -4567,16 +4588,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>1022</v>
+        <v>1031</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1032</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -4589,16 +4607,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>1018</v>
+        <v>1021</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1049</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>1020</v>
+        <v>1022</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4611,19 +4629,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>1014</v>
+        <v>1018</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>1019</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -4636,19 +4651,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>1006</v>
+        <v>1012</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>1013</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -4661,13 +4676,20 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+        <v>1050</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>1010</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="4"/>
@@ -4679,20 +4701,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>1011</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="4"/>
@@ -4704,23 +4719,21 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>1108</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -4731,22 +4744,22 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>992</v>
+        <v>994</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>997</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>1107</v>
+        <v>1000</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>1108</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="4"/>
@@ -4758,22 +4771,22 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>998</v>
+        <v>1054</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>992</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>1106</v>
+        <v>1001</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>1107</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="4"/>
@@ -4785,22 +4798,22 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>989</v>
+        <v>1055</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>996</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>1105</v>
+        <v>1002</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>1106</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
@@ -4812,14 +4825,23 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+        <v>986</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>1105</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -4830,14 +4852,12 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>999</v>
-      </c>
+        <v>1057</v>
+      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -4850,20 +4870,15 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>981</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
@@ -4875,19 +4890,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>1059</v>
+        <v>979</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>983</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>896</v>
+        <v>982</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>897</v>
+        <v>980</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>981</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -4900,23 +4915,21 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>892</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4927,22 +4940,22 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C40" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>1060</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
@@ -4954,16 +4967,23 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E41" s="6"/>
+        <v>1060</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>888</v>
+      </c>
       <c r="F41" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="G41" s="21"/>
+        <v>890</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>893</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -4974,21 +4994,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F42" t="s">
-        <v>898</v>
-      </c>
-      <c r="G42" s="20"/>
+        <v>1061</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="G42" s="21"/>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -4999,18 +5014,21 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>875</v>
+        <v>1062</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="F43" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G43" s="21"/>
+        <v>898</v>
+      </c>
+      <c r="G43" s="20"/>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -5021,22 +5039,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>871</v>
+        <v>1063</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="F44" t="s">
-        <v>899</v>
+        <v>1129</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="6"/>
@@ -5049,15 +5061,23 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B45" s="20"/>
+        <v>867</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>873</v>
+      </c>
       <c r="C45" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="6"/>
-      <c r="F45"/>
+        <v>1064</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="F45" t="s">
+        <v>899</v>
+      </c>
       <c r="G45" s="21"/>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
@@ -5069,23 +5089,15 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>874</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B46" s="20"/>
       <c r="C46" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F46" t="s">
-        <v>900</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="6"/>
+      <c r="F46"/>
       <c r="G46" s="21"/>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
@@ -5097,24 +5109,24 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>865</v>
+        <v>868</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>874</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>860</v>
+        <v>1067</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>869</v>
       </c>
       <c r="F47" t="s">
-        <v>901</v>
-      </c>
-      <c r="G47" s="20"/>
+        <v>900</v>
+      </c>
+      <c r="G47" s="21"/>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -5125,24 +5137,24 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>862</v>
+        <v>1068</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F48" t="s">
-        <v>902</v>
-      </c>
-      <c r="G48" s="21"/>
+        <v>901</v>
+      </c>
+      <c r="G48" s="20"/>
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -5153,22 +5165,22 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>855</v>
+        <v>1069</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F49" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="6"/>
@@ -5181,29 +5193,27 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>850</v>
+        <v>855</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="F50" t="s">
-        <v>904</v>
-      </c>
-      <c r="G50" s="20"/>
+        <v>903</v>
+      </c>
+      <c r="G50" s="21"/>
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -5211,24 +5221,29 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>845</v>
+        <v>849</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>851</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F51" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -5236,21 +5251,21 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>845</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>848</v>
+        <v>1072</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>847</v>
       </c>
       <c r="F52" t="s">
-        <v>906</v>
-      </c>
-      <c r="G52" s="21"/>
+        <v>905</v>
+      </c>
+      <c r="G52" s="20"/>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -5261,24 +5276,21 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>840</v>
+        <v>1073</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>848</v>
       </c>
       <c r="F53" t="s">
-        <v>907</v>
-      </c>
-      <c r="G53" s="20"/>
+        <v>906</v>
+      </c>
+      <c r="G53" s="21"/>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5289,21 +5301,23 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F54"/>
+        <v>840</v>
+      </c>
+      <c r="F54" t="s">
+        <v>907</v>
+      </c>
       <c r="G54" s="20"/>
       <c r="H54" s="6"/>
       <c r="I54" s="4"/>
@@ -5315,16 +5329,19 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>834</v>
+        <v>837</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>842</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F55"/>
       <c r="G55" s="20"/>
@@ -5338,23 +5355,18 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>828</v>
+        <v>1076</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="F56" t="s">
-        <v>908</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="F56"/>
       <c r="G56" s="20"/>
       <c r="H56" s="6"/>
       <c r="I56" s="4"/>
@@ -5366,22 +5378,22 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F57" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="6"/>
@@ -5394,24 +5406,24 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>822</v>
+        <v>1078</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>831</v>
       </c>
       <c r="F58" t="s">
-        <v>910</v>
-      </c>
-      <c r="G58" s="21"/>
+        <v>909</v>
+      </c>
+      <c r="G58" s="20"/>
       <c r="H58" s="6"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -5422,24 +5434,24 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>814</v>
+        <v>821</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>820</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>815</v>
+        <v>824</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="F59" t="s">
-        <v>911</v>
-      </c>
-      <c r="G59" s="20"/>
+        <v>910</v>
+      </c>
+      <c r="G59" s="21"/>
       <c r="H59" s="6"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -5450,22 +5462,22 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>808</v>
+        <v>816</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F60" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="6"/>
@@ -5478,14 +5490,23 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B61" s="20"/>
+        <v>819</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>808</v>
+      </c>
       <c r="C61" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E61" s="20"/>
-      <c r="F61"/>
+        <v>812</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="F61" t="s">
+        <v>912</v>
+      </c>
       <c r="G61" s="20"/>
       <c r="H61" s="6"/>
       <c r="I61" s="4"/>
@@ -5497,14 +5518,15 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>811</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E62" s="20"/>
       <c r="F62"/>
-      <c r="G62" s="21"/>
+      <c r="G62" s="20"/>
       <c r="H62" s="6"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -5515,24 +5537,14 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F63" t="s">
-        <v>913</v>
-      </c>
-      <c r="G63" s="20"/>
+        <v>807</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63"/>
+      <c r="G63" s="21"/>
       <c r="H63" s="6"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -5543,22 +5555,22 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>796</v>
+        <v>799</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F64" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="6"/>
@@ -5571,22 +5583,22 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="F65" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="6"/>
@@ -5599,22 +5611,22 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>789</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="F66" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="6"/>
@@ -5627,22 +5639,22 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>779</v>
+        <v>787</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F67" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="6"/>
@@ -5655,21 +5667,23 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F68"/>
+        <v>780</v>
+      </c>
+      <c r="F68" t="s">
+        <v>917</v>
+      </c>
       <c r="G68" s="20"/>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
@@ -5681,19 +5695,19 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F69"/>
       <c r="G69" s="20"/>
@@ -5707,23 +5721,21 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>764</v>
+        <v>768</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>769</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="F70" t="s">
-        <v>918</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F70"/>
       <c r="G70" s="20"/>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
@@ -5735,22 +5747,22 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>759</v>
+        <v>763</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F71" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="6"/>
@@ -5763,26 +5775,24 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="F72" t="s">
-        <v>920</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="G72" s="20"/>
       <c r="H72" s="6"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -5793,24 +5803,26 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>750</v>
+        <v>756</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F73" t="s">
-        <v>921</v>
-      </c>
-      <c r="G73" s="21"/>
+        <v>920</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>961</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -5821,22 +5833,22 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>743</v>
+        <v>748</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F74" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="6"/>
@@ -5849,22 +5861,22 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F75" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G75" s="21"/>
       <c r="H75" s="6"/>
@@ -5877,22 +5889,22 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F76" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="6"/>
@@ -5905,22 +5917,22 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F77" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G77" s="21"/>
       <c r="H77" s="6"/>
@@ -5933,21 +5945,23 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F78"/>
+        <v>726</v>
+      </c>
+      <c r="F78" t="s">
+        <v>925</v>
+      </c>
       <c r="G78" s="21"/>
       <c r="H78" s="6"/>
       <c r="I78" s="4"/>
@@ -5959,23 +5973,21 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="F79" t="s">
-        <v>926</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="F79"/>
       <c r="G79" s="21"/>
       <c r="H79" s="6"/>
       <c r="I79" s="4"/>
@@ -5987,22 +5999,22 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>709</v>
+        <v>712</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F80" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="6"/>
@@ -6015,22 +6027,22 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="F81" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G81" s="21"/>
       <c r="H81" s="6"/>
@@ -6043,21 +6055,23 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F82"/>
+        <v>706</v>
+      </c>
+      <c r="F82" t="s">
+        <v>928</v>
+      </c>
       <c r="G82" s="21"/>
       <c r="H82" s="6"/>
       <c r="I82" s="4"/>
@@ -6069,22 +6083,22 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>695</v>
+        <v>698</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>696</v>
+        <v>700</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="F83"/>
-      <c r="G83" s="22"/>
+      <c r="G83" s="21"/>
       <c r="H83" s="6"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -6095,24 +6109,22 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="F84" t="s">
-        <v>929</v>
-      </c>
-      <c r="G84" s="21"/>
+        <v>697</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84" s="22"/>
       <c r="H84" s="6"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -6123,28 +6135,26 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>684</v>
+        <v>686</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="F85" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G85" s="21"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -6153,26 +6163,28 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>676</v>
+        <v>681</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>673</v>
+        <v>682</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="F86" t="s">
-        <v>931</v>
-      </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="4"/>
+        <v>930</v>
+      </c>
+      <c r="G86" s="21"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -6181,25 +6193,25 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>669</v>
+        <v>674</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="F87" t="s">
-        <v>932</v>
-      </c>
-      <c r="G87" s="21"/>
-      <c r="H87" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G87" s="22"/>
+      <c r="H87" s="13"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -6209,22 +6221,22 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>659</v>
+        <v>668</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F88" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="6"/>
@@ -6237,81 +6249,81 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F89" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G89" s="21"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>648</v>
+        <v>653</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>654</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F90"/>
+        <v>655</v>
+      </c>
+      <c r="F90" t="s">
+        <v>934</v>
+      </c>
       <c r="G90" s="21"/>
       <c r="H90" s="6"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
+      <c r="K90" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>603</v>
+        <v>647</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="F91" t="s">
-        <v>935</v>
-      </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="13"/>
+        <v>650</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -6321,47 +6333,47 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="F92"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="6"/>
+        <v>651</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="F92" t="s">
+        <v>935</v>
+      </c>
+      <c r="G92" s="22"/>
+      <c r="H92" s="13"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4" t="s">
-        <v>658</v>
-      </c>
+      <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F93"/>
       <c r="G93" s="21"/>
@@ -6369,7 +6381,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -6377,53 +6389,53 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F94"/>
       <c r="G94" s="21"/>
       <c r="H94" s="6"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
+      <c r="K94" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="F95"/>
       <c r="G95" s="21"/>
       <c r="H95" s="6"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -6431,61 +6443,59 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F96" t="s">
-        <v>936</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="F96"/>
       <c r="G96" s="21"/>
       <c r="H96" s="6"/>
-      <c r="I96" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="F97"/>
+        <v>558</v>
+      </c>
+      <c r="F97" t="s">
+        <v>936</v>
+      </c>
       <c r="G97" s="21"/>
       <c r="H97" s="6"/>
       <c r="I97" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -6493,29 +6503,29 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>545</v>
+        <v>646</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="21"/>
       <c r="H98" s="6"/>
       <c r="I98" s="4" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -6523,29 +6533,29 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>678</v>
+        <v>545</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="21"/>
       <c r="H99" s="6"/>
       <c r="I99" s="4" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -6553,19 +6563,29 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="E100" s="6"/>
+        <v>502</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="F100"/>
       <c r="G100" s="21"/>
       <c r="H100" s="6"/>
-      <c r="I100" s="4"/>
+      <c r="I100" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -6573,33 +6593,19 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>499</v>
+        <v>626</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F101" t="s">
-        <v>937</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>962</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101"/>
+      <c r="G101" s="21"/>
       <c r="H101" s="6"/>
-      <c r="I101" s="4" t="s">
-        <v>509</v>
-      </c>
+      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -6607,85 +6613,89 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F102"/>
-      <c r="G102" s="21"/>
+        <v>500</v>
+      </c>
+      <c r="F102" t="s">
+        <v>937</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>962</v>
+      </c>
       <c r="H102" s="6"/>
-      <c r="I102" s="4"/>
+      <c r="I102" s="4" t="s">
+        <v>509</v>
+      </c>
       <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
+      <c r="K102" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="21"/>
       <c r="H103" s="6"/>
-      <c r="I103" s="4" t="s">
-        <v>510</v>
-      </c>
+      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="4" t="s">
-        <v>638</v>
-      </c>
+      <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="21"/>
       <c r="H104" s="6"/>
       <c r="I104" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -6693,29 +6703,29 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="21"/>
       <c r="H105" s="6"/>
       <c r="I105" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
@@ -6723,81 +6733,79 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E106" s="6"/>
+        <v>479</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>481</v>
+      </c>
       <c r="F106"/>
       <c r="G106" s="21"/>
       <c r="H106" s="6"/>
       <c r="I106" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
+      <c r="K106" s="4" t="s">
+        <v>634</v>
+      </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E107" s="6"/>
       <c r="F107"/>
       <c r="G107" s="21"/>
       <c r="H107" s="6"/>
-      <c r="I107" s="2" t="s">
-        <v>515</v>
+      <c r="I107" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="J107" s="4"/>
-      <c r="K107" s="4" t="s">
-        <v>629</v>
-      </c>
+      <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>793</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F108" t="s">
-        <v>938</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="F108"/>
       <c r="G108" s="21"/>
       <c r="H108" s="6"/>
-      <c r="I108" s="4" t="s">
-        <v>516</v>
+      <c r="I108" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
@@ -6805,1102 +6813,1117 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F109"/>
+        <v>470</v>
+      </c>
+      <c r="F109" t="s">
+        <v>938</v>
+      </c>
       <c r="G109" s="21"/>
       <c r="H109" s="6"/>
       <c r="I109" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>4</v>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="F110"/>
-      <c r="G110" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="G110" s="21"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
     </row>
     <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H111" s="15"/>
+      <c r="I111" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="112" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F112"/>
-      <c r="G112" s="23"/>
+      <c r="G112" s="20" t="s">
+        <v>964</v>
+      </c>
       <c r="H112" s="15"/>
-      <c r="K112" s="1" t="s">
-        <v>587</v>
-      </c>
     </row>
     <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E113" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F113"/>
       <c r="G113" s="23"/>
       <c r="H113" s="15"/>
-      <c r="I113" s="1" t="s">
-        <v>520</v>
+      <c r="K113" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F114" t="s">
-        <v>939</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F114"/>
       <c r="G114" s="23"/>
       <c r="H114" s="15"/>
-      <c r="K114" s="1" t="s">
-        <v>588</v>
+      <c r="I114" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="15"/>
       <c r="K115" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>32</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G116" s="23"/>
       <c r="H116" s="15"/>
+      <c r="K116" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G117" s="23"/>
       <c r="H117" s="15"/>
-      <c r="K117" s="2" t="s">
-        <v>577</v>
-      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118"/>
+        <v>37</v>
+      </c>
+      <c r="F118" t="s">
+        <v>942</v>
+      </c>
       <c r="G118" s="23"/>
       <c r="H118" s="15"/>
-      <c r="I118" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="K118" s="2" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="23"/>
       <c r="H119" s="15"/>
       <c r="I119" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F120"/>
       <c r="G120" s="23"/>
       <c r="H120" s="15"/>
       <c r="I120" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>466</v>
+        <v>49</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F121"/>
-      <c r="G121" s="20" t="s">
-        <v>965</v>
-      </c>
+      <c r="G121" s="23"/>
       <c r="H121" s="15"/>
       <c r="I121" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F122"/>
-      <c r="G122" s="23"/>
+      <c r="G122" s="20" t="s">
+        <v>965</v>
+      </c>
       <c r="H122" s="15"/>
       <c r="I122" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F123"/>
       <c r="G123" s="23"/>
       <c r="H123" s="15"/>
       <c r="I123" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>71</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="23"/>
       <c r="H124" s="15"/>
+      <c r="I124" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F125" t="s">
-        <v>943</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F125"/>
       <c r="G125" s="23"/>
       <c r="H125" s="15"/>
-      <c r="K125" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F126"/>
+        <v>76</v>
+      </c>
+      <c r="F126" t="s">
+        <v>943</v>
+      </c>
       <c r="G126" s="23"/>
       <c r="H126" s="15"/>
-      <c r="I126" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>623</v>
+      <c r="K126" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F127" t="s">
-        <v>944</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F127"/>
       <c r="G127" s="23"/>
       <c r="H127" s="15"/>
+      <c r="I127" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F128"/>
+        <v>86</v>
+      </c>
+      <c r="F128" t="s">
+        <v>944</v>
+      </c>
       <c r="G128" s="23"/>
       <c r="H128" s="15"/>
-      <c r="I128" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="23"/>
       <c r="H129" s="15"/>
+      <c r="I129" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="K129" s="1" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="23"/>
       <c r="H130" s="15"/>
-      <c r="I130" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="K130" s="1" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D131" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E131" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F131"/>
       <c r="G131" s="23"/>
       <c r="H131" s="15"/>
       <c r="I131" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F132" t="s">
-        <v>945</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F132"/>
       <c r="G132" s="23"/>
       <c r="H132" s="15"/>
-      <c r="K132" s="1" t="s">
-        <v>586</v>
+      <c r="I132" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F133"/>
+        <v>110</v>
+      </c>
+      <c r="F133" t="s">
+        <v>945</v>
+      </c>
       <c r="G133" s="23"/>
       <c r="H133" s="15"/>
-      <c r="I133" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="K133" s="1" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F134"/>
       <c r="G134" s="23"/>
       <c r="H134" s="15"/>
       <c r="I134" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F135"/>
       <c r="G135" s="23"/>
       <c r="H135" s="15"/>
+      <c r="I135" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="K135" s="1" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F136"/>
       <c r="G136" s="23"/>
       <c r="H136" s="15"/>
-      <c r="I136" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="K136" s="1" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F137"/>
-      <c r="G137" s="20" t="s">
-        <v>966</v>
-      </c>
+      <c r="G137" s="23"/>
       <c r="H137" s="15"/>
       <c r="I137" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F138"/>
+      <c r="G138" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K137" s="1" t="s">
+      <c r="K138" s="1" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" s="17"/>
-      <c r="E138" s="15"/>
-      <c r="F138"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="15"/>
-      <c r="K138" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E139" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F139" t="s">
-        <v>946</v>
-      </c>
-      <c r="G139" s="24"/>
-      <c r="H139" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="C139" s="17"/>
+      <c r="E139" s="15"/>
+      <c r="F139"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="15"/>
       <c r="K139" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C140" s="17"/>
-      <c r="F140"/>
-      <c r="G140" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F140" t="s">
+        <v>946</v>
+      </c>
+      <c r="G140" s="24"/>
+      <c r="H140" s="18"/>
+      <c r="K140" s="2" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C141" s="17"/>
       <c r="F141"/>
-      <c r="G141" s="20" t="s">
-        <v>967</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="G141" s="25"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F142"/>
       <c r="G142" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H142" s="15"/>
       <c r="I142" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F143" t="s">
-        <v>947</v>
-      </c>
-      <c r="G143" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143" s="20" t="s">
+        <v>968</v>
+      </c>
       <c r="H143" s="15"/>
+      <c r="I143" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="K143" s="2" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F144"/>
-      <c r="G144" s="20" t="s">
-        <v>969</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F144" t="s">
+        <v>947</v>
+      </c>
+      <c r="G144" s="23"/>
       <c r="H144" s="15"/>
-      <c r="I144" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="K144" s="2" t="s">
-        <v>630</v>
+        <v>582</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F145" t="s">
-        <v>948</v>
-      </c>
-      <c r="G145" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145" s="20" t="s">
+        <v>969</v>
+      </c>
       <c r="H145" s="15"/>
+      <c r="I145" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E146" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="F146" t="s">
-        <v>949</v>
-      </c>
-      <c r="G146" s="24"/>
-      <c r="H146" s="18"/>
-      <c r="K146" s="2" t="s">
-        <v>585</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="G146" s="23"/>
+      <c r="H146" s="15"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C147" s="17"/>
-      <c r="F147"/>
-      <c r="G147" s="25"/>
+        <v>169</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F147" t="s">
+        <v>949</v>
+      </c>
+      <c r="G147" s="24"/>
+      <c r="H147" s="18"/>
+      <c r="K147" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E148" s="15" t="s">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C148" s="17"/>
       <c r="F148"/>
-      <c r="G148" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="G148" s="25"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F149"/>
-      <c r="G149" s="23"/>
+      <c r="G149" s="20" t="s">
+        <v>970</v>
+      </c>
       <c r="H149" s="15"/>
+      <c r="I149" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F150" t="s">
-        <v>950</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F150"/>
       <c r="G150" s="23"/>
       <c r="H150" s="15"/>
-      <c r="K150" s="2" t="s">
-        <v>589</v>
-      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F151" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G151" s="23"/>
       <c r="H151" s="15"/>
+      <c r="K151" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F152"/>
+        <v>192</v>
+      </c>
+      <c r="F152" t="s">
+        <v>951</v>
+      </c>
       <c r="G152" s="23"/>
       <c r="H152" s="15"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F153"/>
-      <c r="G153" s="20" t="s">
-        <v>971</v>
-      </c>
+      <c r="G153" s="23"/>
       <c r="H153" s="15"/>
-      <c r="I153" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K153" s="2" t="s">
-        <v>611</v>
-      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F154"/>
-      <c r="G154" s="23"/>
+      <c r="G154" s="20" t="s">
+        <v>971</v>
+      </c>
       <c r="H154" s="15"/>
+      <c r="I154" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F155"/>
       <c r="G155" s="23"/>
@@ -7908,16 +7931,16 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F156"/>
       <c r="G156" s="23"/>
@@ -7925,27 +7948,31 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E157" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="F157"/>
       <c r="G157" s="23"/>
       <c r="H157" s="15"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C158" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="E158" s="15"/>
       <c r="F158"/>
       <c r="G158" s="23"/>
@@ -7953,800 +7980,796 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>473</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C159" s="17"/>
+      <c r="E159" s="15"/>
       <c r="F159"/>
       <c r="G159" s="23"/>
       <c r="H159" s="15"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>671</v>
+        <v>222</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F160" t="s">
-        <v>952</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="F160"/>
       <c r="G160" s="23"/>
       <c r="H160" s="15"/>
-      <c r="K160" s="2" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E161" s="13"/>
-      <c r="F161"/>
-      <c r="G161" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="H161" s="13"/>
+        <v>671</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F161" t="s">
+        <v>952</v>
+      </c>
+      <c r="G161" s="23"/>
+      <c r="H161" s="15"/>
+      <c r="K161" s="2" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D162" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E162" s="18" t="s">
-        <v>235</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E162" s="13"/>
       <c r="F162"/>
       <c r="G162" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="H162" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>610</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="H162" s="13"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F163"/>
-      <c r="G163" s="25"/>
+      <c r="G163" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F164"/>
-      <c r="G164" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="H164" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="K164" s="2" t="s">
-        <v>618</v>
-      </c>
+      <c r="G164" s="25"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="F165"/>
       <c r="G165" s="20" t="s">
-        <v>975</v>
-      </c>
-      <c r="H165" s="15" t="s">
-        <v>729</v>
+        <v>974</v>
+      </c>
+      <c r="H165" s="18" t="s">
+        <v>730</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>249</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C166" s="14"/>
       <c r="D166" s="14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F166"/>
       <c r="G166" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="H166" s="13" t="s">
-        <v>731</v>
+        <v>975</v>
+      </c>
+      <c r="H166" s="15" t="s">
+        <v>729</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F167"/>
       <c r="G167" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="H167" s="15" t="s">
-        <v>693</v>
+        <v>976</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K167" s="19" t="s">
-        <v>607</v>
+        <v>542</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E168" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F168"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="18"/>
+      <c r="G168" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="H168" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K168" s="19" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F169"/>
-      <c r="G169" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="H169" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>606</v>
-      </c>
+      <c r="G169" s="24"/>
+      <c r="H169" s="18"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F170"/>
-      <c r="G170" s="23"/>
-      <c r="H170" s="15"/>
+      <c r="G170" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="H170" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="F171"/>
-      <c r="G171" s="25"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="15"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="20" t="s">
-        <v>804</v>
+        <v>270</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="F172"/>
       <c r="G172" s="25"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="E173" s="15" t="s">
-        <v>276</v>
+        <v>805</v>
+      </c>
+      <c r="B173" s="13"/>
+      <c r="C173" s="20" t="s">
+        <v>804</v>
       </c>
       <c r="F173"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="15"/>
+      <c r="G173" s="25"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="F174"/>
-      <c r="G174" s="25"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="15"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F175"/>
       <c r="G175" s="25"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F176" t="s">
-        <v>953</v>
-      </c>
-      <c r="K176" s="2" t="s">
-        <v>575</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="F176"/>
+      <c r="G176" s="25"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F177"/>
+        <v>285</v>
+      </c>
+      <c r="F177" t="s">
+        <v>953</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="F178" t="s">
-        <v>954</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F178"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D179" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F179" t="s">
-        <v>955</v>
-      </c>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
-      <c r="K179" s="2" t="s">
-        <v>578</v>
+        <v>954</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F180"/>
+        <v>294</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F180" t="s">
+        <v>955</v>
+      </c>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="K180" s="2" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F181"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F182"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F183" t="s">
-        <v>956</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F183"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F184"/>
+        <v>308</v>
+      </c>
+      <c r="F184" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F185"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F186"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F187" t="s">
-        <v>957</v>
-      </c>
-      <c r="K187" s="2" t="s">
-        <v>572</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F187"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E188" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F188" t="s">
-        <v>958</v>
-      </c>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
+        <v>957</v>
+      </c>
       <c r="K188" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F189"/>
+        <v>323</v>
+      </c>
+      <c r="E189" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F189" t="s">
+        <v>958</v>
+      </c>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="K189" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="E190" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="F190" t="s">
-        <v>959</v>
-      </c>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
+        <v>327</v>
+      </c>
+      <c r="F190"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F191"/>
+        <v>330</v>
+      </c>
+      <c r="E191" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F191" t="s">
+        <v>959</v>
+      </c>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F192"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F193"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D194" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="E194" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F194"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="F195"/>
+      <c r="G195" s="18"/>
+      <c r="H195" s="18"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F196"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F197"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F198"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F199"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F200"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F201"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F202"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F203"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F204"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C205" s="17"/>
+        <v>374</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="F205"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C206" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="E206" s="15" t="s">
-        <v>381</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C206" s="17"/>
       <c r="F206"/>
-      <c r="G206" s="15"/>
-      <c r="H206" s="15"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E207" s="15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F207"/>
       <c r="G207" s="15"/>
@@ -8754,774 +8777,792 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="F208"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F209"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E210" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F210"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="E211" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="F211"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F212"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E213" s="15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F213"/>
-      <c r="G213" s="15"/>
-      <c r="H213" s="15"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="E214" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="F214"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="C215" s="14" t="s">
+        <v>408</v>
       </c>
       <c r="F215"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C216" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="F216"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F217"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F218"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F219"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F220"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F221"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F222"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F223"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F224"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="E225" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="F225" t="s">
-        <v>960</v>
-      </c>
-      <c r="G225" s="15"/>
-      <c r="H225" s="15"/>
-      <c r="K225" s="2" t="s">
-        <v>584</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="F225"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>445</v>
+        <v>440</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E226" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F226" t="s">
+        <v>960</v>
+      </c>
+      <c r="G226" s="15"/>
+      <c r="H226" s="15"/>
+      <c r="K226" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B229" s="13" t="s">
+      <c r="B230" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C229" s="16" t="s">
+      <c r="C230" s="16" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C230" s="16" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C231" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C232" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C233" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C234" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C235" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C236" s="16" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C111" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C110" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C112" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C113" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C114" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C115" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C116" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C117" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C118" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C119" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C120" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C122" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C123" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C124" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C125" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C126" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C127" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C128" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C129" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C130" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C131" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C132" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C133" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C134" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C135" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C136" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C137" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C139" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C141" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C142" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C143" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C144" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C145" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C146" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C148" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C149" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C150" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C151" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C152" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C153" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C154" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C155" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C156" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C157" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C159" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C160" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C161" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C162" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C163" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C164" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C166" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C167" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C168" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C169" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C170" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C171" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C173" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C174" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C175" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C176" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C177" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C178" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C179" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C180" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C181" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C182" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C183" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C184" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C185" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C186" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C187" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C188" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C189" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C190" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C191" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C192" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C193" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C194" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C195" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C196" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C197" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C198" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C199" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C200" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C201" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C202" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C203" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C204" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C206" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C207" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C208" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C209" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C210" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C211" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C212" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C213" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C214" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C216" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C217" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C218" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C219" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C220" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C221" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C222" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C223" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C224" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C225" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C121" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C226" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C215" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C227" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C228" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C229" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C230" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C231" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C232" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C233" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C234" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C235" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D110" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D111" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D112" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D114" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D115" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D117" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D118" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D119" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D125" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D124" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D153" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D120" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D121" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D122" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D123" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D126" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D127" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D128" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D129" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D130" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D132" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D133" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D134" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D135" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D136" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D137" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D139" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D142" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D143" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D144" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D146" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D148" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D150" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D152" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D159" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D160" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D165" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D166" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D167" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D169" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E110" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E111" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E112" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E113" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E114" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E115" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E117" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E118" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E119" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E120" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E122" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E123" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E124" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E126" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E127" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E128" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E129" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E130" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E131" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E132" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E133" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E134" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E135" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E136" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E137" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E138" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E141" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E142" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E143" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E144" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E148" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E149" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E150" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E151" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E152" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E158" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E159" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E161" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E165" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E170" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E173" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E188" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E190" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E210" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E213" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E225" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D194" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E125" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E154" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E155" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E166" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E167" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E156" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E157" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E121" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E145" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E169" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E160" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E116" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E139" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E146" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E153" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E162" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E164" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E168" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E179" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E194" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B116" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B117" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B118" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B119" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B120" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B121" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B122" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B123" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B124" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B125" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B126" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B127" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B128" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B129" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B130" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B131" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B132" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B133" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B134" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B135" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B136" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B137" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B138" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B139" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B140" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B142" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B143" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B144" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B145" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B146" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B147" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B149" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B150" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B151" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B152" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B153" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B154" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B155" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B156" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B157" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B158" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B159" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B160" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B161" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B110" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B111" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B112" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B113" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B114" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B115" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B229" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B228" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B227" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B226" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B225" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B224" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B223" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B222" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B221" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B220" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B219" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B218" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B217" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B216" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B215" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B214" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B213" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B212" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B211" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B210" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B209" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B208" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B207" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B206" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B205" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B204" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B203" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B202" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B201" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B200" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B199" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B198" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B197" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B196" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B195" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B194" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B193" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B192" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B191" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B190" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B189" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B188" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B187" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B186" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B185" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B184" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B183" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B182" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B181" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B180" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B179" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B178" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B177" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B176" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B175" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B174" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B173" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B171" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B170" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B169" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B168" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B167" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B166" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B165" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B164" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B163" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B162" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E91" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
-    <hyperlink ref="E86" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
-    <hyperlink ref="B87" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
-    <hyperlink ref="B99" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
-    <hyperlink ref="B86" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
-    <hyperlink ref="B85" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
-    <hyperlink ref="E83" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
-    <hyperlink ref="B84" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
-    <hyperlink ref="H166" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
-    <hyperlink ref="B83" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
-    <hyperlink ref="C74" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
-    <hyperlink ref="B72" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
-    <hyperlink ref="E72" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
-    <hyperlink ref="D72" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
-    <hyperlink ref="D73" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
-    <hyperlink ref="B71" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
-    <hyperlink ref="E71" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
-    <hyperlink ref="D71" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
-    <hyperlink ref="E70" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
-    <hyperlink ref="D70" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
-    <hyperlink ref="B90" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
-    <hyperlink ref="B69" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
-    <hyperlink ref="E69" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
-    <hyperlink ref="D69" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
-    <hyperlink ref="B68" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
-    <hyperlink ref="E68" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
-    <hyperlink ref="D68" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
-    <hyperlink ref="E67" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
-    <hyperlink ref="D67" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
-    <hyperlink ref="D66" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
-    <hyperlink ref="E66" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
-    <hyperlink ref="B65" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
-    <hyperlink ref="E65" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
-    <hyperlink ref="D65" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
-    <hyperlink ref="B107" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
-    <hyperlink ref="B64" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
-    <hyperlink ref="D64" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
-    <hyperlink ref="E64" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
-    <hyperlink ref="E63" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
-    <hyperlink ref="C63" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
-    <hyperlink ref="D63" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
-    <hyperlink ref="C172" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
-    <hyperlink ref="C62" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
-    <hyperlink ref="B60" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
-    <hyperlink ref="E60" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
-    <hyperlink ref="E59" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
-    <hyperlink ref="D59" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
-    <hyperlink ref="D60" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
-    <hyperlink ref="B58" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
-    <hyperlink ref="E56" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
-    <hyperlink ref="B56" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
-    <hyperlink ref="D56" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
-    <hyperlink ref="B55" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
-    <hyperlink ref="E55" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
-    <hyperlink ref="E54" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
-    <hyperlink ref="E53" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
-    <hyperlink ref="D53" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
-    <hyperlink ref="D54" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
-    <hyperlink ref="B51" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
-    <hyperlink ref="E51" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
-    <hyperlink ref="E50" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
-    <hyperlink ref="D50" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
-    <hyperlink ref="D49" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
-    <hyperlink ref="B67" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
-    <hyperlink ref="E47" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
-    <hyperlink ref="D47" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
-    <hyperlink ref="D44" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
-    <hyperlink ref="B44" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
-    <hyperlink ref="B46" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
-    <hyperlink ref="B80" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
-    <hyperlink ref="E42" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
-    <hyperlink ref="E38" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
-    <hyperlink ref="D38" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
-    <hyperlink ref="G39" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
-    <hyperlink ref="G40" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
-    <hyperlink ref="G72" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
-    <hyperlink ref="G101" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
-    <hyperlink ref="G110" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
-    <hyperlink ref="G111" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
-    <hyperlink ref="G121" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
-    <hyperlink ref="G137" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
-    <hyperlink ref="G142" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
-    <hyperlink ref="G141" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
-    <hyperlink ref="G144" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
-    <hyperlink ref="G148" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
-    <hyperlink ref="G153" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
-    <hyperlink ref="G161" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
-    <hyperlink ref="G162" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
-    <hyperlink ref="G164" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
-    <hyperlink ref="G165" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
-    <hyperlink ref="G166" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
-    <hyperlink ref="G167" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
-    <hyperlink ref="G169" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
-    <hyperlink ref="E37" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
-    <hyperlink ref="F37" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
-    <hyperlink ref="D37" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
-    <hyperlink ref="D34" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
-    <hyperlink ref="E32" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
-    <hyperlink ref="C85" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
-    <hyperlink ref="D27" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
-    <hyperlink ref="C27" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
-    <hyperlink ref="D26" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
-    <hyperlink ref="E26" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
-    <hyperlink ref="E25" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
-    <hyperlink ref="F25" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
-    <hyperlink ref="F22" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
-    <hyperlink ref="D33" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
-    <hyperlink ref="G33" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
-    <hyperlink ref="G32" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
-    <hyperlink ref="C8" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
+    <hyperlink ref="C112" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C111" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C113" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C114" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C115" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C116" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C117" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C118" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C119" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C120" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C121" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C123" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C124" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C125" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C126" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C127" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C128" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C129" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C130" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C131" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C132" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C133" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C134" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C135" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C136" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C137" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C138" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C140" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C142" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C143" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C144" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C145" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C146" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C147" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C149" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C150" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C151" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C152" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C153" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C154" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C155" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C156" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C157" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C158" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C160" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C161" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C162" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C163" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C164" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C165" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C167" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C168" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C169" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C170" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C171" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C172" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C174" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C175" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C176" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C177" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C178" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C179" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C180" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C181" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C182" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C183" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C184" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C185" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C186" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C187" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C188" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C189" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C190" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C191" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C192" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C193" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C194" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C195" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C196" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C197" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C198" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C199" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C200" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C201" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C202" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C203" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C204" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C205" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C207" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C208" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C209" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C210" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C211" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C212" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C213" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C214" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C215" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C217" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C218" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C219" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C220" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C221" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C222" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C223" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C224" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C225" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C226" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C122" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C227" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C216" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C228" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C229" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C230" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C231" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C232" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C233" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C234" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C235" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C236" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D111" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D112" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D113" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D115" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D116" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D118" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D119" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D120" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D126" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D125" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D154" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D121" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D122" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D123" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D124" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D127" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D128" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D129" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D130" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D131" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D133" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D134" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D135" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D136" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D137" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D138" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D140" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D143" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D144" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D145" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D147" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D149" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D151" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D153" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D160" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D163" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D166" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D167" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D168" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D170" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D180" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E111" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E112" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E113" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E114" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E115" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E116" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E118" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E119" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E120" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E121" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E123" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E124" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E125" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E127" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E128" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E129" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E130" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E131" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E132" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E133" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E134" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E135" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E136" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E137" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E138" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E139" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E142" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E143" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E144" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E145" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E149" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E150" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E151" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E152" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E153" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E159" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E160" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E162" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E166" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E171" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E174" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E189" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E191" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E207" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E208" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E211" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E214" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E226" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D195" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E126" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E155" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E156" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E167" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E168" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E157" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E158" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E122" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E146" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E170" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E161" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E117" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E140" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E147" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E154" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E163" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E165" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E169" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E180" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E195" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B117" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B118" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B119" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B120" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B121" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B122" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B123" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B124" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B125" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B126" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B127" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B128" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B129" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B130" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B131" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B132" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B133" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B134" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B135" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B136" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B137" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B138" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B139" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B140" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B141" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B143" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B144" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B145" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B146" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B147" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B148" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B150" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B151" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B152" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B153" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B154" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B155" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B156" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B157" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B158" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B159" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B160" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B161" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B162" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B111" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B112" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B113" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B114" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B115" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B116" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B230" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B229" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B228" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B227" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B226" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B225" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B224" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B223" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B222" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B221" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B220" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B219" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B218" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B217" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B216" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B215" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B214" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B213" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B212" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B211" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B210" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B209" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B208" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B207" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B206" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B205" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B204" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B203" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B202" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B201" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B200" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B199" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B198" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B197" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B196" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B195" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B194" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B193" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B192" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B191" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B190" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B189" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B188" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B187" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B186" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B185" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B184" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B183" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B182" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B181" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B180" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B179" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B178" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B177" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B176" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B175" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B174" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B172" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B171" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B170" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B169" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B168" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B167" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B166" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B165" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B164" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B163" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E92" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
+    <hyperlink ref="E87" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
+    <hyperlink ref="B88" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
+    <hyperlink ref="B100" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
+    <hyperlink ref="B87" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
+    <hyperlink ref="B86" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
+    <hyperlink ref="E84" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
+    <hyperlink ref="B85" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
+    <hyperlink ref="H167" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
+    <hyperlink ref="B84" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
+    <hyperlink ref="C75" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
+    <hyperlink ref="B73" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
+    <hyperlink ref="E73" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
+    <hyperlink ref="D73" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
+    <hyperlink ref="D74" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
+    <hyperlink ref="B72" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
+    <hyperlink ref="E72" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
+    <hyperlink ref="D72" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
+    <hyperlink ref="E71" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
+    <hyperlink ref="D71" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
+    <hyperlink ref="B91" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
+    <hyperlink ref="B70" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
+    <hyperlink ref="E70" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
+    <hyperlink ref="D70" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
+    <hyperlink ref="B69" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
+    <hyperlink ref="E69" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
+    <hyperlink ref="D69" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
+    <hyperlink ref="E68" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
+    <hyperlink ref="D68" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
+    <hyperlink ref="D67" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
+    <hyperlink ref="E67" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
+    <hyperlink ref="B66" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
+    <hyperlink ref="E66" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
+    <hyperlink ref="D66" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
+    <hyperlink ref="B108" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
+    <hyperlink ref="B65" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
+    <hyperlink ref="D65" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
+    <hyperlink ref="E65" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
+    <hyperlink ref="E64" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
+    <hyperlink ref="C64" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
+    <hyperlink ref="D64" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
+    <hyperlink ref="C173" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
+    <hyperlink ref="C63" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
+    <hyperlink ref="B61" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
+    <hyperlink ref="E61" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
+    <hyperlink ref="E60" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
+    <hyperlink ref="D60" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
+    <hyperlink ref="D61" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
+    <hyperlink ref="B59" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
+    <hyperlink ref="E57" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
+    <hyperlink ref="B57" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
+    <hyperlink ref="D57" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
+    <hyperlink ref="B56" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
+    <hyperlink ref="E56" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
+    <hyperlink ref="E55" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
+    <hyperlink ref="E54" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
+    <hyperlink ref="D54" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
+    <hyperlink ref="D55" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
+    <hyperlink ref="B52" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
+    <hyperlink ref="E52" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
+    <hyperlink ref="E51" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
+    <hyperlink ref="D51" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
+    <hyperlink ref="D50" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
+    <hyperlink ref="B68" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
+    <hyperlink ref="E48" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
+    <hyperlink ref="D48" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
+    <hyperlink ref="D45" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
+    <hyperlink ref="B45" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
+    <hyperlink ref="B47" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
+    <hyperlink ref="B81" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
+    <hyperlink ref="E43" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
+    <hyperlink ref="E39" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
+    <hyperlink ref="D39" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
+    <hyperlink ref="G40" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
+    <hyperlink ref="G41" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
+    <hyperlink ref="G73" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
+    <hyperlink ref="G102" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
+    <hyperlink ref="G111" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
+    <hyperlink ref="G112" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
+    <hyperlink ref="G122" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
+    <hyperlink ref="G138" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
+    <hyperlink ref="G143" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
+    <hyperlink ref="G142" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
+    <hyperlink ref="G145" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
+    <hyperlink ref="G149" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
+    <hyperlink ref="G154" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
+    <hyperlink ref="G162" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
+    <hyperlink ref="G163" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
+    <hyperlink ref="G165" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
+    <hyperlink ref="G166" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
+    <hyperlink ref="G167" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
+    <hyperlink ref="G168" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
+    <hyperlink ref="G170" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
+    <hyperlink ref="E38" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
+    <hyperlink ref="F38" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
+    <hyperlink ref="D38" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
+    <hyperlink ref="D35" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
+    <hyperlink ref="E33" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
+    <hyperlink ref="C86" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
+    <hyperlink ref="D28" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
+    <hyperlink ref="C28" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
+    <hyperlink ref="D27" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
+    <hyperlink ref="E27" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
+    <hyperlink ref="E26" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
+    <hyperlink ref="F26" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
+    <hyperlink ref="F23" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
+    <hyperlink ref="D34" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
+    <hyperlink ref="G34" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
+    <hyperlink ref="G33" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
+    <hyperlink ref="C9" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
+    <hyperlink ref="C2" r:id="rId458" xr:uid="{07B89B79-3496-5B42-A5F0-457EAF8912ED}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/articlelinks.xlsx
+++ b/articlelinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Dropbox/markdown_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F376C31-09C7-614F-BA1D-5E37BA056653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F3142-E2C6-9140-BB75-988ACA3A674D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1177">
   <si>
     <t>文科生如何理解卷积神经网络？</t>
   </si>
@@ -3534,6 +3534,78 @@
   </si>
   <si>
     <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;quickforward=1&amp;id=1286386</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/373774006</t>
+  </si>
+  <si>
+    <t>如何不花钱，让人工智能帮你视频抠图？</t>
+  </si>
+  <si>
+    <t>Roam Untangled 这门课好在哪儿？</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/377951682</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/67051</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/66759</t>
+  </si>
+  <si>
+    <t>http://bbs.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;id=1289715</t>
+  </si>
+  <si>
+    <t>http://bbs.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;id=1287413</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/3ruQOcfevDDfKAh7eM2zrg</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/r1pd57gRLdgundIxA-HAmA</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/7apyR8HAwYxQsx5KvLbaRw</t>
+  </si>
+  <si>
+    <t>Roam Book Club 如何共读一本书？</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/65834</t>
+  </si>
+  <si>
+    <t>如何用好 Roam Research ？（二）：笔记节点粒度</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/65832</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/378591718</t>
+  </si>
+  <si>
+    <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;quickforward=1&amp;id=1290110</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/378597918</t>
+  </si>
+  <si>
+    <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;quickforward=1&amp;id=1290112</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/wjUeI-7BQ9j6KeEhFx-sVw</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/67087</t>
+  </si>
+  <si>
+    <t>如何用好 Roam Research ？（三）：Roam 不是卡片盒</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/378627738</t>
+  </si>
+  <si>
+    <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;quickforward=1&amp;id=1290122</t>
   </si>
 </sst>
 </file>
@@ -4026,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N236"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4081,19 +4153,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1149</v>
+        <v>1174</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1152</v>
+        <v>1176</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1150</v>
+        <v>1175</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1151</v>
+        <v>1173</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4106,13 +4175,20 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+        <v>1161</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1157</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="4"/>
@@ -4124,20 +4200,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1143</v>
-      </c>
+        <v>1163</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="4"/>
@@ -4149,19 +4218,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1137</v>
+        <v>1154</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1138</v>
+        <v>1162</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1136</v>
+        <v>1160</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1153</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1140</v>
+        <v>1158</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4174,13 +4243,20 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+        <v>1148</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1151</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
@@ -4192,20 +4268,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1132</v>
+        <v>1147</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1130</v>
-      </c>
+        <v>1146</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
@@ -4217,16 +4286,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1121</v>
+        <v>1166</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1127</v>
+        <v>1172</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1171</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1122</v>
+        <v>1170</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1123</v>
+        <v>1165</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4239,19 +4311,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>1128</v>
+        <v>1141</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1145</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>1120</v>
+        <v>1144</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1142</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1124</v>
+        <v>1143</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -4264,16 +4336,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1116</v>
+        <v>1137</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1117</v>
+        <v>1138</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1139</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1115</v>
+        <v>1136</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1125</v>
+        <v>1140</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -4286,17 +4361,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1113</v>
+        <v>1135</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1112</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
@@ -4308,16 +4379,21 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1111</v>
+        <v>1132</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>1109</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4328,13 +4404,17 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1099</v>
+        <v>1121</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+        <v>1127</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1123</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
@@ -4346,13 +4426,20 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+        <v>1119</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1124</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
@@ -4364,19 +4451,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1095</v>
+        <v>1116</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1094</v>
+        <v>1117</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1092</v>
+        <v>1115</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1093</v>
+        <v>1125</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -4389,16 +4473,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1089</v>
+        <v>1113</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1088</v>
+        <v>1114</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1091</v>
+        <v>1118</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1090</v>
+        <v>1112</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -4411,14 +4495,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1081</v>
+        <v>1110</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>1109</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -4429,20 +4515,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>1087</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="4"/>
@@ -4454,10 +4533,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1080</v>
+        <v>1097</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1079</v>
+        <v>1098</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -4472,16 +4551,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1041</v>
+        <v>1095</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1044</v>
+        <v>1096</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1043</v>
+        <v>1092</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1042</v>
+        <v>1093</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4494,19 +4576,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1037</v>
+        <v>1089</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>1040</v>
+        <v>1088</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1039</v>
+        <v>1091</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1038</v>
+        <v>1090</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4519,16 +4598,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1034</v>
+        <v>1082</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1046</v>
+        <v>1081</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1169</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1036</v>
+        <v>1168</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1035</v>
+        <v>1167</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4541,19 +4623,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1024</v>
+        <v>1083</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1047</v>
+        <v>1084</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1026</v>
+        <v>1085</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>1027</v>
+        <v>1086</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>1087</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4566,17 +4648,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1028</v>
+        <v>1080</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>1029</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="4"/>
@@ -4588,13 +4666,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1031</v>
+        <v>1041</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1044</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>1030</v>
+        <v>1043</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>1042</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -4607,16 +4688,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>1023</v>
+        <v>1045</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>1038</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4629,16 +4713,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>1019</v>
+        <v>1034</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1036</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -4651,19 +4735,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>1013</v>
+        <v>1024</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>1015</v>
+        <v>1025</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>1027</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -4676,19 +4760,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>1006</v>
+        <v>1048</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>1010</v>
+        <v>1033</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>1029</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -4701,13 +4782,14 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+        <v>1031</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>1030</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="4"/>
@@ -4719,19 +4801,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>1011</v>
+        <v>1049</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -4744,23 +4823,18 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>997</v>
+        <v>1017</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>1019</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>1108</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -4771,23 +4845,21 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>992</v>
+        <v>1012</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>1014</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>1107</v>
-      </c>
+        <v>1015</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -4798,23 +4870,21 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>996</v>
+        <v>1050</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1006</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>1106</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -4825,23 +4895,14 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>989</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>988</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>1105</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -4852,13 +4913,20 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+        <v>1003</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>1011</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="4"/>
@@ -4870,16 +4938,23 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>1058</v>
+        <v>993</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>994</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+        <v>997</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>1108</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -4890,21 +4965,23 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>982</v>
+        <v>991</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>995</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>981</v>
-      </c>
-      <c r="G38" s="6"/>
+        <v>992</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>1107</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -4915,21 +4992,23 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>894</v>
+        <v>990</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>895</v>
+        <v>1055</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>998</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="G39" s="6"/>
+        <v>1002</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>1106</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4940,22 +5019,22 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>884</v>
+        <v>986</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>989</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>892</v>
+        <v>988</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>1105</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
@@ -4967,23 +5046,14 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>890</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>893</v>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -4994,16 +5064,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="G42" s="21"/>
+        <v>985</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -5014,21 +5084,21 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>886</v>
+        <v>979</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>982</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F43" t="s">
-        <v>898</v>
-      </c>
-      <c r="G43" s="20"/>
+        <v>980</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -5039,18 +5109,21 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G44" s="21"/>
+        <v>1059</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5061,24 +5134,23 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>871</v>
+        <v>881</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>884</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="F45" t="s">
-        <v>899</v>
-      </c>
-      <c r="G45" s="21"/>
+        <v>887</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>889</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>892</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -5089,16 +5161,23 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B46" s="20"/>
+        <v>880</v>
+      </c>
       <c r="C46" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="6"/>
-      <c r="F46"/>
-      <c r="G46" s="21"/>
+        <v>1060</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>893</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -5109,22 +5188,14 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F47" t="s">
-        <v>900</v>
+        <v>1061</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="21" t="s">
+        <v>891</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="6"/>
@@ -5137,22 +5208,19 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>863</v>
+        <v>1062</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>886</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="F48" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="6"/>
@@ -5165,22 +5233,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>864</v>
+        <v>1063</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="F49" t="s">
-        <v>902</v>
+        <v>1129</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="6"/>
@@ -5193,22 +5255,22 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>857</v>
+        <v>867</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>873</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="F50" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="6"/>
@@ -5221,29 +5283,19 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>853</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B51" s="20"/>
       <c r="C51" s="5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="F51" t="s">
-        <v>904</v>
-      </c>
-      <c r="G51" s="20"/>
+        <v>1066</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="6"/>
+      <c r="F51"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -5251,21 +5303,24 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>845</v>
+        <v>874</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>847</v>
+        <v>1067</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>869</v>
       </c>
       <c r="F52" t="s">
-        <v>905</v>
-      </c>
-      <c r="G52" s="20"/>
+        <v>900</v>
+      </c>
+      <c r="G52" s="21"/>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -5276,21 +5331,24 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>848</v>
+        <v>1068</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F53" t="s">
-        <v>906</v>
-      </c>
-      <c r="G53" s="21"/>
+        <v>901</v>
+      </c>
+      <c r="G53" s="20"/>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5301,24 +5359,24 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>840</v>
+        <v>1069</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>862</v>
       </c>
       <c r="F54" t="s">
-        <v>907</v>
-      </c>
-      <c r="G54" s="20"/>
+        <v>902</v>
+      </c>
+      <c r="G54" s="21"/>
       <c r="H54" s="6"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -5329,22 +5387,24 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F55"/>
-      <c r="G55" s="20"/>
+        <v>855</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="F55" t="s">
+        <v>903</v>
+      </c>
+      <c r="G55" s="21"/>
       <c r="H55" s="6"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5355,22 +5415,29 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>834</v>
+        <v>849</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1076</v>
+        <v>1071</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>851</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="F56"/>
+        <v>850</v>
+      </c>
+      <c r="F56" t="s">
+        <v>904</v>
+      </c>
       <c r="G56" s="20"/>
       <c r="H56" s="6"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -5378,22 +5445,19 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>828</v>
+        <v>1072</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>825</v>
+        <v>847</v>
       </c>
       <c r="F57" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="6"/>
@@ -5406,24 +5470,21 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>832</v>
+        <v>844</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>846</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>831</v>
+        <v>1073</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>848</v>
       </c>
       <c r="F58" t="s">
-        <v>909</v>
-      </c>
-      <c r="G58" s="20"/>
+        <v>906</v>
+      </c>
+      <c r="G58" s="21"/>
       <c r="H58" s="6"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -5434,24 +5495,24 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>820</v>
+        <v>838</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>822</v>
+        <v>1074</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>841</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>840</v>
       </c>
       <c r="F59" t="s">
-        <v>910</v>
-      </c>
-      <c r="G59" s="21"/>
+        <v>907</v>
+      </c>
+      <c r="G59" s="20"/>
       <c r="H59" s="6"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -5462,23 +5523,21 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>814</v>
+        <v>854</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>813</v>
+        <v>1075</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>815</v>
-      </c>
-      <c r="F60" t="s">
-        <v>911</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="F60"/>
       <c r="G60" s="20"/>
       <c r="H60" s="6"/>
       <c r="I60" s="4"/>
@@ -5490,23 +5549,18 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>818</v>
+        <v>1076</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>809</v>
-      </c>
-      <c r="F61" t="s">
-        <v>912</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="F61"/>
       <c r="G61" s="20"/>
       <c r="H61" s="6"/>
       <c r="I61" s="4"/>
@@ -5518,14 +5572,23 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B62" s="20"/>
+        <v>827</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>826</v>
+      </c>
       <c r="C62" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62"/>
+        <v>1077</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="F62" t="s">
+        <v>908</v>
+      </c>
       <c r="G62" s="20"/>
       <c r="H62" s="6"/>
       <c r="I62" s="4"/>
@@ -5537,14 +5600,24 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63"/>
-      <c r="G63" s="21"/>
+        <v>829</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="F63" t="s">
+        <v>909</v>
+      </c>
+      <c r="G63" s="20"/>
       <c r="H63" s="6"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -5555,24 +5628,24 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>801</v>
+        <v>821</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="F64" t="s">
-        <v>913</v>
-      </c>
-      <c r="G64" s="20"/>
+        <v>910</v>
+      </c>
+      <c r="G64" s="21"/>
       <c r="H64" s="6"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -5583,22 +5656,22 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>795</v>
+        <v>816</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="F65" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="6"/>
@@ -5611,22 +5684,22 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="F66" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="6"/>
@@ -5639,23 +5712,14 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>786</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="B67" s="20"/>
       <c r="C67" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>784</v>
-      </c>
-      <c r="F67" t="s">
-        <v>916</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67"/>
       <c r="G67" s="20"/>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
@@ -5667,24 +5731,14 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="F68" t="s">
-        <v>917</v>
-      </c>
-      <c r="G68" s="20"/>
+        <v>806</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68"/>
+      <c r="G68" s="21"/>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -5695,21 +5749,23 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>777</v>
+        <v>799</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F69"/>
+        <v>801</v>
+      </c>
+      <c r="F69" t="s">
+        <v>913</v>
+      </c>
       <c r="G69" s="20"/>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
@@ -5721,21 +5777,23 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>771</v>
+        <v>796</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>772</v>
+        <v>797</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F70"/>
+        <v>798</v>
+      </c>
+      <c r="F70" t="s">
+        <v>914</v>
+      </c>
       <c r="G70" s="20"/>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
@@ -5747,22 +5805,22 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>764</v>
+        <v>788</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>789</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>766</v>
+        <v>791</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>765</v>
+        <v>790</v>
       </c>
       <c r="F71" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="6"/>
@@ -5775,22 +5833,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>759</v>
+        <v>787</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="F72" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="6"/>
@@ -5803,26 +5861,24 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="F73" t="s">
-        <v>920</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="G73" s="20"/>
       <c r="H73" s="6"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -5833,24 +5889,22 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>748</v>
+        <v>773</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>774</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="F74" t="s">
-        <v>921</v>
-      </c>
-      <c r="G74" s="21"/>
+        <v>776</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74" s="20"/>
       <c r="H74" s="6"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -5861,24 +5915,22 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="F75" t="s">
-        <v>922</v>
-      </c>
-      <c r="G75" s="21"/>
+        <v>768</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75" s="20"/>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -5889,24 +5941,24 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>738</v>
+        <v>763</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>739</v>
+        <v>764</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>737</v>
+        <v>766</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>765</v>
       </c>
       <c r="F76" t="s">
-        <v>923</v>
-      </c>
-      <c r="G76" s="21"/>
+        <v>918</v>
+      </c>
+      <c r="G76" s="20"/>
       <c r="H76" s="6"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -5917,24 +5969,24 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>734</v>
+        <v>758</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>759</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>733</v>
+        <v>761</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>760</v>
       </c>
       <c r="F77" t="s">
-        <v>924</v>
-      </c>
-      <c r="G77" s="21"/>
+        <v>919</v>
+      </c>
+      <c r="G77" s="20"/>
       <c r="H77" s="6"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -5945,24 +5997,26 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>725</v>
+        <v>751</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>726</v>
+        <v>754</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F78" t="s">
-        <v>925</v>
-      </c>
-      <c r="G78" s="21"/>
+        <v>920</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>961</v>
+      </c>
       <c r="H78" s="6"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -5973,21 +6027,23 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>719</v>
+        <v>755</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F79"/>
+        <v>750</v>
+      </c>
+      <c r="F79" t="s">
+        <v>921</v>
+      </c>
       <c r="G79" s="21"/>
       <c r="H79" s="6"/>
       <c r="I79" s="4"/>
@@ -5999,22 +6055,22 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>721</v>
+        <v>745</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="F80" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="6"/>
@@ -6027,22 +6083,22 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>709</v>
+        <v>738</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>739</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="F81" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="G81" s="21"/>
       <c r="H81" s="6"/>
@@ -6055,22 +6111,22 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>705</v>
+        <v>734</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>707</v>
+        <v>736</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="F82" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="6"/>
@@ -6083,21 +6139,23 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F83"/>
+        <v>726</v>
+      </c>
+      <c r="F83" t="s">
+        <v>925</v>
+      </c>
       <c r="G83" s="21"/>
       <c r="H83" s="6"/>
       <c r="I83" s="4"/>
@@ -6109,22 +6167,22 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>695</v>
+        <v>716</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>696</v>
+        <v>719</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>718</v>
       </c>
       <c r="F84"/>
-      <c r="G84" s="22"/>
+      <c r="G84" s="21"/>
       <c r="H84" s="6"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -6135,22 +6193,22 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>686</v>
+        <v>712</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="F85" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G85" s="21"/>
       <c r="H85" s="6"/>
@@ -6163,28 +6221,26 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>684</v>
+        <v>709</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>682</v>
+        <v>723</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="F86" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -6193,25 +6249,25 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>679</v>
+        <v>704</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>705</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>673</v>
+        <v>707</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="F87" t="s">
-        <v>931</v>
-      </c>
-      <c r="G87" s="22"/>
-      <c r="H87" s="13"/>
+        <v>928</v>
+      </c>
+      <c r="G87" s="21"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -6221,23 +6277,21 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>677</v>
+        <v>698</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="F88" t="s">
-        <v>932</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="F88"/>
       <c r="G88" s="21"/>
       <c r="H88" s="6"/>
       <c r="I88" s="4"/>
@@ -6249,24 +6303,22 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>659</v>
+        <v>694</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>695</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="F89" t="s">
-        <v>933</v>
-      </c>
-      <c r="G89" s="21"/>
+        <v>697</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89" s="22"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -6277,54 +6329,56 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>654</v>
+        <v>687</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>686</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="F90" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G90" s="21"/>
       <c r="H90" s="6"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>665</v>
+        <v>681</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F91"/>
+        <v>683</v>
+      </c>
+      <c r="F91" t="s">
+        <v>930</v>
+      </c>
       <c r="G91" s="21"/>
       <c r="H91" s="6"/>
-      <c r="I91" s="4"/>
+      <c r="I91" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -6333,22 +6387,22 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>603</v>
+        <v>672</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>679</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="F92" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G92" s="22"/>
       <c r="H92" s="13"/>
@@ -6361,109 +6415,111 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>601</v>
+        <v>668</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="F93"/>
+        <v>669</v>
+      </c>
+      <c r="F93" t="s">
+        <v>932</v>
+      </c>
       <c r="G93" s="21"/>
       <c r="H93" s="6"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4" t="s">
-        <v>658</v>
-      </c>
+      <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>595</v>
+        <v>660</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>598</v>
+        <v>662</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="F94"/>
+        <v>661</v>
+      </c>
+      <c r="F94" t="s">
+        <v>933</v>
+      </c>
       <c r="G94" s="21"/>
       <c r="H94" s="6"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4" t="s">
-        <v>640</v>
-      </c>
+      <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>591</v>
+        <v>654</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="F95"/>
+        <v>655</v>
+      </c>
+      <c r="F95" t="s">
+        <v>934</v>
+      </c>
       <c r="G95" s="21"/>
       <c r="H95" s="6"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
+      <c r="K95" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>564</v>
+        <v>647</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>569</v>
+        <v>665</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="F96"/>
       <c r="G96" s="21"/>
       <c r="H96" s="6"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -6471,61 +6527,55 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>560</v>
+        <v>666</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>558</v>
+        <v>651</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>605</v>
       </c>
       <c r="F97" t="s">
-        <v>936</v>
-      </c>
-      <c r="G97" s="21"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="4" t="s">
-        <v>561</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="G97" s="22"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>646</v>
+        <v>600</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>554</v>
+        <v>652</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="F98"/>
       <c r="G98" s="21"/>
       <c r="H98" s="6"/>
-      <c r="I98" s="4" t="s">
-        <v>562</v>
-      </c>
+      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -6533,29 +6583,27 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>545</v>
+        <v>595</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>547</v>
+        <v>597</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="21"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -6563,83 +6611,85 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>678</v>
+        <v>590</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>506</v>
+        <v>593</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="21"/>
       <c r="H100" s="6"/>
-      <c r="I100" s="4" t="s">
-        <v>508</v>
-      </c>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4" t="s">
-        <v>639</v>
-      </c>
+      <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>626</v>
+        <v>563</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="E101" s="6"/>
+        <v>564</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="F101"/>
       <c r="G101" s="21"/>
       <c r="H101" s="6"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="J101" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="F102" t="s">
-        <v>937</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>962</v>
-      </c>
+        <v>936</v>
+      </c>
+      <c r="G102" s="21"/>
       <c r="H102" s="6"/>
       <c r="I102" s="4" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -6647,55 +6697,59 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>493</v>
+        <v>646</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="F103"/>
       <c r="G103" s="21"/>
       <c r="H103" s="6"/>
-      <c r="I103" s="4"/>
+      <c r="I103" s="4" t="s">
+        <v>562</v>
+      </c>
       <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
+      <c r="K103" s="4" t="s">
+        <v>643</v>
+      </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="21"/>
       <c r="H104" s="6"/>
       <c r="I104" s="4" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -6703,29 +6757,29 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>488</v>
+        <v>502</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>678</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="21"/>
       <c r="H105" s="6"/>
       <c r="I105" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
@@ -6733,29 +6787,19 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>478</v>
+        <v>626</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>481</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="E106" s="6"/>
       <c r="F106"/>
       <c r="G106" s="21"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="4" t="s">
-        <v>512</v>
-      </c>
+      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -6763,81 +6807,89 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107"/>
-      <c r="G107" s="21"/>
+        <v>498</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F107" t="s">
+        <v>937</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>962</v>
+      </c>
       <c r="H107" s="6"/>
       <c r="I107" s="4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
+      <c r="K107" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>793</v>
+        <v>493</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="F108"/>
       <c r="G108" s="21"/>
       <c r="H108" s="6"/>
-      <c r="I108" s="2" t="s">
-        <v>515</v>
-      </c>
+      <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="4" t="s">
-        <v>629</v>
-      </c>
+      <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F109" t="s">
-        <v>938</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="F109"/>
       <c r="G109" s="21"/>
       <c r="H109" s="6"/>
       <c r="I109" s="4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
@@ -6845,1085 +6897,1118 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="21"/>
       <c r="H110" s="6"/>
       <c r="I110" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F111"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="F113"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F114" t="s">
+        <v>938</v>
+      </c>
+      <c r="G114" s="21"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F115"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B116" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C116" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D116" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F111"/>
-      <c r="G111" s="20" t="s">
+      <c r="F116"/>
+      <c r="G116" s="20" t="s">
         <v>963</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="1" t="s">
+      <c r="H116" s="15"/>
+      <c r="I116" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K111" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+    <row r="117" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C117" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D117" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F112"/>
-      <c r="G112" s="20" t="s">
+      <c r="F117"/>
+      <c r="G117" s="20" t="s">
         <v>964</v>
       </c>
-      <c r="H112" s="15"/>
-    </row>
-    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B118" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C118" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D118" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F113"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="15"/>
-      <c r="K113" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F115" t="s">
-        <v>939</v>
-      </c>
-      <c r="G115" s="23"/>
-      <c r="H115" s="15"/>
-      <c r="K115" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F116" t="s">
-        <v>940</v>
-      </c>
-      <c r="G116" s="23"/>
-      <c r="H116" s="15"/>
-      <c r="K116" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F117" t="s">
-        <v>941</v>
-      </c>
-      <c r="G117" s="23"/>
-      <c r="H117" s="15"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F118" t="s">
-        <v>942</v>
-      </c>
+      <c r="F118"/>
       <c r="G118" s="23"/>
       <c r="H118" s="15"/>
-      <c r="K118" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>42</v>
+      <c r="K118" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="23"/>
       <c r="H119" s="15"/>
-      <c r="I119" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F120"/>
+      <c r="I119" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" t="s">
+        <v>939</v>
+      </c>
       <c r="G120" s="23"/>
       <c r="H120" s="15"/>
-      <c r="I120" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F121"/>
+      <c r="K120" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>940</v>
+      </c>
       <c r="G121" s="23"/>
       <c r="H121" s="15"/>
-      <c r="I121" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K121" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F122"/>
-      <c r="G122" s="20" t="s">
-        <v>965</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F122" t="s">
+        <v>941</v>
+      </c>
+      <c r="G122" s="23"/>
       <c r="H122" s="15"/>
-      <c r="I122" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F123"/>
+        <v>37</v>
+      </c>
+      <c r="F123" t="s">
+        <v>942</v>
+      </c>
       <c r="G123" s="23"/>
       <c r="H123" s="15"/>
-      <c r="I123" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="K123" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F124"/>
       <c r="G124" s="23"/>
       <c r="H124" s="15"/>
       <c r="I124" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>71</v>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="23"/>
       <c r="H125" s="15"/>
-    </row>
-    <row r="126" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F126" t="s">
-        <v>943</v>
-      </c>
+      <c r="I125" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126"/>
       <c r="G126" s="23"/>
       <c r="H126" s="15"/>
+      <c r="I126" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="K126" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>77</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="F127"/>
-      <c r="G127" s="23"/>
+      <c r="G127" s="20" t="s">
+        <v>965</v>
+      </c>
       <c r="H127" s="15"/>
-      <c r="I127" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F128" t="s">
-        <v>944</v>
-      </c>
+      <c r="I127" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F128"/>
       <c r="G128" s="23"/>
       <c r="H128" s="15"/>
-    </row>
-    <row r="129" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>91</v>
+      <c r="I128" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="23"/>
       <c r="H129" s="15"/>
-      <c r="I129" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I129" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="23"/>
       <c r="H130" s="15"/>
-      <c r="K130" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>100</v>
+        <v>74</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F131"/>
+        <v>76</v>
+      </c>
+      <c r="F131" t="s">
+        <v>943</v>
+      </c>
       <c r="G131" s="23"/>
       <c r="H131" s="15"/>
-      <c r="I131" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>620</v>
+      <c r="K131" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>103</v>
+        <v>77</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D132" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="E132" s="8" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F132"/>
       <c r="G132" s="23"/>
       <c r="H132" s="15"/>
       <c r="I132" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F133" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G133" s="23"/>
       <c r="H133" s="15"/>
-      <c r="K133" s="1" t="s">
-        <v>586</v>
-      </c>
     </row>
     <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F134"/>
       <c r="G134" s="23"/>
       <c r="H134" s="15"/>
       <c r="I134" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F135"/>
       <c r="G135" s="23"/>
       <c r="H135" s="15"/>
-      <c r="I135" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="K135" s="1" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F136"/>
       <c r="G136" s="23"/>
       <c r="H136" s="15"/>
+      <c r="I136" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="K136" s="1" t="s">
-        <v>574</v>
+        <v>620</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>129</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="8" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F137"/>
       <c r="G137" s="23"/>
       <c r="H137" s="15"/>
       <c r="I137" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>613</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F138"/>
-      <c r="G138" s="20" t="s">
-        <v>966</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F138" t="s">
+        <v>945</v>
+      </c>
+      <c r="G138" s="23"/>
       <c r="H138" s="15"/>
-      <c r="I138" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="K138" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" s="17"/>
-      <c r="E139" s="15"/>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="F139"/>
       <c r="G139" s="23"/>
       <c r="H139" s="15"/>
-      <c r="K139" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E140" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F140" t="s">
-        <v>946</v>
-      </c>
-      <c r="G140" s="24"/>
-      <c r="H140" s="18"/>
-      <c r="K140" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C141" s="17"/>
+      <c r="I139" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F140"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F141"/>
-      <c r="G141" s="25"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>148</v>
+      <c r="G141" s="23"/>
+      <c r="H141" s="15"/>
+      <c r="K141" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="F142"/>
-      <c r="G142" s="20" t="s">
-        <v>967</v>
-      </c>
+      <c r="G142" s="23"/>
       <c r="H142" s="15"/>
-      <c r="I142" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="12" t="s">
-        <v>149</v>
+      <c r="I142" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>153</v>
+        <v>132</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="F143"/>
       <c r="G143" s="20" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H143" s="15"/>
-      <c r="I143" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>615</v>
+      <c r="I143" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E144" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F144" t="s">
-        <v>947</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C144" s="17"/>
+      <c r="E144" s="15"/>
+      <c r="F144"/>
       <c r="G144" s="23"/>
       <c r="H144" s="15"/>
       <c r="K144" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F145"/>
-      <c r="G145" s="20" t="s">
-        <v>969</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="2" t="s">
-        <v>536</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F145" t="s">
+        <v>946</v>
+      </c>
+      <c r="G145" s="24"/>
+      <c r="H145" s="18"/>
       <c r="K145" s="2" t="s">
-        <v>630</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E146" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F146" t="s">
-        <v>948</v>
-      </c>
-      <c r="G146" s="23"/>
-      <c r="H146" s="15"/>
+        <v>144</v>
+      </c>
+      <c r="C146" s="17"/>
+      <c r="F146"/>
+      <c r="G146" s="25"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E147" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F147" t="s">
-        <v>949</v>
-      </c>
-      <c r="G147" s="24"/>
-      <c r="H147" s="18"/>
+        <v>147</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F147"/>
+      <c r="G147" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="2" t="s">
+        <v>534</v>
+      </c>
       <c r="K147" s="2" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C148" s="17"/>
+        <v>150</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="F148"/>
-      <c r="G148" s="25"/>
+      <c r="G148" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F149"/>
-      <c r="G149" s="20" t="s">
-        <v>970</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F149" t="s">
+        <v>947</v>
+      </c>
+      <c r="G149" s="23"/>
       <c r="H149" s="15"/>
-      <c r="I149" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="K149" s="2" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>182</v>
+        <v>161</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F150"/>
-      <c r="G150" s="23"/>
+      <c r="G150" s="20" t="s">
+        <v>969</v>
+      </c>
       <c r="H150" s="15"/>
+      <c r="I150" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F151" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G151" s="23"/>
       <c r="H151" s="15"/>
-      <c r="K151" s="2" t="s">
-        <v>589</v>
-      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E152" s="15" t="s">
-        <v>192</v>
+        <v>170</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="F152" t="s">
-        <v>951</v>
-      </c>
-      <c r="G152" s="23"/>
-      <c r="H152" s="15"/>
+        <v>949</v>
+      </c>
+      <c r="G152" s="24"/>
+      <c r="H152" s="18"/>
+      <c r="K152" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D153" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>197</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C153" s="17"/>
       <c r="F153"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="15"/>
+      <c r="G153" s="25"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F154"/>
       <c r="G154" s="20" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H154" s="15"/>
       <c r="I154" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F155"/>
       <c r="G155" s="23"/>
@@ -7931,1638 +8016,1748 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>209</v>
+        <v>186</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F156"/>
+        <v>188</v>
+      </c>
+      <c r="F156" t="s">
+        <v>950</v>
+      </c>
       <c r="G156" s="23"/>
       <c r="H156" s="15"/>
+      <c r="K156" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="F157"/>
+        <v>192</v>
+      </c>
+      <c r="F157" t="s">
+        <v>951</v>
+      </c>
       <c r="G157" s="23"/>
       <c r="H157" s="15"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E158" s="15"/>
+        <v>195</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="F158"/>
       <c r="G158" s="23"/>
       <c r="H158" s="15"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C159" s="17"/>
-      <c r="E159" s="15"/>
+        <v>199</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>202</v>
+      </c>
       <c r="F159"/>
-      <c r="G159" s="23"/>
+      <c r="G159" s="20" t="s">
+        <v>971</v>
+      </c>
       <c r="H159" s="15"/>
+      <c r="I159" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>473</v>
+        <v>206</v>
       </c>
       <c r="F160"/>
       <c r="G160" s="23"/>
       <c r="H160" s="15"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>671</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F161" t="s">
-        <v>952</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F161"/>
       <c r="G161" s="23"/>
       <c r="H161" s="15"/>
-      <c r="K161" s="2" t="s">
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F162"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="15"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E163" s="15"/>
+      <c r="F163"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="15"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C164" s="17"/>
+      <c r="E164" s="15"/>
+      <c r="F164"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="15"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="F165"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="15"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F166" t="s">
+        <v>952</v>
+      </c>
+      <c r="G166" s="23"/>
+      <c r="H166" s="15"/>
+      <c r="K166" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="12" t="s">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B167" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C167" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E162" s="13"/>
-      <c r="F162"/>
-      <c r="G162" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="H162" s="13"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D163" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="F163"/>
-      <c r="G163" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="H163" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="K163" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F164"/>
-      <c r="G164" s="25"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F165"/>
-      <c r="G165" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="H165" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="K165" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="F166"/>
-      <c r="G166" s="20" t="s">
-        <v>975</v>
-      </c>
-      <c r="H166" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K166" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>251</v>
-      </c>
+      <c r="E167" s="13"/>
       <c r="F167"/>
       <c r="G167" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="H167" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+        <v>972</v>
+      </c>
+      <c r="H167" s="13"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>256</v>
+        <v>234</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F168"/>
       <c r="G168" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="H168" s="15" t="s">
-        <v>693</v>
+        <v>973</v>
+      </c>
+      <c r="H168" s="18" t="s">
+        <v>732</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K168" s="19" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="F169"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="18"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G169" s="25"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D170" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>265</v>
+        <v>241</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="F170"/>
       <c r="G170" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="H170" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F171"/>
+      <c r="G171" s="20" t="s">
+        <v>975</v>
+      </c>
+      <c r="H171" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F172"/>
+      <c r="G172" s="20" t="s">
+        <v>976</v>
+      </c>
+      <c r="H172" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E173" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F173"/>
+      <c r="G173" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="H173" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K173" s="19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F174"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="18"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F175"/>
+      <c r="G175" s="20" t="s">
         <v>978</v>
       </c>
-      <c r="H170" s="15" t="s">
+      <c r="H175" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="I170" s="2" t="s">
+      <c r="I175" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="K170" s="2" t="s">
+      <c r="K175" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="12" t="s">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B176" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C176" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E171" s="15" t="s">
+      <c r="E176" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F171"/>
-      <c r="G171" s="23"/>
-      <c r="H171" s="15"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="12" t="s">
+      <c r="F176"/>
+      <c r="G176" s="23"/>
+      <c r="H176" s="15"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B177" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C172" s="14" t="s">
+      <c r="C177" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F172"/>
-      <c r="G172" s="25"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="12" t="s">
+      <c r="F177"/>
+      <c r="G177" s="25"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="B173" s="13"/>
-      <c r="C173" s="20" t="s">
+      <c r="B178" s="13"/>
+      <c r="C178" s="20" t="s">
         <v>804</v>
       </c>
-      <c r="F173"/>
-      <c r="G173" s="25"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="12" t="s">
+      <c r="F178"/>
+      <c r="G178" s="25"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B174" s="13" t="s">
+      <c r="B179" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C174" s="14" t="s">
+      <c r="C179" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="E174" s="15" t="s">
+      <c r="E179" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="F174"/>
-      <c r="G174" s="23"/>
-      <c r="H174" s="15"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="12" t="s">
+      <c r="F179"/>
+      <c r="G179" s="23"/>
+      <c r="H179" s="15"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B175" s="13" t="s">
+      <c r="B180" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C175" s="14" t="s">
+      <c r="C180" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F175"/>
-      <c r="G175" s="25"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="12" t="s">
+      <c r="F180"/>
+      <c r="G180" s="25"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B181" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C176" s="14" t="s">
+      <c r="C181" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F176"/>
-      <c r="G176" s="25"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="12" t="s">
+      <c r="F181"/>
+      <c r="G181" s="25"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="B182" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C177" s="14" t="s">
+      <c r="C182" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F182" t="s">
         <v>953</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="K182" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="12" t="s">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A183" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B183" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C178" s="14" t="s">
+      <c r="C183" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F178"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="12" t="s">
+      <c r="F183"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A184" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B179" s="13" t="s">
+      <c r="B184" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C179" s="14" t="s">
+      <c r="C184" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F184" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="12" t="s">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B185" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C180" s="14" t="s">
+      <c r="C185" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D185" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E180" s="18" t="s">
+      <c r="E185" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F185" t="s">
         <v>955</v>
       </c>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
-      <c r="K180" s="2" t="s">
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="K185" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="12" t="s">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B186" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C181" s="14" t="s">
+      <c r="C186" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F181"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="12" t="s">
+      <c r="F186"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A187" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B187" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C182" s="14" t="s">
+      <c r="C187" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="F182"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="12" t="s">
+      <c r="F187"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B188" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C188" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="F183"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="12" t="s">
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A189" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B189" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C184" s="14" t="s">
+      <c r="C189" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F189" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="12" t="s">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B185" s="13" t="s">
+      <c r="B190" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C190" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="F185"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="12" t="s">
+      <c r="F190"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A191" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B191" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C186" s="14" t="s">
+      <c r="C191" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="F186"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="12" t="s">
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A192" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B192" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="C192" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="F187"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="12" t="s">
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B193" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C188" s="14" t="s">
+      <c r="C193" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F193" t="s">
         <v>957</v>
       </c>
-      <c r="K188" s="2" t="s">
+      <c r="K193" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="12" t="s">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B194" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C189" s="14" t="s">
+      <c r="C194" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="E189" s="15" t="s">
+      <c r="E194" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F194" t="s">
         <v>958</v>
       </c>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
-      <c r="K189" s="2" t="s">
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="K194" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="12" t="s">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B195" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C190" s="14" t="s">
+      <c r="C195" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="F190"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="12" t="s">
+      <c r="F195"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B191" s="13" t="s">
+      <c r="B196" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C191" s="14" t="s">
+      <c r="C196" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="E191" s="15" t="s">
+      <c r="E196" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F196" t="s">
         <v>959</v>
       </c>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="12" t="s">
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B197" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C192" s="14" t="s">
+      <c r="C197" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F192"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="12" t="s">
+      <c r="F197"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B193" s="13" t="s">
+      <c r="B198" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C193" s="14" t="s">
+      <c r="C198" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="F193"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="12" t="s">
+      <c r="F198"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B194" s="13" t="s">
+      <c r="B199" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C194" s="14" t="s">
+      <c r="C199" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="F194"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="12" t="s">
+      <c r="F199"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B195" s="13" t="s">
+      <c r="B200" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C195" s="14" t="s">
+      <c r="C200" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="D195" s="14" t="s">
+      <c r="D200" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="E195" s="18" t="s">
+      <c r="E200" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="F195"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="12" t="s">
+      <c r="F200"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="B201" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C201" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="F196"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="12" t="s">
+      <c r="F201"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="B197" s="13" t="s">
+      <c r="B202" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C197" s="14" t="s">
+      <c r="C202" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="F197"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="12" t="s">
+      <c r="F202"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="B203" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C198" s="14" t="s">
+      <c r="C203" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="F198"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="12" t="s">
+      <c r="F203"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="B199" s="13" t="s">
+      <c r="B204" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C199" s="14" t="s">
+      <c r="C204" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F199"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="12" t="s">
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B200" s="13" t="s">
+      <c r="B205" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C200" s="14" t="s">
+      <c r="C205" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="F200"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="12" t="s">
+      <c r="F205"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="B206" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C201" s="14" t="s">
+      <c r="C206" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="F201"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="12" t="s">
+      <c r="F206"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B207" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C202" s="14" t="s">
+      <c r="C207" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="F202"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="12" t="s">
+      <c r="F207"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B203" s="13" t="s">
+      <c r="B208" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C203" s="14" t="s">
+      <c r="C208" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="F203"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="F204"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B205" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C205" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="F205"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B206" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C206" s="17"/>
-      <c r="F206"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C207" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="E207" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="F207"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C208" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="E208" s="15" t="s">
-        <v>385</v>
-      </c>
       <c r="F208"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="F209"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F210"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C211" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E211" s="15" t="s">
-        <v>395</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C211" s="17"/>
       <c r="F211"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>398</v>
+        <v>380</v>
+      </c>
+      <c r="E212" s="15" t="s">
+        <v>381</v>
       </c>
       <c r="F212"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>401</v>
+        <v>384</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="F213"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E214" s="15" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F214"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="F215"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>411</v>
+        <v>393</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E216" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="F216"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="15"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="F217"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="F218"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>420</v>
+        <v>404</v>
+      </c>
+      <c r="E219" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="F219"/>
+      <c r="G219" s="15"/>
+      <c r="H219" s="15"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F220"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C221" s="14" t="s">
-        <v>426</v>
+        <v>410</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="F221"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F222"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F223"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F224"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F225"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="E226" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="F226" t="s">
-        <v>960</v>
-      </c>
-      <c r="G226" s="15"/>
-      <c r="H226" s="15"/>
-      <c r="K226" s="2" t="s">
-        <v>584</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="F226"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="12" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>445</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F227"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>448</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F228"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="12" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>451</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="F229"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="C230" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F230"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E231" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F231" t="s">
+        <v>960</v>
+      </c>
+      <c r="G231" s="15"/>
+      <c r="H231" s="15"/>
+      <c r="K231" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B230" s="13" t="s">
+      <c r="B235" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C230" s="16" t="s">
+      <c r="C235" s="16" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C231" s="16" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C232" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C233" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C234" s="16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C235" s="16" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C236" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C237" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C238" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C239" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C240" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" s="16" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C112" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C111" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C113" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C114" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C115" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C116" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C117" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C118" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C119" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C120" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C121" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C123" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C124" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C125" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C126" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C127" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C128" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C129" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C130" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C131" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C132" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C133" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C134" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C135" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C136" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C137" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C138" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C140" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C142" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C143" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C144" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C145" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C146" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C147" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C149" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C150" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C151" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C152" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C153" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C154" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C155" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C156" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C157" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C158" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C160" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C161" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C162" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C163" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C164" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C165" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C167" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C168" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C169" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C170" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C171" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C172" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C174" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C175" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C176" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C177" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C178" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C179" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C180" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C181" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C182" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C183" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C184" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C185" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C186" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C187" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C188" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C189" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C190" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C191" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C192" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C193" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C194" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C195" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C196" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C197" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C198" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C199" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C200" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C201" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C202" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C203" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C204" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C205" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C207" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C208" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C209" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C210" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C211" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C212" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C213" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C214" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C215" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C217" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C218" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C219" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C220" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C221" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C222" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C223" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C224" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C225" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C226" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C122" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C227" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C216" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C228" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C229" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C230" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C231" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C232" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C233" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C234" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C235" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C236" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D111" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D112" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D113" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D115" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D116" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D118" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D119" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D120" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D126" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D125" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D154" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D121" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D122" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D123" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D124" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D127" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D128" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D129" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D130" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D131" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D133" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D134" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D135" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D136" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D137" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D138" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D140" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D143" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D144" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D145" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D147" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D149" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D151" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D153" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D160" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D163" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D166" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D167" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D168" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D170" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D180" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E111" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E112" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E113" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E114" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E115" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E116" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E118" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E119" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E120" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E121" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E123" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E124" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E125" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E127" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E128" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E129" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E130" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E131" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E132" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E133" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E134" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E135" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E136" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E137" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E138" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E139" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E142" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E143" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E144" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E145" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E149" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E150" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E151" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E152" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E153" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E159" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E160" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E162" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E166" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E171" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E174" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E189" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E191" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E207" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E208" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E211" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E214" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E226" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D195" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E126" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E155" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E156" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E167" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E168" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E157" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E158" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E122" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E146" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E170" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E161" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E117" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E140" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E147" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E154" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E163" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E165" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E169" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E180" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E195" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B117" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B118" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B119" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B120" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B121" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B122" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B123" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B124" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B125" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B126" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B127" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B128" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B129" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B130" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B131" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B132" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B133" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B134" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B135" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B136" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B137" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B138" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B139" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B140" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B141" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B143" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B144" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B145" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B146" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B147" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B148" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B150" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B151" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B152" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B153" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B154" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B155" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B156" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B157" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B158" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B159" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B160" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B161" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B162" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B111" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B112" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B113" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B114" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B115" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B116" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B230" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B229" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B228" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B227" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B226" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B225" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B224" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B223" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B222" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B221" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B220" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B219" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B218" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B217" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B216" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B215" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B214" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B213" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B212" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B211" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B210" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B209" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B208" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B207" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B206" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B205" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B204" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B203" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B202" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B201" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B200" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B199" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B198" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B197" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B196" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B195" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B194" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B193" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B192" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B191" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B190" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B189" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B188" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B187" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B186" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B185" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B184" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B183" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B182" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B181" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B180" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B179" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B178" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B177" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B176" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B175" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B174" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B172" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B171" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B170" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B169" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B168" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B167" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B166" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B165" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B164" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B163" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E92" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
-    <hyperlink ref="E87" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
-    <hyperlink ref="B88" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
-    <hyperlink ref="B100" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
-    <hyperlink ref="B87" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
-    <hyperlink ref="B86" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
-    <hyperlink ref="E84" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
-    <hyperlink ref="B85" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
-    <hyperlink ref="H167" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
-    <hyperlink ref="B84" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
-    <hyperlink ref="C75" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
-    <hyperlink ref="B73" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
-    <hyperlink ref="E73" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
-    <hyperlink ref="D73" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
-    <hyperlink ref="D74" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
-    <hyperlink ref="B72" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
-    <hyperlink ref="E72" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
-    <hyperlink ref="D72" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
-    <hyperlink ref="E71" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
-    <hyperlink ref="D71" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
-    <hyperlink ref="B91" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
-    <hyperlink ref="B70" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
-    <hyperlink ref="E70" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
-    <hyperlink ref="D70" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
-    <hyperlink ref="B69" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
-    <hyperlink ref="E69" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
-    <hyperlink ref="D69" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
-    <hyperlink ref="E68" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
-    <hyperlink ref="D68" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
-    <hyperlink ref="D67" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
-    <hyperlink ref="E67" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
-    <hyperlink ref="B66" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
-    <hyperlink ref="E66" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
-    <hyperlink ref="D66" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
-    <hyperlink ref="B108" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
-    <hyperlink ref="B65" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
-    <hyperlink ref="D65" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
-    <hyperlink ref="E65" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
-    <hyperlink ref="E64" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
-    <hyperlink ref="C64" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
-    <hyperlink ref="D64" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
-    <hyperlink ref="C173" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
-    <hyperlink ref="C63" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
-    <hyperlink ref="B61" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
-    <hyperlink ref="E61" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
-    <hyperlink ref="E60" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
-    <hyperlink ref="D60" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
-    <hyperlink ref="D61" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
-    <hyperlink ref="B59" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
-    <hyperlink ref="E57" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
-    <hyperlink ref="B57" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
-    <hyperlink ref="D57" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
-    <hyperlink ref="B56" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
-    <hyperlink ref="E56" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
-    <hyperlink ref="E55" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
-    <hyperlink ref="E54" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
-    <hyperlink ref="D54" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
-    <hyperlink ref="D55" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
-    <hyperlink ref="B52" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
-    <hyperlink ref="E52" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
-    <hyperlink ref="E51" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
-    <hyperlink ref="D51" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
-    <hyperlink ref="D50" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
-    <hyperlink ref="B68" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
-    <hyperlink ref="E48" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
-    <hyperlink ref="D48" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
-    <hyperlink ref="D45" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
-    <hyperlink ref="B45" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
-    <hyperlink ref="B47" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
-    <hyperlink ref="B81" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
-    <hyperlink ref="E43" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
-    <hyperlink ref="E39" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
-    <hyperlink ref="D39" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
-    <hyperlink ref="G40" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
-    <hyperlink ref="G41" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
-    <hyperlink ref="G73" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
-    <hyperlink ref="G102" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
-    <hyperlink ref="G111" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
-    <hyperlink ref="G112" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
-    <hyperlink ref="G122" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
-    <hyperlink ref="G138" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
-    <hyperlink ref="G143" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
-    <hyperlink ref="G142" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
-    <hyperlink ref="G145" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
-    <hyperlink ref="G149" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
-    <hyperlink ref="G154" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
-    <hyperlink ref="G162" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
-    <hyperlink ref="G163" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
-    <hyperlink ref="G165" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
-    <hyperlink ref="G166" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
-    <hyperlink ref="G167" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
-    <hyperlink ref="G168" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
-    <hyperlink ref="G170" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
-    <hyperlink ref="E38" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
-    <hyperlink ref="F38" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
-    <hyperlink ref="D38" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
-    <hyperlink ref="D35" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
-    <hyperlink ref="E33" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
-    <hyperlink ref="C86" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
-    <hyperlink ref="D28" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
-    <hyperlink ref="C28" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
-    <hyperlink ref="D27" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
-    <hyperlink ref="E27" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
-    <hyperlink ref="E26" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
-    <hyperlink ref="F26" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
-    <hyperlink ref="F23" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
-    <hyperlink ref="D34" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
-    <hyperlink ref="G34" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
-    <hyperlink ref="G33" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
-    <hyperlink ref="C9" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
-    <hyperlink ref="C2" r:id="rId458" xr:uid="{07B89B79-3496-5B42-A5F0-457EAF8912ED}"/>
+    <hyperlink ref="C117" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C116" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C118" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C119" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C120" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C121" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C122" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C123" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C124" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C125" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C126" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C128" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C129" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C130" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C131" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C132" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C133" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C134" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C135" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C136" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C137" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C138" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C139" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C140" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C141" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C142" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C143" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C145" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C147" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C148" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C149" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C150" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C151" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C152" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C154" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C155" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C156" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C157" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C158" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C159" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C160" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C161" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C162" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C163" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C165" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C166" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C167" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C168" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C169" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C170" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C172" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C173" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C174" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C175" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C176" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C177" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C179" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C180" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C181" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C182" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C183" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C184" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C185" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C186" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C187" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C188" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C189" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C190" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C191" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C192" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C193" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C194" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C195" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C196" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C197" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C198" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C199" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C200" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C201" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C202" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C203" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C204" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C205" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C206" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C207" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C208" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C209" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C210" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C212" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C213" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C214" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C215" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C216" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C217" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C218" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C219" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C220" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C222" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C223" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C224" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C225" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C226" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C227" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C228" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C229" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C230" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C231" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C127" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C232" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C221" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C233" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C234" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C235" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C236" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C237" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C238" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C239" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C240" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C241" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D116" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D117" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D118" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D120" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D121" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D123" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D124" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D125" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D131" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D159" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D126" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D127" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D128" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D129" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D132" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D133" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D134" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D135" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D136" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D138" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D139" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D140" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D141" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D142" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D143" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D145" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D152" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D154" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D156" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D158" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D165" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D166" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D168" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D171" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D172" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D173" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D175" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D185" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E116" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E117" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E118" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E119" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E120" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E121" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E123" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E124" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E125" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E126" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E128" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E129" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E130" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E132" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E133" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E134" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E135" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E136" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E137" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E138" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E139" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E140" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E141" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E142" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E143" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E144" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E147" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E148" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E149" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E150" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E154" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E155" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E156" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E157" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E158" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E164" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E165" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E167" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E171" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E176" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E179" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E194" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E196" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E212" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E213" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E216" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E219" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E231" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D200" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E131" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E160" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E161" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E172" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E173" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E162" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E163" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E127" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E151" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E175" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E166" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E122" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E145" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E152" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E159" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E168" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E170" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E174" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E185" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E200" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B122" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B123" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B124" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B125" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B126" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B127" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B128" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B129" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B130" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B131" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B132" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B133" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B134" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B135" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B136" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B137" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B138" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B139" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B140" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B141" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B142" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B143" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B144" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B145" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B146" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B148" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B149" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B150" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B151" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B152" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B153" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B155" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B156" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B157" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B158" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B159" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B160" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B161" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B162" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B163" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B164" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B165" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B166" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B167" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B116" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B117" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B118" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B119" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B120" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B121" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B235" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B234" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B233" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B232" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B231" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B230" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B229" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B228" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B227" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B226" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B225" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B224" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B223" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B222" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B221" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B220" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B219" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B218" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B217" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B216" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B215" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B214" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B213" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B212" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B211" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B210" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B209" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B208" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B207" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B206" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B205" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B204" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B203" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B202" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B201" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B200" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B199" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B198" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B197" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B196" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B195" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B194" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B193" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B192" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B191" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B190" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B189" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B188" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B187" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B186" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B185" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B184" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B183" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B182" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B181" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B180" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B179" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B177" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B176" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B175" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B174" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B173" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B172" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B171" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B170" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B169" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B168" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E97" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
+    <hyperlink ref="E92" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
+    <hyperlink ref="B93" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
+    <hyperlink ref="B105" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
+    <hyperlink ref="B92" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
+    <hyperlink ref="B91" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
+    <hyperlink ref="E89" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
+    <hyperlink ref="B90" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
+    <hyperlink ref="H172" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
+    <hyperlink ref="B89" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
+    <hyperlink ref="C80" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
+    <hyperlink ref="B78" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
+    <hyperlink ref="E78" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
+    <hyperlink ref="D78" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
+    <hyperlink ref="D79" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
+    <hyperlink ref="B77" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
+    <hyperlink ref="E77" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
+    <hyperlink ref="D77" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
+    <hyperlink ref="E76" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
+    <hyperlink ref="D76" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
+    <hyperlink ref="B96" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
+    <hyperlink ref="B75" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
+    <hyperlink ref="E75" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
+    <hyperlink ref="D75" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
+    <hyperlink ref="B74" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
+    <hyperlink ref="E74" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
+    <hyperlink ref="D74" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
+    <hyperlink ref="E73" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
+    <hyperlink ref="D73" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
+    <hyperlink ref="D72" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
+    <hyperlink ref="E72" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
+    <hyperlink ref="B71" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
+    <hyperlink ref="E71" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
+    <hyperlink ref="D71" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
+    <hyperlink ref="B113" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
+    <hyperlink ref="B70" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
+    <hyperlink ref="D70" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
+    <hyperlink ref="E70" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
+    <hyperlink ref="E69" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
+    <hyperlink ref="C69" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
+    <hyperlink ref="D69" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
+    <hyperlink ref="C178" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
+    <hyperlink ref="C68" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
+    <hyperlink ref="B66" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
+    <hyperlink ref="E66" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
+    <hyperlink ref="E65" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
+    <hyperlink ref="D65" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
+    <hyperlink ref="D66" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
+    <hyperlink ref="B64" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
+    <hyperlink ref="E62" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
+    <hyperlink ref="B62" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
+    <hyperlink ref="D62" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
+    <hyperlink ref="B61" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
+    <hyperlink ref="E61" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
+    <hyperlink ref="E60" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
+    <hyperlink ref="E59" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
+    <hyperlink ref="D59" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
+    <hyperlink ref="D60" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
+    <hyperlink ref="B57" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
+    <hyperlink ref="E57" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
+    <hyperlink ref="E56" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
+    <hyperlink ref="D56" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
+    <hyperlink ref="D55" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
+    <hyperlink ref="B73" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
+    <hyperlink ref="E53" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
+    <hyperlink ref="D53" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
+    <hyperlink ref="D50" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
+    <hyperlink ref="B50" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
+    <hyperlink ref="B52" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
+    <hyperlink ref="B86" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
+    <hyperlink ref="E48" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
+    <hyperlink ref="E44" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
+    <hyperlink ref="D44" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
+    <hyperlink ref="G45" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
+    <hyperlink ref="G46" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
+    <hyperlink ref="G78" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
+    <hyperlink ref="G107" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
+    <hyperlink ref="G116" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
+    <hyperlink ref="G117" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
+    <hyperlink ref="G127" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
+    <hyperlink ref="G143" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
+    <hyperlink ref="G148" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
+    <hyperlink ref="G147" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
+    <hyperlink ref="G150" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
+    <hyperlink ref="G154" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
+    <hyperlink ref="G159" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
+    <hyperlink ref="G167" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
+    <hyperlink ref="G168" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
+    <hyperlink ref="G170" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
+    <hyperlink ref="G171" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
+    <hyperlink ref="G172" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
+    <hyperlink ref="G173" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
+    <hyperlink ref="G175" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
+    <hyperlink ref="E43" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
+    <hyperlink ref="F43" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
+    <hyperlink ref="D43" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
+    <hyperlink ref="D40" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
+    <hyperlink ref="E38" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
+    <hyperlink ref="C91" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
+    <hyperlink ref="D33" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
+    <hyperlink ref="C33" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
+    <hyperlink ref="D32" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
+    <hyperlink ref="E32" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
+    <hyperlink ref="E31" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
+    <hyperlink ref="F31" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
+    <hyperlink ref="F28" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
+    <hyperlink ref="D39" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
+    <hyperlink ref="G39" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
+    <hyperlink ref="G38" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
+    <hyperlink ref="C14" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
+    <hyperlink ref="C6" r:id="rId458" xr:uid="{07B89B79-3496-5B42-A5F0-457EAF8912ED}"/>
+    <hyperlink ref="E5" r:id="rId459" xr:uid="{D2634362-720B-5A48-9686-E337063171AB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/articlelinks.xlsx
+++ b/articlelinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Dropbox/markdown_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F3142-E2C6-9140-BB75-988ACA3A674D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79316B25-161B-674D-8CD6-605F401F80FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20000" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1182">
   <si>
     <t>文科生如何理解卷积神经网络？</t>
   </si>
@@ -3606,6 +3606,21 @@
   </si>
   <si>
     <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;quickforward=1&amp;id=1290122</t>
+  </si>
+  <si>
+    <t>iPad Pro 是生产力工具吗？</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/383442323</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/MzqTE09fPQ3M3sAIxcJZ1A</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/7d0rydJQOpUPPBkXYP1nvw</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/67395</t>
   </si>
 </sst>
 </file>
@@ -4098,9 +4113,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N241"/>
+  <dimension ref="A1:N242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4153,16 +4168,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1179</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4175,19 +4190,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1155</v>
+        <v>1174</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1161</v>
+        <v>1180</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1156</v>
+        <v>1175</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1157</v>
+        <v>1173</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4200,13 +4215,20 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>1161</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1157</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="4"/>
@@ -4218,20 +4240,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1158</v>
-      </c>
+        <v>1163</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="4"/>
@@ -4243,19 +4258,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1149</v>
+        <v>1154</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1162</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1150</v>
+        <v>1160</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1153</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1151</v>
+        <v>1158</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -4268,13 +4283,20 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+        <v>1148</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1151</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
@@ -4286,20 +4308,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1165</v>
-      </c>
+        <v>1146</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
@@ -4311,19 +4326,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1141</v>
+        <v>1166</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1145</v>
+        <v>1172</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1144</v>
+        <v>1171</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1142</v>
+        <v>1170</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1143</v>
+        <v>1165</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -4336,19 +4351,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -4361,13 +4376,20 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1140</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
@@ -4379,20 +4401,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>1130</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
@@ -4404,16 +4419,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1127</v>
+        <v>1131</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1126</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -4426,19 +4444,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1122</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -4451,16 +4466,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>1115</v>
+        <v>1119</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1120</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -4473,16 +4491,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -4495,16 +4513,18 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>1109</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -4515,14 +4535,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>1109</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -4533,10 +4555,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -4551,20 +4573,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>1093</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="4"/>
@@ -4576,16 +4591,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1088</v>
+        <v>1096</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4598,19 +4616,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>1169</v>
+        <v>1088</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1168</v>
+        <v>1091</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1167</v>
+        <v>1090</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4623,19 +4638,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1085</v>
+        <v>1169</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1086</v>
+        <v>1168</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1087</v>
+        <v>1167</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4648,13 +4663,20 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+        <v>1084</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>1087</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="4"/>
@@ -4666,17 +4688,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>1042</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="4"/>
@@ -4688,19 +4706,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4713,16 +4728,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -4735,19 +4753,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>1027</v>
+        <v>1036</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -4760,16 +4775,19 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -4782,13 +4800,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1048</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -4801,16 +4822,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>1022</v>
+        <v>1031</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>1032</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -4823,16 +4841,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>1018</v>
+        <v>1021</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1049</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>1020</v>
+        <v>1022</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -4845,19 +4863,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>1014</v>
+        <v>1018</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>1019</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -4870,19 +4885,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>1006</v>
+        <v>1012</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>1013</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -4895,13 +4910,20 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+        <v>1050</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>1010</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
@@ -4913,20 +4935,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>1011</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="4"/>
@@ -4938,23 +4953,21 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>1108</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -4965,22 +4978,22 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>992</v>
+        <v>994</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>997</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>1107</v>
+        <v>1000</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>1108</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
@@ -4992,22 +5005,22 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>998</v>
+        <v>1054</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>992</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>1106</v>
+        <v>1001</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>1107</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
@@ -5019,22 +5032,22 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>989</v>
+        <v>1055</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>996</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>1105</v>
+        <v>1002</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>1106</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
@@ -5046,14 +5059,23 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+        <v>986</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>1105</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -5064,14 +5086,12 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>999</v>
-      </c>
+        <v>1057</v>
+      </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -5084,20 +5104,15 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>981</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
@@ -5109,19 +5124,19 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1059</v>
+        <v>979</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>983</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>896</v>
+        <v>982</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>897</v>
+        <v>980</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>981</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -5134,23 +5149,21 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>892</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -5161,22 +5174,22 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C46" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>1060</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
@@ -5188,16 +5201,23 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E47" s="6"/>
+        <v>1060</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>888</v>
+      </c>
       <c r="F47" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="G47" s="21"/>
+        <v>890</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>893</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -5208,21 +5228,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F48" t="s">
-        <v>898</v>
-      </c>
-      <c r="G48" s="20"/>
+        <v>1061</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="G48" s="21"/>
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -5233,18 +5248,21 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>875</v>
+        <v>1062</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="F49" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G49" s="21"/>
+        <v>898</v>
+      </c>
+      <c r="G49" s="20"/>
       <c r="H49" s="6"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -5255,22 +5273,16 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>871</v>
+        <v>1063</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="F50" t="s">
-        <v>899</v>
+        <v>1129</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="6"/>
@@ -5283,15 +5295,23 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B51" s="20"/>
+        <v>867</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>873</v>
+      </c>
       <c r="C51" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="6"/>
-      <c r="F51"/>
+        <v>1064</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="F51" t="s">
+        <v>899</v>
+      </c>
       <c r="G51" s="21"/>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
@@ -5303,23 +5323,15 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>874</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B52" s="20"/>
       <c r="C52" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F52" t="s">
-        <v>900</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="6"/>
+      <c r="F52"/>
       <c r="G52" s="21"/>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
@@ -5331,24 +5343,24 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>865</v>
+        <v>868</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>874</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>860</v>
+        <v>1067</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>869</v>
       </c>
       <c r="F53" t="s">
-        <v>901</v>
-      </c>
-      <c r="G53" s="20"/>
+        <v>900</v>
+      </c>
+      <c r="G53" s="21"/>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5359,24 +5371,24 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>862</v>
+        <v>1068</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F54" t="s">
-        <v>902</v>
-      </c>
-      <c r="G54" s="21"/>
+        <v>901</v>
+      </c>
+      <c r="G54" s="20"/>
       <c r="H54" s="6"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -5387,22 +5399,22 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>855</v>
+        <v>1069</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F55" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="6"/>
@@ -5415,29 +5427,27 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>850</v>
+        <v>855</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="F56" t="s">
-        <v>904</v>
-      </c>
-      <c r="G56" s="20"/>
+        <v>903</v>
+      </c>
+      <c r="G56" s="21"/>
       <c r="H56" s="6"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -5445,24 +5455,29 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>845</v>
+        <v>849</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>851</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F57" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="6"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="J57" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -5470,21 +5485,21 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>845</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>848</v>
+        <v>1072</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>847</v>
       </c>
       <c r="F58" t="s">
-        <v>906</v>
-      </c>
-      <c r="G58" s="21"/>
+        <v>905</v>
+      </c>
+      <c r="G58" s="20"/>
       <c r="H58" s="6"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -5495,24 +5510,21 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>840</v>
+        <v>1073</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>848</v>
       </c>
       <c r="F59" t="s">
-        <v>907</v>
-      </c>
-      <c r="G59" s="20"/>
+        <v>906</v>
+      </c>
+      <c r="G59" s="21"/>
       <c r="H59" s="6"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -5523,21 +5535,23 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F60"/>
+        <v>840</v>
+      </c>
+      <c r="F60" t="s">
+        <v>907</v>
+      </c>
       <c r="G60" s="20"/>
       <c r="H60" s="6"/>
       <c r="I60" s="4"/>
@@ -5549,16 +5563,19 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>834</v>
+        <v>837</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>842</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F61"/>
       <c r="G61" s="20"/>
@@ -5572,23 +5589,18 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>828</v>
+        <v>1076</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="F62" t="s">
-        <v>908</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="F62"/>
       <c r="G62" s="20"/>
       <c r="H62" s="6"/>
       <c r="I62" s="4"/>
@@ -5600,22 +5612,22 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F63" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="6"/>
@@ -5628,24 +5640,24 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>822</v>
+        <v>1078</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>831</v>
       </c>
       <c r="F64" t="s">
-        <v>910</v>
-      </c>
-      <c r="G64" s="21"/>
+        <v>909</v>
+      </c>
+      <c r="G64" s="20"/>
       <c r="H64" s="6"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -5656,24 +5668,24 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>814</v>
+        <v>821</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>820</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>815</v>
+        <v>824</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="F65" t="s">
-        <v>911</v>
-      </c>
-      <c r="G65" s="20"/>
+        <v>910</v>
+      </c>
+      <c r="G65" s="21"/>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -5684,22 +5696,22 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>808</v>
+        <v>816</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F66" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="6"/>
@@ -5712,14 +5724,23 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B67" s="20"/>
+        <v>819</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>808</v>
+      </c>
       <c r="C67" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E67" s="20"/>
-      <c r="F67"/>
+        <v>812</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="F67" t="s">
+        <v>912</v>
+      </c>
       <c r="G67" s="20"/>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
@@ -5731,14 +5752,15 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="E68" s="6"/>
+        <v>811</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E68" s="20"/>
       <c r="F68"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="20"/>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -5749,24 +5771,14 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F69" t="s">
-        <v>913</v>
-      </c>
-      <c r="G69" s="20"/>
+        <v>807</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69"/>
+      <c r="G69" s="21"/>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -5777,22 +5789,22 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>796</v>
+        <v>799</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F70" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="6"/>
@@ -5805,22 +5817,22 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="F71" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="6"/>
@@ -5833,22 +5845,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>789</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="F72" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="6"/>
@@ -5861,22 +5873,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>779</v>
+        <v>787</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F73" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="6"/>
@@ -5889,21 +5901,23 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F74"/>
+        <v>780</v>
+      </c>
+      <c r="F74" t="s">
+        <v>917</v>
+      </c>
       <c r="G74" s="20"/>
       <c r="H74" s="6"/>
       <c r="I74" s="4"/>
@@ -5915,19 +5929,19 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F75"/>
       <c r="G75" s="20"/>
@@ -5941,23 +5955,21 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>764</v>
+        <v>768</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>769</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="F76" t="s">
-        <v>918</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F76"/>
       <c r="G76" s="20"/>
       <c r="H76" s="6"/>
       <c r="I76" s="4"/>
@@ -5969,22 +5981,22 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>759</v>
+        <v>763</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F77" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="6"/>
@@ -5997,26 +6009,24 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="F78" t="s">
-        <v>920</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="G78" s="20"/>
       <c r="H78" s="6"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -6027,24 +6037,26 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>750</v>
+        <v>756</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F79" t="s">
-        <v>921</v>
-      </c>
-      <c r="G79" s="21"/>
+        <v>920</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>961</v>
+      </c>
       <c r="H79" s="6"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6055,22 +6067,22 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>743</v>
+        <v>748</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F80" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="6"/>
@@ -6083,22 +6095,22 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F81" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G81" s="21"/>
       <c r="H81" s="6"/>
@@ -6111,22 +6123,22 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F82" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="6"/>
@@ -6139,22 +6151,22 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F83" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="6"/>
@@ -6167,21 +6179,23 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F84"/>
+        <v>726</v>
+      </c>
+      <c r="F84" t="s">
+        <v>925</v>
+      </c>
       <c r="G84" s="21"/>
       <c r="H84" s="6"/>
       <c r="I84" s="4"/>
@@ -6193,23 +6207,21 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="F85" t="s">
-        <v>926</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="F85"/>
       <c r="G85" s="21"/>
       <c r="H85" s="6"/>
       <c r="I85" s="4"/>
@@ -6221,22 +6233,22 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>709</v>
+        <v>712</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F86" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="6"/>
@@ -6249,22 +6261,22 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="F87" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="6"/>
@@ -6277,21 +6289,23 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F88"/>
+        <v>706</v>
+      </c>
+      <c r="F88" t="s">
+        <v>928</v>
+      </c>
       <c r="G88" s="21"/>
       <c r="H88" s="6"/>
       <c r="I88" s="4"/>
@@ -6303,22 +6317,22 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>695</v>
+        <v>698</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>696</v>
+        <v>700</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="F89"/>
-      <c r="G89" s="22"/>
+      <c r="G89" s="21"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -6329,24 +6343,22 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="F90" t="s">
-        <v>929</v>
-      </c>
-      <c r="G90" s="21"/>
+        <v>697</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90" s="22"/>
       <c r="H90" s="6"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -6357,28 +6369,26 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>684</v>
+        <v>686</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="F91" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G91" s="21"/>
       <c r="H91" s="6"/>
-      <c r="I91" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -6387,26 +6397,28 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>676</v>
+        <v>681</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>673</v>
+        <v>682</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="F92" t="s">
-        <v>931</v>
-      </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="4"/>
+        <v>930</v>
+      </c>
+      <c r="G92" s="21"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -6415,25 +6427,25 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>669</v>
+        <v>674</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="F93" t="s">
-        <v>932</v>
-      </c>
-      <c r="G93" s="21"/>
-      <c r="H93" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G93" s="22"/>
+      <c r="H93" s="13"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -6443,22 +6455,22 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>659</v>
+        <v>668</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F94" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="6"/>
@@ -6471,81 +6483,81 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F95" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G95" s="21"/>
       <c r="H95" s="6"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>648</v>
+        <v>653</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>654</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F96"/>
+        <v>655</v>
+      </c>
+      <c r="F96" t="s">
+        <v>934</v>
+      </c>
       <c r="G96" s="21"/>
       <c r="H96" s="6"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
+      <c r="K96" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>603</v>
+        <v>647</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="F97" t="s">
-        <v>935</v>
-      </c>
-      <c r="G97" s="22"/>
-      <c r="H97" s="13"/>
+        <v>650</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -6555,47 +6567,47 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="F98"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="6"/>
+        <v>651</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="F98" t="s">
+        <v>935</v>
+      </c>
+      <c r="G98" s="22"/>
+      <c r="H98" s="13"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4" t="s">
-        <v>658</v>
-      </c>
+      <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F99"/>
       <c r="G99" s="21"/>
@@ -6603,7 +6615,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -6611,53 +6623,53 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F100"/>
       <c r="G100" s="21"/>
       <c r="H100" s="6"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="F101"/>
       <c r="G101" s="21"/>
       <c r="H101" s="6"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -6665,61 +6677,59 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="F102" t="s">
-        <v>936</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="F102"/>
       <c r="G102" s="21"/>
       <c r="H102" s="6"/>
-      <c r="I102" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="F103"/>
+        <v>558</v>
+      </c>
+      <c r="F103" t="s">
+        <v>936</v>
+      </c>
       <c r="G103" s="21"/>
       <c r="H103" s="6"/>
       <c r="I103" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -6727,29 +6737,29 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>545</v>
+        <v>646</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F104"/>
       <c r="G104" s="21"/>
       <c r="H104" s="6"/>
       <c r="I104" s="4" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -6757,29 +6767,29 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>678</v>
+        <v>545</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="F105"/>
       <c r="G105" s="21"/>
       <c r="H105" s="6"/>
       <c r="I105" s="4" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
@@ -6787,19 +6797,29 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="E106" s="6"/>
+        <v>502</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="F106"/>
       <c r="G106" s="21"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="4"/>
+      <c r="I106" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -6807,33 +6827,19 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>499</v>
+        <v>626</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F107" t="s">
-        <v>937</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>962</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107"/>
+      <c r="G107" s="21"/>
       <c r="H107" s="6"/>
-      <c r="I107" s="4" t="s">
-        <v>509</v>
-      </c>
+      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
@@ -6841,85 +6847,89 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F108"/>
-      <c r="G108" s="21"/>
+        <v>500</v>
+      </c>
+      <c r="F108" t="s">
+        <v>937</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>962</v>
+      </c>
       <c r="H108" s="6"/>
-      <c r="I108" s="4"/>
+      <c r="I108" s="4" t="s">
+        <v>509</v>
+      </c>
       <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
+      <c r="K108" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="F109"/>
       <c r="G109" s="21"/>
       <c r="H109" s="6"/>
-      <c r="I109" s="4" t="s">
-        <v>510</v>
-      </c>
+      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="4" t="s">
-        <v>638</v>
-      </c>
+      <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F110"/>
       <c r="G110" s="21"/>
       <c r="H110" s="6"/>
       <c r="I110" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
@@ -6927,29 +6937,29 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F111"/>
       <c r="G111" s="21"/>
       <c r="H111" s="6"/>
       <c r="I111" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
@@ -6957,81 +6967,79 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E112" s="6"/>
+        <v>479</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>481</v>
+      </c>
       <c r="F112"/>
       <c r="G112" s="21"/>
       <c r="H112" s="6"/>
       <c r="I112" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
+      <c r="K112" s="4" t="s">
+        <v>634</v>
+      </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E113" s="6"/>
       <c r="F113"/>
       <c r="G113" s="21"/>
       <c r="H113" s="6"/>
-      <c r="I113" s="2" t="s">
-        <v>515</v>
+      <c r="I113" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="J113" s="4"/>
-      <c r="K113" s="4" t="s">
-        <v>629</v>
-      </c>
+      <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>793</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F114" t="s">
-        <v>938</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="F114"/>
       <c r="G114" s="21"/>
       <c r="H114" s="6"/>
-      <c r="I114" s="4" t="s">
-        <v>516</v>
+      <c r="I114" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
@@ -7039,1102 +7047,1117 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F115"/>
+        <v>470</v>
+      </c>
+      <c r="F115" t="s">
+        <v>938</v>
+      </c>
       <c r="G115" s="21"/>
       <c r="H115" s="6"/>
       <c r="I115" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>4</v>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="F116"/>
-      <c r="G116" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="G116" s="21"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
     </row>
     <row r="117" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F117"/>
       <c r="G117" s="20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H117" s="15"/>
+      <c r="I117" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="118" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F118"/>
-      <c r="G118" s="23"/>
+      <c r="G118" s="20" t="s">
+        <v>964</v>
+      </c>
       <c r="H118" s="15"/>
-      <c r="K118" s="1" t="s">
-        <v>587</v>
-      </c>
     </row>
     <row r="119" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E119" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F119"/>
       <c r="G119" s="23"/>
       <c r="H119" s="15"/>
-      <c r="I119" s="1" t="s">
-        <v>520</v>
+      <c r="K119" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="120" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" t="s">
-        <v>939</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F120"/>
       <c r="G120" s="23"/>
       <c r="H120" s="15"/>
-      <c r="K120" s="1" t="s">
-        <v>588</v>
+      <c r="I120" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="15"/>
       <c r="K121" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>32</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F122" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G122" s="23"/>
       <c r="H122" s="15"/>
+      <c r="K122" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G123" s="23"/>
       <c r="H123" s="15"/>
-      <c r="K123" s="2" t="s">
-        <v>577</v>
-      </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F124"/>
+        <v>37</v>
+      </c>
+      <c r="F124" t="s">
+        <v>942</v>
+      </c>
       <c r="G124" s="23"/>
       <c r="H124" s="15"/>
-      <c r="I124" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="K124" s="2" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F125"/>
       <c r="G125" s="23"/>
       <c r="H125" s="15"/>
       <c r="I125" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F126"/>
       <c r="G126" s="23"/>
       <c r="H126" s="15"/>
       <c r="I126" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>466</v>
+        <v>49</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F127"/>
-      <c r="G127" s="20" t="s">
-        <v>965</v>
-      </c>
+      <c r="G127" s="23"/>
       <c r="H127" s="15"/>
       <c r="I127" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F128"/>
-      <c r="G128" s="23"/>
+      <c r="G128" s="20" t="s">
+        <v>965</v>
+      </c>
       <c r="H128" s="15"/>
       <c r="I128" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F129"/>
       <c r="G129" s="23"/>
       <c r="H129" s="15"/>
       <c r="I129" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>71</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F130"/>
       <c r="G130" s="23"/>
       <c r="H130" s="15"/>
+      <c r="I130" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F131" t="s">
-        <v>943</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F131"/>
       <c r="G131" s="23"/>
       <c r="H131" s="15"/>
-      <c r="K131" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F132"/>
+        <v>76</v>
+      </c>
+      <c r="F132" t="s">
+        <v>943</v>
+      </c>
       <c r="G132" s="23"/>
       <c r="H132" s="15"/>
-      <c r="I132" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>623</v>
+      <c r="K132" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F133" t="s">
-        <v>944</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F133"/>
       <c r="G133" s="23"/>
       <c r="H133" s="15"/>
+      <c r="I133" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F134"/>
+        <v>86</v>
+      </c>
+      <c r="F134" t="s">
+        <v>944</v>
+      </c>
       <c r="G134" s="23"/>
       <c r="H134" s="15"/>
-      <c r="I134" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F135"/>
       <c r="G135" s="23"/>
       <c r="H135" s="15"/>
+      <c r="I135" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="K135" s="1" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F136"/>
       <c r="G136" s="23"/>
       <c r="H136" s="15"/>
-      <c r="I136" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="K136" s="1" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D137" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E137" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F137"/>
       <c r="G137" s="23"/>
       <c r="H137" s="15"/>
       <c r="I137" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F138" t="s">
-        <v>945</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F138"/>
       <c r="G138" s="23"/>
       <c r="H138" s="15"/>
-      <c r="K138" s="1" t="s">
-        <v>586</v>
+      <c r="I138" s="1" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F139"/>
+        <v>110</v>
+      </c>
+      <c r="F139" t="s">
+        <v>945</v>
+      </c>
       <c r="G139" s="23"/>
       <c r="H139" s="15"/>
-      <c r="I139" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="K139" s="1" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
     </row>
     <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F140"/>
       <c r="G140" s="23"/>
       <c r="H140" s="15"/>
       <c r="I140" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F141"/>
       <c r="G141" s="23"/>
       <c r="H141" s="15"/>
+      <c r="I141" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="K141" s="1" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F142"/>
       <c r="G142" s="23"/>
       <c r="H142" s="15"/>
-      <c r="I142" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="K142" s="1" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
     </row>
     <row r="143" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F143"/>
-      <c r="G143" s="20" t="s">
-        <v>966</v>
-      </c>
+      <c r="G143" s="23"/>
       <c r="H143" s="15"/>
       <c r="I143" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K143" s="1" t="s">
+      <c r="K144" s="1" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C144" s="17"/>
-      <c r="E144" s="15"/>
-      <c r="F144"/>
-      <c r="G144" s="23"/>
-      <c r="H144" s="15"/>
-      <c r="K144" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E145" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F145" t="s">
-        <v>946</v>
-      </c>
-      <c r="G145" s="24"/>
-      <c r="H145" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="C145" s="17"/>
+      <c r="E145" s="15"/>
+      <c r="F145"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="15"/>
       <c r="K145" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C146" s="17"/>
-      <c r="F146"/>
-      <c r="G146" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F146" t="s">
+        <v>946</v>
+      </c>
+      <c r="G146" s="24"/>
+      <c r="H146" s="18"/>
+      <c r="K146" s="2" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E147" s="15" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C147" s="17"/>
       <c r="F147"/>
-      <c r="G147" s="20" t="s">
-        <v>967</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="G147" s="25"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F148"/>
       <c r="G148" s="20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F149" t="s">
-        <v>947</v>
-      </c>
-      <c r="G149" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="F149"/>
+      <c r="G149" s="20" t="s">
+        <v>968</v>
+      </c>
       <c r="H149" s="15"/>
+      <c r="I149" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="K149" s="2" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F150"/>
-      <c r="G150" s="20" t="s">
-        <v>969</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F150" t="s">
+        <v>947</v>
+      </c>
+      <c r="G150" s="23"/>
       <c r="H150" s="15"/>
-      <c r="I150" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="K150" s="2" t="s">
-        <v>630</v>
+        <v>582</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F151" t="s">
-        <v>948</v>
-      </c>
-      <c r="G151" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="F151"/>
+      <c r="G151" s="20" t="s">
+        <v>969</v>
+      </c>
       <c r="H151" s="15"/>
+      <c r="I151" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E152" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="F152" t="s">
-        <v>949</v>
-      </c>
-      <c r="G152" s="24"/>
-      <c r="H152" s="18"/>
-      <c r="K152" s="2" t="s">
-        <v>585</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="G152" s="23"/>
+      <c r="H152" s="15"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C153" s="17"/>
-      <c r="F153"/>
-      <c r="G153" s="25"/>
+        <v>169</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F153" t="s">
+        <v>949</v>
+      </c>
+      <c r="G153" s="24"/>
+      <c r="H153" s="18"/>
+      <c r="K153" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C154" s="17"/>
       <c r="F154"/>
-      <c r="G154" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="H154" s="15"/>
-      <c r="I154" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="G154" s="25"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F155"/>
-      <c r="G155" s="23"/>
+      <c r="G155" s="20" t="s">
+        <v>970</v>
+      </c>
       <c r="H155" s="15"/>
+      <c r="I155" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D156" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F156" t="s">
-        <v>950</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F156"/>
       <c r="G156" s="23"/>
       <c r="H156" s="15"/>
-      <c r="K156" s="2" t="s">
-        <v>589</v>
-      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F157" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G157" s="23"/>
       <c r="H157" s="15"/>
+      <c r="K157" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F158"/>
+        <v>192</v>
+      </c>
+      <c r="F158" t="s">
+        <v>951</v>
+      </c>
       <c r="G158" s="23"/>
       <c r="H158" s="15"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F159"/>
-      <c r="G159" s="20" t="s">
-        <v>971</v>
-      </c>
+      <c r="G159" s="23"/>
       <c r="H159" s="15"/>
-      <c r="I159" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K159" s="2" t="s">
-        <v>611</v>
-      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F160"/>
-      <c r="G160" s="23"/>
+      <c r="G160" s="20" t="s">
+        <v>971</v>
+      </c>
       <c r="H160" s="15"/>
+      <c r="I160" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F161"/>
       <c r="G161" s="23"/>
@@ -8142,16 +8165,16 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F162"/>
       <c r="G162" s="23"/>
@@ -8159,27 +8182,31 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E163" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="F163"/>
       <c r="G163" s="23"/>
       <c r="H163" s="15"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C164" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="E164" s="15"/>
       <c r="F164"/>
       <c r="G164" s="23"/>
@@ -8187,800 +8214,796 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D165" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>473</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C165" s="17"/>
+      <c r="E165" s="15"/>
       <c r="F165"/>
       <c r="G165" s="23"/>
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>671</v>
+        <v>222</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F166" t="s">
-        <v>952</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="F166"/>
       <c r="G166" s="23"/>
       <c r="H166" s="15"/>
-      <c r="K166" s="2" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E167" s="13"/>
-      <c r="F167"/>
-      <c r="G167" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="H167" s="13"/>
+        <v>671</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F167" t="s">
+        <v>952</v>
+      </c>
+      <c r="G167" s="23"/>
+      <c r="H167" s="15"/>
+      <c r="K167" s="2" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E168" s="18" t="s">
-        <v>235</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E168" s="13"/>
       <c r="F168"/>
       <c r="G168" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="H168" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>610</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="H168" s="13"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F169"/>
-      <c r="G169" s="25"/>
+      <c r="G169" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="H169" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E170" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F170"/>
-      <c r="G170" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="H170" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="K170" s="2" t="s">
-        <v>618</v>
-      </c>
+      <c r="G170" s="25"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E171" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="F171"/>
       <c r="G171" s="20" t="s">
-        <v>975</v>
-      </c>
-      <c r="H171" s="15" t="s">
-        <v>729</v>
+        <v>974</v>
+      </c>
+      <c r="H171" s="18" t="s">
+        <v>730</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>249</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C172" s="14"/>
       <c r="D172" s="14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E172" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F172"/>
       <c r="G172" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="H172" s="13" t="s">
-        <v>731</v>
+        <v>975</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>729</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E173" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F173"/>
       <c r="G173" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>693</v>
+        <v>976</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>731</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K173" s="19" t="s">
-        <v>607</v>
+        <v>542</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E174" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F174"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="18"/>
+      <c r="G174" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="H174" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K174" s="19" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D175" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E175" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F175"/>
-      <c r="G175" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="H175" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K175" s="2" t="s">
-        <v>606</v>
-      </c>
+      <c r="G175" s="24"/>
+      <c r="H175" s="18"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F176"/>
-      <c r="G176" s="23"/>
-      <c r="H176" s="15"/>
+      <c r="G176" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="H176" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="F177"/>
-      <c r="G177" s="25"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="15"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="B178" s="13"/>
-      <c r="C178" s="20" t="s">
-        <v>804</v>
+        <v>270</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="F178"/>
       <c r="G178" s="25"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C179" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>276</v>
+        <v>805</v>
+      </c>
+      <c r="B179" s="13"/>
+      <c r="C179" s="20" t="s">
+        <v>804</v>
       </c>
       <c r="F179"/>
-      <c r="G179" s="23"/>
-      <c r="H179" s="15"/>
+      <c r="G179" s="25"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="F180"/>
-      <c r="G180" s="25"/>
+      <c r="G180" s="23"/>
+      <c r="H180" s="15"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F181"/>
       <c r="G181" s="25"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F182" t="s">
-        <v>953</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>575</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="F182"/>
+      <c r="G182" s="25"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F183"/>
+        <v>285</v>
+      </c>
+      <c r="F183" t="s">
+        <v>953</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="F184" t="s">
-        <v>954</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F184"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E185" s="18" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F185" t="s">
-        <v>955</v>
-      </c>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
-      <c r="K185" s="2" t="s">
-        <v>578</v>
+        <v>954</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F186"/>
+        <v>294</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E186" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F186" t="s">
+        <v>955</v>
+      </c>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="K186" s="2" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F187"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F188"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F189" t="s">
-        <v>956</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F189"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F190"/>
+        <v>308</v>
+      </c>
+      <c r="F190" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F191"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F192"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F193" t="s">
-        <v>957</v>
-      </c>
-      <c r="K193" s="2" t="s">
-        <v>572</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F193"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E194" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F194" t="s">
-        <v>958</v>
-      </c>
-      <c r="G194" s="15"/>
-      <c r="H194" s="15"/>
+        <v>957</v>
+      </c>
       <c r="K194" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F195"/>
+        <v>323</v>
+      </c>
+      <c r="E195" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F195" t="s">
+        <v>958</v>
+      </c>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="K195" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="E196" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="F196" t="s">
-        <v>959</v>
-      </c>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
+        <v>327</v>
+      </c>
+      <c r="F196"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F197"/>
+        <v>330</v>
+      </c>
+      <c r="E197" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F197" t="s">
+        <v>959</v>
+      </c>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F198"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F199"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D200" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="E200" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F200"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="F201"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F202"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F203"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F204"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F205"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F206"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F207"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F208"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F209"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F210"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C211" s="17"/>
+        <v>374</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="F211"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C212" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="E212" s="15" t="s">
-        <v>381</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C212" s="17"/>
       <c r="F212"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="15"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E213" s="15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F213"/>
       <c r="G213" s="15"/>
@@ -8988,776 +9011,793 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
+      </c>
+      <c r="E214" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="F214"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F215"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E216" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F216"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="15"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="E217" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="F217"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="15"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F218"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E219" s="15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F219"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="15"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="E220" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="F220"/>
+      <c r="G220" s="15"/>
+      <c r="H220" s="15"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>408</v>
       </c>
       <c r="F221"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C222" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="F222"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F223"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F224"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F225"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F226"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F227"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F228"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F229"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F230"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="E231" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="F231" t="s">
-        <v>960</v>
-      </c>
-      <c r="G231" s="15"/>
-      <c r="H231" s="15"/>
-      <c r="K231" s="2" t="s">
-        <v>584</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="F231"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C232" s="16" t="s">
-        <v>445</v>
+        <v>440</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E232" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F232" t="s">
+        <v>960</v>
+      </c>
+      <c r="G232" s="15"/>
+      <c r="H232" s="15"/>
+      <c r="K232" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B235" s="13" t="s">
+      <c r="B236" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C235" s="16" t="s">
+      <c r="C236" s="16" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C236" s="16" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C237" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C238" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C239" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C240" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C241" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" s="16" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C117" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C116" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C118" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C119" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C120" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C121" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C122" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C123" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C124" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C125" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C126" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C128" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C129" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C130" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C131" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C132" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C133" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C134" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C135" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C136" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C137" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C138" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C139" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C140" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C141" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C142" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C143" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C145" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C147" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C148" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C149" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C150" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C151" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C152" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C154" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C155" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C156" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C157" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C158" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C159" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C160" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C161" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C162" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C163" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C165" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C166" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C167" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C168" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C169" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C170" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C172" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C173" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C174" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C175" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C176" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C177" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C179" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C180" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C181" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C182" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C183" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C184" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C185" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C186" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C187" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C188" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C189" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C190" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C191" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C192" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C193" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C194" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C195" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C196" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C197" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C198" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C199" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C200" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C201" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C202" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C203" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C204" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C205" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C206" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C207" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C208" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C209" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C210" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C212" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C213" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C214" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C215" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C216" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C217" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C218" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C219" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C220" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C222" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C223" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C224" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C225" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C226" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C227" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C228" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C229" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C230" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C231" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C127" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C232" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C221" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C233" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C234" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C235" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C236" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C237" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C238" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C239" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C240" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C241" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D116" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D117" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D118" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D120" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D121" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D123" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D124" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D125" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D131" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D159" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D126" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D127" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D128" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D129" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D132" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D133" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D134" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D135" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D136" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D138" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D139" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D140" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D141" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D142" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D143" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D145" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D152" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D154" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D156" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D158" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D165" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D166" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D168" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D171" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D172" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D173" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D175" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D185" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E116" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E117" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E118" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E119" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E120" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E121" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E123" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E124" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E125" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E126" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E128" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E129" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E130" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E132" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E133" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E134" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E135" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E136" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E137" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E138" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E139" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E140" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E141" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E142" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E143" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E144" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E147" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E148" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E149" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E150" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E154" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E155" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E156" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E157" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E158" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E164" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="E165" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E167" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="E171" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E176" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="E179" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E194" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E196" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E212" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E213" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E216" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E219" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E231" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D200" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E131" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E160" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E161" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E172" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E173" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E162" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="E163" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="E127" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E151" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E175" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E166" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="E122" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="E145" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E152" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="E159" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E168" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E170" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="E174" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="E185" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="E200" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B122" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B123" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B124" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B125" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B126" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B127" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B128" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B129" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B130" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B131" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B132" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B133" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B134" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B135" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B136" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B137" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B138" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B139" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B140" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B141" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B142" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B143" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B144" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B145" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B146" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B148" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B149" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B150" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B151" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B152" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B153" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B155" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B156" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B157" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B158" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B159" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B160" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B161" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B162" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B163" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B164" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B165" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B166" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B167" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B116" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B117" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B118" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B119" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B120" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B121" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B235" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B234" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B233" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B232" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B231" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B230" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B229" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B228" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B227" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B226" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B225" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B224" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B223" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B222" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B221" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B220" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B219" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B218" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B217" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B216" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B215" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B214" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B213" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B212" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B211" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B210" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B209" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B208" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B207" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B206" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B205" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B204" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B203" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B202" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B201" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B200" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B199" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B198" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B197" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B196" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B195" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B194" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B193" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B192" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B191" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B190" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B189" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B188" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B187" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B186" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B185" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B184" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B183" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B182" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B181" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B180" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B179" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B177" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B176" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B175" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B174" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B173" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B172" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B171" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B170" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B169" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B168" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E97" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
-    <hyperlink ref="E92" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
-    <hyperlink ref="B93" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
-    <hyperlink ref="B105" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
-    <hyperlink ref="B92" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
-    <hyperlink ref="B91" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
-    <hyperlink ref="E89" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
-    <hyperlink ref="B90" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
-    <hyperlink ref="H172" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
-    <hyperlink ref="B89" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
-    <hyperlink ref="C80" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
-    <hyperlink ref="B78" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
-    <hyperlink ref="E78" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
-    <hyperlink ref="D78" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
-    <hyperlink ref="D79" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
-    <hyperlink ref="B77" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
-    <hyperlink ref="E77" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
-    <hyperlink ref="D77" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
-    <hyperlink ref="E76" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
-    <hyperlink ref="D76" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
-    <hyperlink ref="B96" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
-    <hyperlink ref="B75" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
-    <hyperlink ref="E75" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
-    <hyperlink ref="D75" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
-    <hyperlink ref="B74" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
-    <hyperlink ref="E74" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
-    <hyperlink ref="D74" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
-    <hyperlink ref="E73" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
-    <hyperlink ref="D73" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
-    <hyperlink ref="D72" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
-    <hyperlink ref="E72" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
-    <hyperlink ref="B71" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
-    <hyperlink ref="E71" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
-    <hyperlink ref="D71" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
-    <hyperlink ref="B113" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
-    <hyperlink ref="B70" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
-    <hyperlink ref="D70" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
-    <hyperlink ref="E70" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
-    <hyperlink ref="E69" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
-    <hyperlink ref="C69" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
-    <hyperlink ref="D69" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
-    <hyperlink ref="C178" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
-    <hyperlink ref="C68" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
-    <hyperlink ref="B66" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
-    <hyperlink ref="E66" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
-    <hyperlink ref="E65" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
-    <hyperlink ref="D65" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
-    <hyperlink ref="D66" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
-    <hyperlink ref="B64" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
-    <hyperlink ref="E62" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
-    <hyperlink ref="B62" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
-    <hyperlink ref="D62" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
-    <hyperlink ref="B61" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
-    <hyperlink ref="E61" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
-    <hyperlink ref="E60" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
-    <hyperlink ref="E59" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
-    <hyperlink ref="D59" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
-    <hyperlink ref="D60" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
-    <hyperlink ref="B57" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
-    <hyperlink ref="E57" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
-    <hyperlink ref="E56" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
-    <hyperlink ref="D56" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
-    <hyperlink ref="D55" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
-    <hyperlink ref="B73" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
-    <hyperlink ref="E53" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
-    <hyperlink ref="D53" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
-    <hyperlink ref="D50" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
-    <hyperlink ref="B50" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
-    <hyperlink ref="B52" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
-    <hyperlink ref="B86" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
-    <hyperlink ref="E48" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
-    <hyperlink ref="E44" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
-    <hyperlink ref="D44" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
-    <hyperlink ref="G45" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
-    <hyperlink ref="G46" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
-    <hyperlink ref="G78" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
-    <hyperlink ref="G107" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
-    <hyperlink ref="G116" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
-    <hyperlink ref="G117" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
-    <hyperlink ref="G127" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
-    <hyperlink ref="G143" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
-    <hyperlink ref="G148" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
-    <hyperlink ref="G147" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
-    <hyperlink ref="G150" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
-    <hyperlink ref="G154" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
-    <hyperlink ref="G159" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
-    <hyperlink ref="G167" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
-    <hyperlink ref="G168" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
-    <hyperlink ref="G170" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
-    <hyperlink ref="G171" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
-    <hyperlink ref="G172" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
-    <hyperlink ref="G173" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
-    <hyperlink ref="G175" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
-    <hyperlink ref="E43" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
-    <hyperlink ref="F43" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
-    <hyperlink ref="D43" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
-    <hyperlink ref="D40" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
-    <hyperlink ref="E38" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
-    <hyperlink ref="C91" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
-    <hyperlink ref="D33" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
-    <hyperlink ref="C33" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
-    <hyperlink ref="D32" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
-    <hyperlink ref="E32" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
-    <hyperlink ref="E31" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
-    <hyperlink ref="F31" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
-    <hyperlink ref="F28" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
-    <hyperlink ref="D39" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
-    <hyperlink ref="G39" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
-    <hyperlink ref="G38" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
-    <hyperlink ref="C14" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
-    <hyperlink ref="C6" r:id="rId458" xr:uid="{07B89B79-3496-5B42-A5F0-457EAF8912ED}"/>
-    <hyperlink ref="E5" r:id="rId459" xr:uid="{D2634362-720B-5A48-9686-E337063171AB}"/>
+    <hyperlink ref="C118" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C117" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C119" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C120" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C121" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C122" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C123" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C124" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C125" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C126" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C129" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C130" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C131" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C132" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C133" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C134" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C135" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C136" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C137" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C138" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C139" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C140" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C141" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C142" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C143" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C144" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C146" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C148" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C149" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C150" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C151" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C152" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C153" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C155" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C156" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C157" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C158" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C159" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C160" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C161" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C162" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C163" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C164" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C166" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C167" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C168" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C169" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C170" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C171" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C173" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C174" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C175" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C176" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C177" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C178" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C180" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C181" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C182" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C183" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C184" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C185" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C186" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C187" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C188" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C189" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C190" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C191" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C192" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C193" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C194" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C195" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C196" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C197" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C198" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C199" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C200" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C201" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C202" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C203" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C204" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C205" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C206" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C207" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C208" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C209" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C210" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C211" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C213" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C214" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C215" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C216" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C217" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C218" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C219" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C220" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C221" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C223" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C224" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C225" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C226" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C227" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C228" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C229" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C230" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C231" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C232" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C128" r:id="rId108" display="https://mp.weixin.qq.com/s/LmWJGCLyddA9sAM7arYpag" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C233" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C222" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C234" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C235" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C236" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C237" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C238" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C239" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C240" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C241" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C242" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D117" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D118" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D119" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D121" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D122" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D124" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D125" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D126" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D132" r:id="rId128" tooltip="http://blog.sciencenet.cn/blog-377709-1100389.html" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D160" r:id="rId130" tooltip="http://blog.sciencenet.cn/blog-377709-1073249.html" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D127" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D128" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D129" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D130" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D133" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D134" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D135" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D136" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D137" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D139" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D140" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D141" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D142" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D143" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D144" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D146" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D153" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D155" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D157" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D159" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D166" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D167" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D169" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D176" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D186" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E117" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E118" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E119" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E120" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E121" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E122" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E124" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E125" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E126" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E127" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E129" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E130" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E131" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E133" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E134" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E135" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E136" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E137" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E138" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E139" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E140" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E141" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E142" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E143" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E144" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E145" r:id="rId187" display="https://zhuanlan.zhihu.com/p/30970993" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E148" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E149" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E150" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E151" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E155" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E156" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E157" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="E158" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E159" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E165" r:id="rId197" display="https://zhuanlan.zhihu.com/p/28948653" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E166" r:id="rId198" display="https://zhuanlan.zhihu.com/p/28946914" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E168" r:id="rId199" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="E172" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E177" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="E180" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="E195" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E197" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E213" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E214" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E217" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E220" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E232" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D201" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E132" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E161" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E162" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E173" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="E174" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E163" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E164" r:id="rId217" display="https://zhuanlan.zhihu.com/p/28038303" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E128" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E152" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E176" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E167" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E123" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E146" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E153" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E160" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E169" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E171" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E175" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E186" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="E201" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B123" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B124" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B125" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B126" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B127" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B128" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B129" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B130" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B131" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B132" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B133" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B134" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B135" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B136" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B137" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B138" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B139" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B140" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B141" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B142" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B143" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B144" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B145" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B146" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B147" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B149" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B150" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B151" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B152" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B153" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B154" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B156" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B157" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B158" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B159" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B160" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B161" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B162" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B163" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B164" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B165" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B166" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B167" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B168" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B117" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B118" r:id="rId276" tooltip="https://www.jianshu.com/p/1fbc37f975d7" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B119" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B120" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B121" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B122" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B236" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B235" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B234" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B233" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B232" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B231" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B230" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B229" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B228" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B227" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B226" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B225" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B224" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B223" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B222" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B221" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B220" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B219" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B218" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B217" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B216" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B215" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B214" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B213" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B212" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B211" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B210" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B209" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B208" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B207" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B206" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B205" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B204" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B203" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B202" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B201" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B200" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B199" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B198" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B197" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B196" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B195" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B194" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B193" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B192" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B191" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B190" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B189" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B188" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B187" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B186" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B185" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B184" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B183" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B182" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B181" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B180" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B178" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B177" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B176" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B175" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B174" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B173" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B172" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B171" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B170" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B169" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E98" r:id="rId348" xr:uid="{CCA89662-2657-C442-826A-A90D3F261910}"/>
+    <hyperlink ref="E93" r:id="rId349" xr:uid="{B25C44FF-5B96-B740-B3BD-4484C3DDFE5F}"/>
+    <hyperlink ref="B94" r:id="rId350" xr:uid="{FE17CC5E-DB5C-904F-BED6-C2681F0BD7C5}"/>
+    <hyperlink ref="B106" r:id="rId351" xr:uid="{F06DEC02-0E65-B844-840B-11D80B55DB68}"/>
+    <hyperlink ref="B93" r:id="rId352" xr:uid="{2054BD96-956C-C84C-BBA9-2F30CB32B17D}"/>
+    <hyperlink ref="B92" r:id="rId353" xr:uid="{762BFEF3-E9A1-094C-9395-5A73868166AE}"/>
+    <hyperlink ref="E90" r:id="rId354" xr:uid="{BCAF2CBA-67D2-3443-B5D6-D4C5869E2E43}"/>
+    <hyperlink ref="B91" r:id="rId355" xr:uid="{90EA4AD0-5B37-6642-A47E-74E78D507CE7}"/>
+    <hyperlink ref="H173" r:id="rId356" xr:uid="{BEF828C5-A667-5647-8B6F-952C0577403F}"/>
+    <hyperlink ref="B90" r:id="rId357" xr:uid="{B56F24FC-CB37-D946-A3D4-61161A88D7A8}"/>
+    <hyperlink ref="C81" r:id="rId358" location="rd" xr:uid="{CD9D9F8A-A50C-5D4A-B93A-675BA1AEF362}"/>
+    <hyperlink ref="B79" r:id="rId359" xr:uid="{AE80AAB2-D70E-1149-8054-F6B8DC8EBC67}"/>
+    <hyperlink ref="E79" r:id="rId360" xr:uid="{9AE159D0-BF19-4745-85E5-302E5BEFE725}"/>
+    <hyperlink ref="D79" r:id="rId361" xr:uid="{9DDC31B6-3DFA-8940-9F6C-4C76DAECED77}"/>
+    <hyperlink ref="D80" r:id="rId362" xr:uid="{4F912794-7451-8643-88F6-A6CAC64AE6E1}"/>
+    <hyperlink ref="B78" r:id="rId363" xr:uid="{9291562F-18F8-A74D-A0C1-E6E901162EBF}"/>
+    <hyperlink ref="E78" r:id="rId364" xr:uid="{99467096-DC99-2F41-8E1C-FF1038D24B23}"/>
+    <hyperlink ref="D78" r:id="rId365" xr:uid="{34EBBB25-E4F0-1D48-BCE9-54C92ABF5AF1}"/>
+    <hyperlink ref="E77" r:id="rId366" xr:uid="{35B15F21-6388-6741-A040-409D3E8A1F50}"/>
+    <hyperlink ref="D77" r:id="rId367" xr:uid="{7F87B8CE-DE94-F64E-BC89-5AF6F02FDFA7}"/>
+    <hyperlink ref="B97" r:id="rId368" xr:uid="{9A037D0F-8778-EC4C-A27C-872EC250BF80}"/>
+    <hyperlink ref="B76" r:id="rId369" xr:uid="{CED18058-102B-364A-86E8-BD3D4DFC9177}"/>
+    <hyperlink ref="E76" r:id="rId370" xr:uid="{7349C00C-154E-2E4B-970C-E4C187059B60}"/>
+    <hyperlink ref="D76" r:id="rId371" xr:uid="{5CE41B83-0DD3-CE40-81C3-B4FC130F5459}"/>
+    <hyperlink ref="B75" r:id="rId372" xr:uid="{BE3FBABE-22F5-E94F-A000-6E058FB80F47}"/>
+    <hyperlink ref="E75" r:id="rId373" xr:uid="{CE56ED03-423C-644A-ADC0-24CED63BC44B}"/>
+    <hyperlink ref="D75" r:id="rId374" xr:uid="{B37FFF8A-CF1B-8A42-90C0-9AEFA7E4AA19}"/>
+    <hyperlink ref="E74" r:id="rId375" xr:uid="{F466DE35-112D-7E4C-9E09-56A830947BAD}"/>
+    <hyperlink ref="D74" r:id="rId376" xr:uid="{B4F58560-6F67-9C4F-918F-2D1480CAB990}"/>
+    <hyperlink ref="D73" r:id="rId377" xr:uid="{BA0C18D2-B576-D847-902F-BF63504755B2}"/>
+    <hyperlink ref="E73" r:id="rId378" xr:uid="{0B6B1EDB-E398-CA4D-9A21-D50F025C1022}"/>
+    <hyperlink ref="B72" r:id="rId379" xr:uid="{17A43FA8-E3BD-B74D-88C3-6BF3157A2749}"/>
+    <hyperlink ref="E72" r:id="rId380" xr:uid="{FB7A1483-5B09-B24F-B252-F8330DC1E015}"/>
+    <hyperlink ref="D72" r:id="rId381" xr:uid="{08A79D78-0AB4-9041-B8D0-D072D68DC69B}"/>
+    <hyperlink ref="B114" r:id="rId382" xr:uid="{861DBA27-0DF4-EE4B-84EE-E8ECB4FF517C}"/>
+    <hyperlink ref="B71" r:id="rId383" xr:uid="{FDE91630-59F7-7B41-815F-0D7EEBCD0A19}"/>
+    <hyperlink ref="D71" r:id="rId384" xr:uid="{D4D360A2-1BEF-F04D-B7FB-B88605302C8F}"/>
+    <hyperlink ref="E71" r:id="rId385" xr:uid="{BA87CF8D-EADB-DD4A-80ED-75BAFA8ACBFD}"/>
+    <hyperlink ref="E70" r:id="rId386" xr:uid="{028D9A6D-7102-924C-BA2E-92D40EDFF959}"/>
+    <hyperlink ref="C70" r:id="rId387" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540599&amp;idx=1&amp;sn=965e4bf4169b36c344e25e3844a936e3&amp;chksm=f389ba20c4fe3336166bd690eb8c46d519a72230e86938ab711b4a221562d737dfeea9aedb2c&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{1E4018EF-D5AA-634F-AB8B-105A0983494F}"/>
+    <hyperlink ref="D70" r:id="rId388" xr:uid="{5F15B3EF-BB7D-5E4E-9D54-0153EE8D0C5D}"/>
+    <hyperlink ref="C179" r:id="rId389" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;mid=2653540211&amp;idx=1&amp;sn=5b2cdff7b1496aec1476ac4db0693864&amp;chksm=f389a5a4c4fe2cb2cf949f9f581c2040ba52520f86efb6bea90d19c2fd9791b85278f854efff&amp;token=1847901988&amp;lang=zh_CN - rd" xr:uid="{E71BA97E-087C-434F-A058-65CA7851FB3D}"/>
+    <hyperlink ref="C69" r:id="rId390" location="rd" display="https://mp.weixin.qq.com/s?__biz=MzIyODI1MzYyNA==&amp;tempkey=MTAxM19rT204eHB4MkFMVDh4M2xkdncxbGZDTHk4UV9xbVRSTjhtcE5pbkRxSy1RYjhjMkQxM0d6dVdQelI3OHpPdVRBZlhVUmxmLUdFbjlNNmVtdkc1UHlVUG9MN2FoSE9PRWUzQnQxZUpEcHQzQjM2U2ViZHM1WDNxN0VLY3QyRkxjeHBvNkJoc1FhdUtvN0o1Zjl6WkVkellWZTBpSTVnTEVKeXRheEhnfn4%3D&amp;chksm=7389ba2c44fe333a94d2ba6fa3a7ca6ab9ca8696d645b6e8578e8a11d169ae2ce96899dbc5a3 - rd" xr:uid="{C3F4171E-A4F7-7243-AD36-564050798C5A}"/>
+    <hyperlink ref="B67" r:id="rId391" xr:uid="{E30DC37B-9826-DF42-AF79-A67EC262708D}"/>
+    <hyperlink ref="E67" r:id="rId392" xr:uid="{A8A8AF7D-EAFB-C447-8C0C-06C82CBE841E}"/>
+    <hyperlink ref="E66" r:id="rId393" xr:uid="{AF57957E-BC30-574C-B29C-8320169854EC}"/>
+    <hyperlink ref="D66" r:id="rId394" xr:uid="{4FDDD470-2908-7341-AB3B-2FE0EF12945C}"/>
+    <hyperlink ref="D67" r:id="rId395" xr:uid="{99CD2C4C-A67A-DD4C-B65A-19A5EBA9DD2C}"/>
+    <hyperlink ref="B65" r:id="rId396" xr:uid="{03C3020C-E723-DB4F-B7F9-26EF13FC8A6E}"/>
+    <hyperlink ref="E63" r:id="rId397" xr:uid="{DA46089C-D6E1-AF4D-A0EE-2438186EFD59}"/>
+    <hyperlink ref="B63" r:id="rId398" xr:uid="{E57E1E2E-F0DF-774F-8C9E-D800425A7035}"/>
+    <hyperlink ref="D63" r:id="rId399" xr:uid="{BD8961DB-DD67-1E44-9941-231ED67F679F}"/>
+    <hyperlink ref="B62" r:id="rId400" xr:uid="{0ECA2FBD-14B3-CC45-BBA7-67710763178D}"/>
+    <hyperlink ref="E62" r:id="rId401" xr:uid="{28866246-7F28-134A-A501-29AEBF4780CA}"/>
+    <hyperlink ref="E61" r:id="rId402" xr:uid="{116FAD49-BC3C-E343-ABCB-B8746CDEBBB7}"/>
+    <hyperlink ref="E60" r:id="rId403" xr:uid="{564BCF37-422A-3345-8388-538A33531AC6}"/>
+    <hyperlink ref="D60" r:id="rId404" xr:uid="{992CDACB-9B8B-9249-A0DE-AF13E31B5CA6}"/>
+    <hyperlink ref="D61" r:id="rId405" xr:uid="{56AA5360-9EE1-8944-A18A-44E8CBD76446}"/>
+    <hyperlink ref="B58" r:id="rId406" xr:uid="{C5383FE5-0D05-E04A-92FA-9ADBFCA831B5}"/>
+    <hyperlink ref="E58" r:id="rId407" xr:uid="{FEA2CD22-2A7F-2C48-8589-8AD9A8DF482F}"/>
+    <hyperlink ref="E57" r:id="rId408" xr:uid="{23482570-FF08-8643-9431-5B7D22346DBC}"/>
+    <hyperlink ref="D57" r:id="rId409" xr:uid="{3EEED635-F599-1C4B-BBD7-DFBB2D6AB470}"/>
+    <hyperlink ref="D56" r:id="rId410" xr:uid="{4AE34281-C67A-5645-A82C-BA2198FF1A07}"/>
+    <hyperlink ref="B74" r:id="rId411" xr:uid="{1BD5A471-0BA4-584A-B7DC-A89B79C2F579}"/>
+    <hyperlink ref="E54" r:id="rId412" xr:uid="{F0731A12-73C1-1B42-9388-FE9C6D272FF8}"/>
+    <hyperlink ref="D54" r:id="rId413" xr:uid="{CB78AC25-22E9-5F41-8910-BB2CED381CA3}"/>
+    <hyperlink ref="D51" r:id="rId414" xr:uid="{60DEEBAF-6743-8B44-9FBC-6FF355CB6647}"/>
+    <hyperlink ref="B51" r:id="rId415" xr:uid="{9707874C-1586-D344-A55A-38EF71550A23}"/>
+    <hyperlink ref="B53" r:id="rId416" xr:uid="{477F537D-4794-3243-A418-7A8CB1EE0A96}"/>
+    <hyperlink ref="B87" r:id="rId417" xr:uid="{481E3890-303A-3645-8F82-F3BEFCCF5E98}"/>
+    <hyperlink ref="E49" r:id="rId418" xr:uid="{50D031CF-3900-9B4E-927C-27A490989C54}"/>
+    <hyperlink ref="E45" r:id="rId419" xr:uid="{C8AC756F-6835-4643-8DD8-6461B6E14E4F}"/>
+    <hyperlink ref="D45" r:id="rId420" xr:uid="{11F7B5F5-1B71-B648-9412-1A99D5E53F4A}"/>
+    <hyperlink ref="G46" r:id="rId421" xr:uid="{71A036C2-C3BF-4F4D-B7C8-A10EFACAE28F}"/>
+    <hyperlink ref="G47" r:id="rId422" xr:uid="{25AB0CCD-5693-EC4B-B262-4C360C97D11E}"/>
+    <hyperlink ref="G79" r:id="rId423" xr:uid="{E1DACF3E-5A2C-E644-83EA-7AC95760BACA}"/>
+    <hyperlink ref="G108" r:id="rId424" xr:uid="{799AFF80-FB08-144E-83F1-AF01DD0895D1}"/>
+    <hyperlink ref="G117" r:id="rId425" xr:uid="{44C95066-2B5F-C641-9072-D44C43726A69}"/>
+    <hyperlink ref="G118" r:id="rId426" xr:uid="{5AFFAD5C-9320-4649-8259-410E31717D3A}"/>
+    <hyperlink ref="G128" r:id="rId427" xr:uid="{2B671401-C9B0-8040-9DC8-DD83A5E707AF}"/>
+    <hyperlink ref="G144" r:id="rId428" xr:uid="{2BC7E11A-7EF3-F443-9BED-7C44B560B5C7}"/>
+    <hyperlink ref="G149" r:id="rId429" xr:uid="{F9E131B4-5B46-584C-B5B4-0150BD28EE79}"/>
+    <hyperlink ref="G148" r:id="rId430" xr:uid="{46708FBA-2A81-5D49-A0B7-D677B19AF076}"/>
+    <hyperlink ref="G151" r:id="rId431" xr:uid="{6C4BEE92-85FC-2D41-A984-D5D566269393}"/>
+    <hyperlink ref="G155" r:id="rId432" xr:uid="{718E05EE-7F5E-D84E-BC36-045CC53DFC69}"/>
+    <hyperlink ref="G160" r:id="rId433" xr:uid="{2DAF328D-7C28-7341-84D1-1266EBD13724}"/>
+    <hyperlink ref="G168" r:id="rId434" xr:uid="{15B42F9E-3B0D-6B43-9DF0-D90250558416}"/>
+    <hyperlink ref="G169" r:id="rId435" xr:uid="{F7314F05-224D-3940-AFD5-06915AED519F}"/>
+    <hyperlink ref="G171" r:id="rId436" xr:uid="{AD69FADB-7A61-AA41-A78F-FEE0C920308F}"/>
+    <hyperlink ref="G172" r:id="rId437" xr:uid="{6C05FE13-467A-554D-B2A5-6F28B072369D}"/>
+    <hyperlink ref="G173" r:id="rId438" xr:uid="{16336246-AE4D-994F-AA2B-AF50E93FB711}"/>
+    <hyperlink ref="G174" r:id="rId439" xr:uid="{5B11373F-C07B-2D41-A6B3-0E233A9E71AB}"/>
+    <hyperlink ref="G176" r:id="rId440" xr:uid="{A5762AB8-653D-CD49-9AB0-82F608057A08}"/>
+    <hyperlink ref="E44" r:id="rId441" xr:uid="{FA88067D-10DC-FD41-9E08-2F3197F473E7}"/>
+    <hyperlink ref="F44" r:id="rId442" xr:uid="{947F9C83-B392-7543-AB8A-0D6B8BC3C914}"/>
+    <hyperlink ref="D44" r:id="rId443" xr:uid="{7D7BE42E-F4A1-F444-82E7-A4B9E155CB33}"/>
+    <hyperlink ref="D41" r:id="rId444" xr:uid="{2BE70EC5-0CBF-4149-9575-3A548F0D4EE2}"/>
+    <hyperlink ref="E39" r:id="rId445" xr:uid="{1F3CB874-D955-5142-A06D-6D5DD231A393}"/>
+    <hyperlink ref="C92" r:id="rId446" location="rd" xr:uid="{80C8617B-12FA-9B46-9FF4-A692FE1861C4}"/>
+    <hyperlink ref="D34" r:id="rId447" xr:uid="{D59AC944-D8F9-8849-B17C-2817128D8A67}"/>
+    <hyperlink ref="C34" r:id="rId448" xr:uid="{E50FD4B5-1D20-B84A-B380-58E94E5B197D}"/>
+    <hyperlink ref="D33" r:id="rId449" xr:uid="{C9EAE1CC-3FF2-474C-BCBE-12EB91258E22}"/>
+    <hyperlink ref="E33" r:id="rId450" xr:uid="{5D97AE49-5E56-3F41-8AA5-447DB56D28A5}"/>
+    <hyperlink ref="E32" r:id="rId451" xr:uid="{8A99DE98-D546-E54A-9341-9F21B2A869E4}"/>
+    <hyperlink ref="F32" r:id="rId452" xr:uid="{F6E2DC84-0FE3-3F41-B9BC-93DB2BCEB22E}"/>
+    <hyperlink ref="F29" r:id="rId453" xr:uid="{57628DDE-9CFD-A540-A8E0-CCBC204935C1}"/>
+    <hyperlink ref="D40" r:id="rId454" xr:uid="{0518EF53-7625-F449-B2C8-CAB753BA8684}"/>
+    <hyperlink ref="G40" r:id="rId455" xr:uid="{C8298514-6322-D148-83AE-7E60B87179B8}"/>
+    <hyperlink ref="G39" r:id="rId456" xr:uid="{98432DF4-69EA-0640-AE52-FE6754A693D3}"/>
+    <hyperlink ref="C15" r:id="rId457" xr:uid="{AEBA9976-1C7D-6A4F-B28B-0A0289C3A6F5}"/>
+    <hyperlink ref="C7" r:id="rId458" xr:uid="{07B89B79-3496-5B42-A5F0-457EAF8912ED}"/>
+    <hyperlink ref="E6" r:id="rId459" xr:uid="{D2634362-720B-5A48-9686-E337063171AB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/articlelinks.xlsx
+++ b/articlelinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsy/Dropbox/markdown_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79316B25-161B-674D-8CD6-605F401F80FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E61B72D-2AC1-C748-B3CC-E726561FCA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20000" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1188">
   <si>
     <t>文科生如何理解卷积神经网络？</t>
   </si>
@@ -3621,6 +3621,24 @@
   </si>
   <si>
     <t>https://sspai.com/post/67395</t>
+  </si>
+  <si>
+    <t>如何更高效用 Roam？免费分享 Roam Untangled 作者 Jamie Miles 的几个小技巧</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/384620993</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/6KwIm7sYtf_SXVMINwX2qQ</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/67451</t>
+  </si>
+  <si>
+    <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;quickforward=1&amp;id=1293117</t>
+  </si>
+  <si>
+    <t>http://blog.sciencenet.cn/home.php?mod=space&amp;uid=377709&amp;do=blog&amp;id=1292488</t>
   </si>
 </sst>
 </file>
@@ -4113,10 +4131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N242"/>
+  <dimension ref="A1:N243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4167,17 +4185,20 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1177</v>
+      <c r="A2" s="5" t="s">
+        <v>1182</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1179</v>
+        <v>1184</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1186</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4190,19 +4211,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1176</v>
+        <v>1187</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4215,19 +4236,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1155</v>
+        <v>1174</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1161</v>
+        <v>1180</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1156</v>
+        <v>1175</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1157</v>
+        <v>1173</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -4240,13 +4261,20 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>1161</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1157</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="4"/>
@@ -4258,20 +4286,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1158</v>
-      </c>
+        <v>1163</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
@@ -4283,19 +4304,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1149</v>
+        <v>1154</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1150</v>
+        <v>1160</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1153</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1151</v>
+        <v>1158</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -4308,13 +4329,20 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>1148</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1151</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
@@ -4326,20 +4354,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>1166</v>
+        <v>1147</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1165</v>
-      </c>
+        <v>1146</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
@@ -4351,19 +4372,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1141</v>
+        <v>1166</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1145</v>
+        <v>1172</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1144</v>
+        <v>1171</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1142</v>
+        <v>1170</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1143</v>
+        <v>1165</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -4376,19 +4397,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -4401,13 +4422,20 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+        <v>1138</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1140</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
@@ -4419,20 +4447,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1130</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
@@ -4444,16 +4465,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1127</v>
+        <v>1131</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1126</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -4466,19 +4490,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1122</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -4491,16 +4512,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>1115</v>
+        <v>1119</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1120</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -4513,16 +4537,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -4535,16 +4559,18 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>1109</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -4555,14 +4581,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>1109</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -4573,10 +4601,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -4591,20 +4619,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>1093</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="4"/>
@@ -4616,16 +4637,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1088</v>
+        <v>1096</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4638,19 +4662,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1169</v>
+        <v>1088</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1168</v>
+        <v>1091</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1167</v>
+        <v>1090</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4663,19 +4684,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1085</v>
+        <v>1169</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1086</v>
+        <v>1168</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1087</v>
+        <v>1167</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -4688,13 +4709,20 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+        <v>1084</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>1087</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="4"/>
@@ -4706,17 +4734,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>1042</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="4"/>
@@ -4728,19 +4752,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -4753,16 +4774,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1040</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -4775,19 +4799,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>1027</v>
+        <v>1036</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>1035</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -4800,16 +4821,19 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -4822,13 +4846,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1048</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -4841,16 +4868,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>1022</v>
+        <v>1031</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>1032</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -4863,16 +4887,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>1018</v>
+        <v>1021</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1049</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>1020</v>
+        <v>1022</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -4885,19 +4909,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>1014</v>
+        <v>1018</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>1019</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -4910,19 +4931,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>1006</v>
+        <v>1012</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>1013</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -4935,13 +4956,20 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+        <v>1050</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>1010</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="4"/>
@@ -4953,20 +4981,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>1011</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
@@ -4978,23 +4999,21 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>1108</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5005,22 +5024,22 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>992</v>
+        <v>994</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>997</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>1107</v>
+        <v>1000</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>1108</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
@@ -5032,22 +5051,22 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>998</v>
+        <v>1054</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>992</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>1106</v>
+        <v>1001</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>1107</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
@@ -5059,22 +5078,22 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>989</v>
+        <v>1055</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>996</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>1105</v>
+        <v>1002</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>1106</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="4"/>
@@ -5086,14 +5105,23 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+        <v>986</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>1105</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -5104,14 +5132,12 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>999</v>
-      </c>
+        <v>1057</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -5124,20 +5150,15 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>981</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
@@ -5149,19 +5170,19 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1059</v>
+        <v>979</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>983</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>896</v>
+        <v>982</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>897</v>
+        <v>980</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>981</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -5174,23 +5195,21 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>892</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -5201,22 +5220,22 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C47" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>1060</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
@@ -5228,16 +5247,23 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E48" s="6"/>
+        <v>1060</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>888</v>
+      </c>
       <c r="F48" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="G48" s="21"/>
+        <v>890</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>893</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -5248,21 +5274,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="F49" t="s">
-        <v>898</v>
-      </c>
-      <c r="G49" s="20"/>
+        <v>1061</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="G49" s="21"/>
       <c r="H49" s="6"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -5273,18 +5294,21 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>875</v>
+        <v>1062</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="F50" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G50" s="21"/>
+        <v>898</v>
+      </c>
+      <c r="G50" s="20"/>
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5295,22 +5319,16 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>871</v>
+        <v>1063</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="F51" t="s">
-        <v>899</v>
+        <v>1129</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="6"/>
@@ -5323,15 +5341,23 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B52" s="20"/>
+        <v>867</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>873</v>
+      </c>
       <c r="C52" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="6"/>
-      <c r="F52"/>
+        <v>1064</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="F52" t="s">
+        <v>899</v>
+      </c>
       <c r="G52" s="21"/>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
@@ -5343,23 +5369,15 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>874</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B53" s="20"/>
       <c r="C53" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F53" t="s">
-        <v>900</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="6"/>
+      <c r="F53"/>
       <c r="G53" s="21"/>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
@@ -5371,24 +5389,24 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>865</v>
+        <v>868</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>874</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>860</v>
+        <v>1067</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>869</v>
       </c>
       <c r="F54" t="s">
-        <v>901</v>
-      </c>
-      <c r="G54" s="20"/>
+        <v>900</v>
+      </c>
+      <c r="G54" s="21"/>
       <c r="H54" s="6"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -5399,24 +5417,24 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>862</v>
+        <v>1068</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F55" t="s">
-        <v>902</v>
-      </c>
-      <c r="G55" s="21"/>
+        <v>901</v>
+      </c>
+      <c r="G55" s="20"/>
       <c r="H55" s="6"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5427,22 +5445,22 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>855</v>
+        <v>1069</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F56" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="6"/>
@@ -5455,29 +5473,27 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>850</v>
+        <v>855</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="F57" t="s">
-        <v>904</v>
-      </c>
-      <c r="G57" s="20"/>
+        <v>903</v>
+      </c>
+      <c r="G57" s="21"/>
       <c r="H57" s="6"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -5485,24 +5501,29 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>845</v>
+        <v>849</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>851</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F58" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="6"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="J58" s="4" t="s">
+        <v>852</v>
+      </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -5510,21 +5531,21 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>845</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>848</v>
+        <v>1072</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>847</v>
       </c>
       <c r="F59" t="s">
-        <v>906</v>
-      </c>
-      <c r="G59" s="21"/>
+        <v>905</v>
+      </c>
+      <c r="G59" s="20"/>
       <c r="H59" s="6"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -5535,24 +5556,21 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>840</v>
+        <v>1073</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>848</v>
       </c>
       <c r="F60" t="s">
-        <v>907</v>
-      </c>
-      <c r="G60" s="20"/>
+        <v>906</v>
+      </c>
+      <c r="G60" s="21"/>
       <c r="H60" s="6"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -5563,21 +5581,23 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F61"/>
+        <v>840</v>
+      </c>
+      <c r="F61" t="s">
+        <v>907</v>
+      </c>
       <c r="G61" s="20"/>
       <c r="H61" s="6"/>
       <c r="I61" s="4"/>
@@ -5589,16 +5609,19 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>834</v>
+        <v>837</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>842</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F62"/>
       <c r="G62" s="20"/>
@@ -5612,23 +5635,18 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>828</v>
+        <v>1076</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="F63" t="s">
-        <v>908</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="F63"/>
       <c r="G63" s="20"/>
       <c r="H63" s="6"/>
       <c r="I63" s="4"/>
@@ -5640,22 +5658,22 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F64" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="6"/>
@@ -5668,24 +5686,24 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>822</v>
+        <v>1078</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>831</v>
       </c>
       <c r="F65" t="s">
-        <v>910</v>
-      </c>
-      <c r="G65" s="21"/>
+        <v>909</v>
+      </c>
+      <c r="G65" s="20"/>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -5696,24 +5714,24 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>814</v>
+        <v>821</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>820</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>815</v>
+        <v>824</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="F66" t="s">
-        <v>911</v>
-      </c>
-      <c r="G66" s="20"/>
+        <v>910</v>
+      </c>
+      <c r="G66" s="21"/>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -5724,22 +5742,22 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>808</v>
+        <v>816</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F67" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="6"/>
@@ -5752,14 +5770,23 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="B68" s="20"/>
+        <v>819</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>808</v>
+      </c>
       <c r="C68" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="E68" s="20"/>
-      <c r="F68"/>
+        <v>812</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="F68" t="s">
+        <v>912</v>
+      </c>
       <c r="G68" s="20"/>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
@@ -5771,14 +5798,15 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="E69" s="6"/>
+        <v>811</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E69" s="20"/>
       <c r="F69"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="20"/>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -5789,24 +5817,14 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F70" t="s">
-        <v>913</v>
-      </c>
-      <c r="G70" s="20"/>
+        <v>807</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70"/>
+      <c r="G70" s="21"/>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -5817,22 +5835,22 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>796</v>
+        <v>799</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F71" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="6"/>
@@ -5845,22 +5863,22 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="F72" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="6"/>
@@ -5873,22 +5891,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>789</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="F73" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="6"/>
@@ -5901,22 +5919,22 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>779</v>
+        <v>787</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F74" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="6"/>
@@ -5929,21 +5947,23 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F75"/>
+        <v>780</v>
+      </c>
+      <c r="F75" t="s">
+        <v>917</v>
+      </c>
       <c r="G75" s="20"/>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
@@ -5955,19 +5975,19 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F76"/>
       <c r="G76" s="20"/>
@@ -5981,23 +6001,21 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>764</v>
+        <v>768</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>769</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="F77" t="s">
-        <v>918</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F77"/>
       <c r="G77" s="20"/>
       <c r="H77" s="6"/>
       <c r="I77" s="4"/>
@@ -6009,22 +6027,22 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>759</v>
+        <v>763</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="F78" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="6"/>
@@ -6037,26 +6055,24 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="F79" t="s">
-        <v>920</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="G79" s="20"/>
       <c r="H79" s="6"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6067,24 +6083,26 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>752</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>750</v>
+        <v>756</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F80" t="s">
-        <v>921</v>
-      </c>
-      <c r="G80" s="21"/>
+        <v>920</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>961</v>
+      </c>
       <c r="H80" s="6"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6095,22 +6113,22 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>743</v>
+        <v>748</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>757</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F81" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G81" s="21"/>
       <c r="H81" s="6"/>
@@ -6123,22 +6141,22 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F82" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="6"/>
@@ -6151,22 +6169,22 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F83" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="6"/>
@@ -6179,22 +6197,22 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F84" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="6"/>
@@ -6207,21 +6225,23 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F85"/>
+        <v>726</v>
+      </c>
+      <c r="F85" t="s">
+        <v>925</v>
+      </c>
       <c r="G85" s="21"/>
       <c r="H85" s="6"/>
       <c r="I85" s="4"/>
@@ -6233,23 +6253,21 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="F86" t="s">
-        <v>926</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="F86"/>
       <c r="G86" s="21"/>
       <c r="H86" s="6"/>
       <c r="I86" s="4"/>
@@ -6261,22 +6279,22 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>709</v>
+        <v>712</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F87" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="6"/>
@@ -6289,22 +6307,22 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="F88" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="6"/>
@@ -6317,21 +6335,23 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="F89"/>
+        <v>706</v>
+      </c>
+      <c r="F89" t="s">
+        <v>928</v>
+      </c>
       <c r="G89" s="21"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4"/>
@@ -6343,22 +6363,22 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>695</v>
+        <v>698</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>696</v>
+        <v>700</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="F90"/>
-      <c r="G90" s="22"/>
+      <c r="G90" s="21"/>
       <c r="H90" s="6"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -6369,24 +6389,22 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="F91" t="s">
-        <v>929</v>
-      </c>
-      <c r="G91" s="21"/>
+        <v>697</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91" s="22"/>
       <c r="H91" s="6"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -6397,28 +6415,26 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>684</v>
+        <v>686</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="F92" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G92" s="21"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -6427,26 +6443,28 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>676</v>
+        <v>681</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>673</v>
+        <v>682</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="F93" t="s">
-        <v>931</v>
-      </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="4"/>
+        <v>930</v>
+      </c>
+      <c r="G93" s="21"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -6455,25 +6473,25 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>669</v>
+        <v>674</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="F94" t="s">
-        <v>932</v>
-      </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="6"/>
+        <v>931</v>
+      </c>
+      <c r="G94" s="22"/>
+      <c r="H94" s="13"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -6483,22 +6501,22 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>659</v>
+        <v>668</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F95" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G95" s="21"/>
       <c r="H95" s="6"/>
@@ -6511,81 +6529,81 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F96" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="6"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4" t="s">
-        <v>657</v>
-      </c>
+      <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>648</v>
+        <v>653</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>654</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F97"/>
+        <v>655</v>
+      </c>
+      <c r="F97" t="s">
+        <v>934</v>
+      </c>
       <c r="G97" s="21"/>
       <c r="H97" s="6"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
+      <c r="K97" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>603</v>
+        <v>647</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>648</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="F98" t="s">
-        <v>935</v>
-      </c>
-      <c r="G98" s="22"/>
-      <c r="H98" s="13"/>
+        <v>650</v>
+      </c>
+      <c r="E98" s="6" t="